--- a/DaySale_2025-09-03_00-00.xlsx
+++ b/DaySale_2025-09-03_00-00.xlsx
@@ -62,7 +62,61 @@
     <t>1:0</t>
   </si>
   <si>
-    <t>Wednesday, 3 September, 2025 9:27 AM</t>
+    <t>PANTAZOL 40MG 14 ENTERIC COATED TAB.</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>104.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>TRIPLIXAM 10/2.5/10MG 15 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>-90:0</t>
+  </si>
+  <si>
+    <t>234.00</t>
+  </si>
+  <si>
+    <t>21294.0000</t>
+  </si>
+  <si>
+    <t>91:0</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
+    <t>Wednesday, 3 September, 2025 9:56 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -724,38 +778,170 @@
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="P8" s="13">
+      <c r="A8" s="7">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c t="s" r="C8" s="8">
+        <v>17</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c t="s" r="H8" s="9">
+        <v>18</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c t="s" r="L8" s="10">
+        <v>13</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c t="s" r="N8" s="8">
+        <v>19</v>
+      </c>
+      <c r="O8" s="8"/>
+      <c t="s" r="P8" s="11">
+        <v>20</v>
+      </c>
+      <c t="s" r="Q8" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" ht="25.5" customHeight="1">
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c t="s" r="C9" s="8">
+        <v>21</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c t="s" r="H9" s="9">
+        <v>22</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c t="s" r="L9" s="10">
+        <v>13</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c t="s" r="N9" s="8">
+        <v>23</v>
+      </c>
+      <c r="O9" s="8"/>
+      <c t="s" r="P9" s="11">
+        <v>24</v>
+      </c>
+      <c t="s" r="Q9" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
+        <v>26</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
+        <v>27</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
+        <v>13</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
+        <v>28</v>
+      </c>
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
         <v>29</v>
       </c>
-      <c r="Q8" s="13"/>
-    </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c t="s" r="A9" s="14">
-        <v>17</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c t="s" r="G9" s="15">
+      <c t="s" r="Q10" s="12">
         <v>18</v>
       </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-      <c t="s" r="K9" s="17">
-        <v>19</v>
-      </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
+        <v>30</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
+        <v>31</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>32</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
+        <v>33</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
+        <v>34</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="P12" s="13">
+        <v>21393.830000000002</v>
+      </c>
+      <c r="Q12" s="13"/>
+    </row>
+    <row r="13" ht="16.5" customHeight="1">
+      <c t="s" r="A13" s="14">
+        <v>35</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c t="s" r="G13" s="15">
+        <v>36</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16"/>
+      <c t="s" r="K13" s="17">
+        <v>37</v>
+      </c>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="37">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -769,10 +955,30 @@
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="K13:Q13"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-03_00-00.xlsx
+++ b/DaySale_2025-09-03_00-00.xlsx
@@ -77,16 +77,13 @@
     <t>TRIPLIXAM 10/2.5/10MG 15 F.C. TABS.</t>
   </si>
   <si>
-    <t>-90:0</t>
+    <t>0:0</t>
   </si>
   <si>
     <t>234.00</t>
   </si>
   <si>
-    <t>21294.0000</t>
-  </si>
-  <si>
-    <t>91:0</t>
+    <t>234.0000</t>
   </si>
   <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
@@ -104,9 +101,6 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -116,7 +110,7 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Wednesday, 3 September, 2025 9:56 AM</t>
+    <t>Wednesday, 3 September, 2025 9:57 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -840,7 +834,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -849,14 +843,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -866,11 +860,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>18</v>
@@ -882,28 +876,28 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -911,13 +905,13 @@
     </row>
     <row r="12" ht="25.5" customHeight="1">
       <c r="P12" s="13">
-        <v>21393.830000000002</v>
+        <v>333.82999999999998</v>
       </c>
       <c r="Q12" s="13"/>
     </row>
     <row r="13" ht="16.5" customHeight="1">
       <c t="s" r="A13" s="14">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
@@ -925,13 +919,13 @@
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
       <c t="s" r="G13" s="15">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
       <c r="J13" s="16"/>
       <c t="s" r="K13" s="17">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L13" s="17"/>
       <c r="M13" s="17"/>

--- a/DaySale_2025-09-03_00-00.xlsx
+++ b/DaySale_2025-09-03_00-00.xlsx
@@ -110,7 +110,7 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Wednesday, 3 September, 2025 9:57 AM</t>
+    <t>Wednesday, 3 September, 2025 10:57 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-03_00-00.xlsx
+++ b/DaySale_2025-09-03_00-00.xlsx
@@ -44,42 +44,72 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
+    <t>156.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
     <t>OLOHISTINE 1MG/ML OPHTHALMIC SOL. 5 ML</t>
   </si>
   <si>
     <t>5:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>29.00</t>
   </si>
   <si>
     <t>29.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>PANTAZOL 40MG 14 ENTERIC COATED TAB.</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>104.00</t>
   </si>
   <si>
     <t>52.0000</t>
   </si>
   <si>
+    <t>TRIBATENS 20/5/12.5MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
     <t>TRIPLIXAM 10/2.5/10MG 15 F.C. TABS.</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>234.00</t>
   </si>
   <si>
@@ -92,9 +122,6 @@
     <t>3:2</t>
   </si>
   <si>
-    <t>51.00</t>
-  </si>
-  <si>
     <t>16.8300</t>
   </si>
   <si>
@@ -110,7 +137,7 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Wednesday, 3 September, 2025 10:57 AM</t>
+    <t>Wednesday, 3 September, 2025 10:58 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -801,7 +828,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -850,7 +877,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -860,11 +887,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>18</v>
@@ -876,66 +903,165 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
-      <c r="P12" s="13">
-        <v>333.82999999999998</v>
-      </c>
-      <c r="Q12" s="13"/>
-    </row>
-    <row r="13" ht="16.5" customHeight="1">
-      <c t="s" r="A13" s="14">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
+        <v>32</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
+        <v>29</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>13</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
         <v>33</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c t="s" r="G13" s="15">
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
         <v>34</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
-      <c t="s" r="K13" s="17">
+      <c t="s" r="Q12" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
         <v>35</v>
       </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
+        <v>36</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>13</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
+        <v>19</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
+        <v>37</v>
+      </c>
+      <c t="s" r="Q13" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
+        <v>38</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
+        <v>29</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>39</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
+        <v>40</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
+        <v>41</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="P15" s="13">
+        <v>630.83000000000004</v>
+      </c>
+      <c r="Q15" s="13"/>
+    </row>
+    <row r="16" ht="16.5" customHeight="1">
+      <c t="s" r="A16" s="14">
+        <v>42</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c t="s" r="G16" s="15">
+        <v>43</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="16"/>
+      <c t="s" r="K16" s="17">
+        <v>44</v>
+      </c>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="52">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -969,10 +1095,25 @@
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="K16:Q16"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-03_00-00.xlsx
+++ b/DaySale_2025-09-03_00-00.xlsx
@@ -74,6 +74,21 @@
     <t>51.0000</t>
   </si>
   <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>3:4</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
     <t>OLOHISTINE 1MG/ML OPHTHALMIC SOL. 5 ML</t>
   </si>
   <si>
@@ -137,7 +152,7 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Wednesday, 3 September, 2025 10:58 AM</t>
+    <t>Wednesday, 3 September, 2025 11:06 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -861,7 +876,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -870,14 +885,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -887,14 +902,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -903,14 +918,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -920,14 +935,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -936,14 +951,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -953,11 +968,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -969,14 +984,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -986,14 +1001,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1002,66 +1017,99 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
+        <v>43</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>34</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>44</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
+        <v>45</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
+        <v>46</v>
+      </c>
+      <c t="s" r="Q15" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="15" ht="24.75" customHeight="1">
-      <c r="P15" s="13">
-        <v>630.83000000000004</v>
-      </c>
-      <c r="Q15" s="13"/>
-    </row>
-    <row r="16" ht="16.5" customHeight="1">
-      <c t="s" r="A16" s="14">
-        <v>42</v>
-      </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c t="s" r="G16" s="15">
-        <v>43</v>
-      </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="16"/>
-      <c t="s" r="K16" s="17">
-        <v>44</v>
-      </c>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="P16" s="13">
+        <v>666.47000000000003</v>
+      </c>
+      <c r="Q16" s="13"/>
+    </row>
+    <row r="17" ht="16.5" customHeight="1">
+      <c t="s" r="A17" s="14">
+        <v>47</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c t="s" r="G17" s="15">
+        <v>48</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="16"/>
+      <c t="s" r="K17" s="17">
+        <v>49</v>
+      </c>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
+  <mergeCells count="57">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1110,10 +1158,15 @@
     <mergeCell ref="H14:K14"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="K17:Q17"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-03_00-00.xlsx
+++ b/DaySale_2025-09-03_00-00.xlsx
@@ -44,24 +44,48 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ANGIOFOX (EFFOX) 25MG LONG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>114.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>BLOKATENS 10/160MG 28 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>160.0000</t>
+  </si>
+  <si>
     <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
   </si>
   <si>
     <t>2:2</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>156.00</t>
   </si>
   <si>
     <t>156.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
   </si>
   <si>
@@ -89,6 +113,24 @@
     <t>0:4</t>
   </si>
   <si>
+    <t>GINKGO BILOBA 30 CAPS.</t>
+  </si>
+  <si>
+    <t>186.00</t>
+  </si>
+  <si>
+    <t>186.0000</t>
+  </si>
+  <si>
+    <t>MILGA ADVANCE 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>150.0000</t>
+  </si>
+  <si>
     <t>OLOHISTINE 1MG/ML OPHTHALMIC SOL. 5 ML</t>
   </si>
   <si>
@@ -113,9 +155,6 @@
     <t>TRIBATENS 20/5/12.5MG 30 F.C. TABS.</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>90.00</t>
   </si>
   <si>
@@ -131,6 +170,18 @@
     <t>234.0000</t>
   </si>
   <si>
+    <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>175.00</t>
+  </si>
+  <si>
+    <t>175.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -152,7 +203,7 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Wednesday, 3 September, 2025 11:06 AM</t>
+    <t>Wednesday, 3 September, 2025 11:11 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -876,7 +927,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -885,14 +936,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -902,11 +953,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -918,14 +969,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -942,7 +993,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -951,14 +1002,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -991,7 +1042,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1034,14 +1085,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1050,20 +1101,20 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1074,42 +1125,207 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
+        <v>47</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>18</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>13</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
+        <v>48</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>49</v>
+      </c>
+      <c t="s" r="Q16" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="16" ht="25.5" customHeight="1">
-      <c r="P16" s="13">
-        <v>666.47000000000003</v>
-      </c>
-      <c r="Q16" s="13"/>
-    </row>
-    <row r="17" ht="16.5" customHeight="1">
-      <c t="s" r="A17" s="14">
-        <v>47</v>
-      </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c t="s" r="G17" s="15">
-        <v>48</v>
-      </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16"/>
-      <c t="s" r="K17" s="17">
-        <v>49</v>
-      </c>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
+        <v>50</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>18</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>13</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
+        <v>51</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>52</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
+        <v>53</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>54</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>13</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
+        <v>55</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
+        <v>56</v>
+      </c>
+      <c t="s" r="Q18" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
+        <v>57</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>58</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>13</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
+        <v>27</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>59</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
+        <v>60</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>18</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>61</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
+        <v>62</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>63</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="P21" s="13">
+        <v>1451.47</v>
+      </c>
+      <c r="Q21" s="13"/>
+    </row>
+    <row r="22" ht="16.5" customHeight="1">
+      <c t="s" r="A22" s="14">
+        <v>64</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c t="s" r="G22" s="15">
+        <v>65</v>
+      </c>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="16"/>
+      <c t="s" r="K22" s="17">
+        <v>66</v>
+      </c>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="82">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1163,10 +1379,35 @@
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="K22:Q22"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-03_00-00.xlsx
+++ b/DaySale_2025-09-03_00-00.xlsx
@@ -152,15 +152,18 @@
     <t>52.0000</t>
   </si>
   <si>
+    <t>SILIPEX 30 CAPSULES</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
     <t>TRIBATENS 20/5/12.5MG 30 F.C. TABS.</t>
   </si>
   <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
     <t>TRIPLIXAM 10/2.5/10MG 15 F.C. TABS.</t>
   </si>
   <si>
@@ -203,7 +206,7 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Wednesday, 3 September, 2025 11:11 AM</t>
+    <t>Wednesday, 3 September, 2025 11:16 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1184,11 +1187,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1200,14 +1203,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1217,11 +1220,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1233,14 +1236,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1250,14 +1253,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1266,66 +1269,99 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
+        <v>60</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
+        <v>61</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>18</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>62</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
         <v>63</v>
       </c>
-      <c t="s" r="Q20" s="12">
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>64</v>
+      </c>
+      <c t="s" r="Q21" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="21" ht="25.5" customHeight="1">
-      <c r="P21" s="13">
-        <v>1451.47</v>
-      </c>
-      <c r="Q21" s="13"/>
-    </row>
-    <row r="22" ht="16.5" customHeight="1">
-      <c t="s" r="A22" s="14">
-        <v>64</v>
-      </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c t="s" r="G22" s="15">
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="P22" s="13">
+        <v>1541.47</v>
+      </c>
+      <c r="Q22" s="13"/>
+    </row>
+    <row r="23" ht="16.5" customHeight="1">
+      <c t="s" r="A23" s="14">
         <v>65</v>
       </c>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="16"/>
-      <c t="s" r="K22" s="17">
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c t="s" r="G23" s="15">
         <v>66</v>
       </c>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="16"/>
+      <c t="s" r="K23" s="17">
+        <v>67</v>
+      </c>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="82">
+  <mergeCells count="87">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1404,10 +1440,15 @@
     <mergeCell ref="H20:K20"/>
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="N20:O20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="K22:Q22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="K23:Q23"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-03_00-00.xlsx
+++ b/DaySale_2025-09-03_00-00.xlsx
@@ -62,12 +62,21 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>ATOMORELAX 20MG/5ML SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>128.00</t>
+  </si>
+  <si>
+    <t>128.0000</t>
+  </si>
+  <si>
     <t>BLOKATENS 10/160MG 28 F.C.TABS.</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>160.00</t>
   </si>
   <si>
@@ -206,7 +215,7 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Wednesday, 3 September, 2025 11:16 AM</t>
+    <t>Wednesday, 3 September, 2025 11:20 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -913,7 +922,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -923,11 +932,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>16</v>
@@ -939,14 +948,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -956,11 +965,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -972,14 +981,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -989,14 +998,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1005,14 +1014,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1022,14 +1031,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
+        <v>35</v>
+      </c>
+      <c t="s" r="Q12" s="12">
         <v>36</v>
-      </c>
-      <c t="s" r="Q12" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1045,7 +1054,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1078,7 +1087,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1088,11 +1097,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1104,14 +1113,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1128,7 +1137,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1144,7 +1153,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1161,7 +1170,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1187,11 +1196,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1203,7 +1212,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1220,11 +1229,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1243,7 +1252,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1253,11 +1262,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1269,14 +1278,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1286,14 +1295,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
         <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1309,59 +1318,92 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
+        <v>63</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
         <v>64</v>
       </c>
-      <c t="s" r="Q21" s="12">
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>18</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>65</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
+        <v>66</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>67</v>
+      </c>
+      <c t="s" r="Q22" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="22" ht="25.5" customHeight="1">
-      <c r="P22" s="13">
-        <v>1541.47</v>
-      </c>
-      <c r="Q22" s="13"/>
-    </row>
-    <row r="23" ht="16.5" customHeight="1">
-      <c t="s" r="A23" s="14">
-        <v>65</v>
-      </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c t="s" r="G23" s="15">
-        <v>66</v>
-      </c>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="16"/>
-      <c t="s" r="K23" s="17">
-        <v>67</v>
-      </c>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="P23" s="13">
+        <v>1669.47</v>
+      </c>
+      <c r="Q23" s="13"/>
+    </row>
+    <row r="24" ht="16.5" customHeight="1">
+      <c t="s" r="A24" s="14">
+        <v>68</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c t="s" r="G24" s="15">
+        <v>69</v>
+      </c>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="16"/>
+      <c t="s" r="K24" s="17">
+        <v>70</v>
+      </c>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="87">
+  <mergeCells count="92">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1445,10 +1487,15 @@
     <mergeCell ref="H21:K21"/>
     <mergeCell ref="L21:M21"/>
     <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="K23:Q23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="K24:Q24"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-03_00-00.xlsx
+++ b/DaySale_2025-09-03_00-00.xlsx
@@ -83,6 +83,18 @@
     <t>160.0000</t>
   </si>
   <si>
+    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
     <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
   </si>
   <si>
@@ -215,7 +227,7 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Wednesday, 3 September, 2025 11:20 AM</t>
+    <t>Wednesday, 3 September, 2025 11:33 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1038,7 +1050,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1047,14 +1059,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1071,7 +1083,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1080,14 +1092,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1097,11 +1109,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1113,14 +1125,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1153,7 +1165,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1163,14 +1175,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1179,14 +1191,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1196,14 +1208,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1212,7 +1224,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1229,11 +1241,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1245,7 +1257,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1278,14 +1290,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1328,14 +1340,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1344,66 +1356,99 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
         <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
+        <v>68</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>18</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>69</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
+        <v>70</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>71</v>
+      </c>
+      <c t="s" r="Q23" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="23" ht="24.75" customHeight="1">
-      <c r="P23" s="13">
-        <v>1669.47</v>
-      </c>
-      <c r="Q23" s="13"/>
-    </row>
-    <row r="24" ht="16.5" customHeight="1">
-      <c t="s" r="A24" s="14">
-        <v>68</v>
-      </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c t="s" r="G24" s="15">
-        <v>69</v>
-      </c>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="16"/>
-      <c t="s" r="K24" s="17">
-        <v>70</v>
-      </c>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="P24" s="13">
+        <v>1712.47</v>
+      </c>
+      <c r="Q24" s="13"/>
+    </row>
+    <row r="25" ht="16.5" customHeight="1">
+      <c t="s" r="A25" s="14">
+        <v>72</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c t="s" r="G25" s="15">
+        <v>73</v>
+      </c>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="16"/>
+      <c t="s" r="K25" s="17">
+        <v>74</v>
+      </c>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="92">
+  <mergeCells count="97">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1492,10 +1537,15 @@
     <mergeCell ref="H22:K22"/>
     <mergeCell ref="L22:M22"/>
     <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="K24:Q24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="K25:Q25"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-03_00-00.xlsx
+++ b/DaySale_2025-09-03_00-00.xlsx
@@ -227,7 +227,7 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Wednesday, 3 September, 2025 11:33 AM</t>
+    <t>Wednesday, 3 September, 2025 11:37 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-03_00-00.xlsx
+++ b/DaySale_2025-09-03_00-00.xlsx
@@ -95,6 +95,18 @@
     <t>43.0000</t>
   </si>
   <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
     <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
   </si>
   <si>
@@ -131,9 +143,6 @@
     <t>35.6400</t>
   </si>
   <si>
-    <t>0:4</t>
-  </si>
-  <si>
     <t>GINKGO BILOBA 30 CAPS.</t>
   </si>
   <si>
@@ -224,10 +233,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>2.0000</t>
-  </si>
-  <si>
-    <t>Wednesday, 3 September, 2025 11:37 AM</t>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>Wednesday, 3 September, 2025 11:38 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1000,7 +1009,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1010,14 +1019,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>30</v>
+      </c>
+      <c t="s" r="Q11" s="12">
         <v>31</v>
-      </c>
-      <c t="s" r="Q11" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1083,7 +1092,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1092,14 +1101,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1116,7 +1125,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1132,7 +1141,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1165,7 +1174,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1175,11 +1184,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1191,14 +1200,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1215,7 +1224,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1231,7 +1240,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1248,7 +1257,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1274,11 +1283,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1290,7 +1299,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1307,11 +1316,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1330,7 +1339,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1340,11 +1349,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1356,14 +1365,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1373,14 +1382,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
         <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1396,59 +1405,92 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
+        <v>70</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
         <v>71</v>
       </c>
-      <c t="s" r="Q23" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" ht="25.5" customHeight="1">
-      <c r="P24" s="13">
-        <v>1712.47</v>
-      </c>
-      <c r="Q24" s="13"/>
-    </row>
-    <row r="25" ht="16.5" customHeight="1">
-      <c t="s" r="A25" s="14">
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>18</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
         <v>72</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c t="s" r="G25" s="15">
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
         <v>73</v>
       </c>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="16"/>
-      <c t="s" r="K25" s="17">
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
         <v>74</v>
       </c>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
+      <c t="s" r="Q24" s="12">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="P25" s="13">
+        <v>1788.47</v>
+      </c>
+      <c r="Q25" s="13"/>
+    </row>
+    <row r="26" ht="16.5" customHeight="1">
+      <c t="s" r="A26" s="14">
+        <v>75</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c t="s" r="G26" s="15">
+        <v>76</v>
+      </c>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="16"/>
+      <c t="s" r="K26" s="17">
+        <v>77</v>
+      </c>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="97">
+  <mergeCells count="102">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1542,10 +1584,15 @@
     <mergeCell ref="H23:K23"/>
     <mergeCell ref="L23:M23"/>
     <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="K25:Q25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="K26:Q26"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-03_00-00.xlsx
+++ b/DaySale_2025-09-03_00-00.xlsx
@@ -236,7 +236,7 @@
     <t>10.0000</t>
   </si>
   <si>
-    <t>Wednesday, 3 September, 2025 11:38 AM</t>
+    <t>Wednesday, 3 September, 2025 11:39 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-03_00-00.xlsx
+++ b/DaySale_2025-09-03_00-00.xlsx
@@ -224,19 +224,49 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8328:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>ZITHROKAN 200MG/5ML PD. FOR ORAL SUSP. 15 ML</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>برمنجنات بوتاسيوم</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>10.0000</t>
-  </si>
-  <si>
-    <t>Wednesday, 3 September, 2025 11:39 AM</t>
+    <t>Wednesday, 3 September, 2025 11:43 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1438,13 +1468,13 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1455,42 +1485,141 @@
         <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
+        <v>76</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>18</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>13</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
+        <v>77</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
+        <v>78</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
+        <v>79</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>80</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>81</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
+        <v>82</v>
+      </c>
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
+        <v>83</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
+        <v>84</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>18</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>81</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
+        <v>73</v>
+      </c>
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
+        <v>83</v>
+      </c>
+      <c t="s" r="Q27" s="12">
         <v>51</v>
       </c>
     </row>
-    <row r="25" ht="24.75" customHeight="1">
-      <c r="P25" s="13">
-        <v>1788.47</v>
-      </c>
-      <c r="Q25" s="13"/>
-    </row>
-    <row r="26" ht="16.5" customHeight="1">
-      <c t="s" r="A26" s="14">
-        <v>75</v>
-      </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c t="s" r="G26" s="15">
-        <v>76</v>
-      </c>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="16"/>
-      <c t="s" r="K26" s="17">
-        <v>77</v>
-      </c>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="P28" s="13">
+        <v>1864.47</v>
+      </c>
+      <c r="Q28" s="13"/>
+    </row>
+    <row r="29" ht="16.5" customHeight="1">
+      <c t="s" r="A29" s="14">
+        <v>85</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c t="s" r="G29" s="15">
+        <v>86</v>
+      </c>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="16"/>
+      <c t="s" r="K29" s="17">
+        <v>87</v>
+      </c>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="102">
+  <mergeCells count="117">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1589,10 +1718,25 @@
     <mergeCell ref="H24:K24"/>
     <mergeCell ref="L24:M24"/>
     <mergeCell ref="N24:O24"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="K26:Q26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="K29:Q29"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-03_00-00.xlsx
+++ b/DaySale_2025-09-03_00-00.xlsx
@@ -152,6 +152,15 @@
     <t>186.0000</t>
   </si>
   <si>
+    <t>HISTAZINE-1 0.1% SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
     <t>MILGA ADVANCE 30 F.C. TABS</t>
   </si>
   <si>
@@ -266,7 +275,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>Wednesday, 3 September, 2025 11:43 AM</t>
+    <t>Wednesday, 3 September, 2025 11:49 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1204,7 +1213,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1237,7 +1246,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1247,11 +1256,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1263,14 +1272,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1287,7 +1296,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1303,7 +1312,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1320,7 +1329,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1346,11 +1355,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1362,7 +1371,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1379,11 +1388,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1402,7 +1411,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1412,11 +1421,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1428,14 +1437,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1445,14 +1454,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1478,14 +1487,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>75</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1494,14 +1503,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1511,14 +1520,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
+        <v>77</v>
+      </c>
+      <c t="s" r="Q25" s="12">
         <v>78</v>
-      </c>
-      <c t="s" r="Q25" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1534,21 +1543,21 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1560,66 +1569,99 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
-      <c r="P28" s="13">
-        <v>1864.47</v>
-      </c>
-      <c r="Q28" s="13"/>
-    </row>
-    <row r="29" ht="16.5" customHeight="1">
-      <c t="s" r="A29" s="14">
-        <v>85</v>
-      </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c t="s" r="G29" s="15">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
+        <v>87</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>18</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>84</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
+        <v>76</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
         <v>86</v>
       </c>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="16"/>
-      <c t="s" r="K29" s="17">
-        <v>87</v>
-      </c>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
+      <c t="s" r="Q28" s="12">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="P29" s="13">
+        <v>1898.47</v>
+      </c>
+      <c r="Q29" s="13"/>
+    </row>
+    <row r="30" ht="16.5" customHeight="1">
+      <c t="s" r="A30" s="14">
+        <v>88</v>
+      </c>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c t="s" r="G30" s="15">
+        <v>89</v>
+      </c>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="16"/>
+      <c t="s" r="K30" s="17">
+        <v>90</v>
+      </c>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="117">
+  <mergeCells count="122">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1733,10 +1775,15 @@
     <mergeCell ref="H27:K27"/>
     <mergeCell ref="L27:M27"/>
     <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="K29:Q29"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="K30:Q30"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-03_00-00.xlsx
+++ b/DaySale_2025-09-03_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>AMARYL 2 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ANGIOFOX (EFFOX) 25MG LONG 30 CAPS.</t>
   </si>
   <si>
     <t>0:2</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>114.00</t>
   </si>
   <si>
@@ -122,9 +137,6 @@
     <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>51.00</t>
   </si>
   <si>
@@ -170,6 +182,21 @@
     <t>150.0000</t>
   </si>
   <si>
+    <t>NEUROVIT 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>-33.0000</t>
+  </si>
+  <si>
+    <t>0:-3</t>
+  </si>
+  <si>
     <t>OLOHISTINE 1MG/ML OPHTHALMIC SOL. 5 ML</t>
   </si>
   <si>
@@ -275,7 +302,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>Wednesday, 3 September, 2025 11:49 AM</t>
+    <t>Wednesday, 3 September, 2025 12:10 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -966,7 +993,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -975,14 +1002,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -992,14 +1019,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1008,14 +1035,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1025,14 +1052,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1041,14 +1068,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1058,14 +1085,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1074,14 +1101,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1098,7 +1125,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1107,14 +1134,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1124,14 +1151,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1140,14 +1167,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1164,7 +1191,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1180,7 +1207,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1190,14 +1217,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1206,14 +1233,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1223,14 +1250,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1239,14 +1266,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1256,14 +1283,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1272,14 +1299,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1296,7 +1323,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1312,7 +1339,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1322,14 +1349,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>37</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1338,14 +1365,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1355,14 +1382,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1371,14 +1398,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1388,11 +1415,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1404,14 +1431,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1421,14 +1448,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1437,14 +1464,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1454,14 +1481,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1470,14 +1497,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1487,14 +1514,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1503,14 +1530,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1520,14 +1547,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>78</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1536,14 +1563,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1553,11 +1580,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1569,20 +1596,20 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1593,7 +1620,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1602,66 +1629,132 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>54</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
-      <c r="P29" s="13">
-        <v>1898.47</v>
-      </c>
-      <c r="Q29" s="13"/>
-    </row>
-    <row r="30" ht="16.5" customHeight="1">
-      <c t="s" r="A30" s="14">
-        <v>88</v>
-      </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c t="s" r="G30" s="15">
-        <v>89</v>
-      </c>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="16"/>
-      <c t="s" r="K30" s="17">
-        <v>90</v>
-      </c>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
+        <v>91</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>92</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>93</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
+        <v>94</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>95</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
+        <v>96</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>23</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>93</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
+        <v>85</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
+        <v>95</v>
+      </c>
+      <c t="s" r="Q30" s="12">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="P31" s="13">
+        <v>1891.21</v>
+      </c>
+      <c r="Q31" s="13"/>
+    </row>
+    <row r="32" ht="16.5" customHeight="1">
+      <c t="s" r="A32" s="14">
+        <v>97</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c t="s" r="G32" s="15">
+        <v>98</v>
+      </c>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="16"/>
+      <c t="s" r="K32" s="17">
+        <v>99</v>
+      </c>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="122">
+  <mergeCells count="132">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1780,10 +1873,20 @@
     <mergeCell ref="H28:K28"/>
     <mergeCell ref="L28:M28"/>
     <mergeCell ref="N28:O28"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="K30:Q30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="K32:Q32"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-03_00-00.xlsx
+++ b/DaySale_2025-09-03_00-00.xlsx
@@ -302,7 +302,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>Wednesday, 3 September, 2025 12:10 PM</t>
+    <t>Wednesday, 3 September, 2025 12:12 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-03_00-00.xlsx
+++ b/DaySale_2025-09-03_00-00.xlsx
@@ -89,6 +89,18 @@
     <t>128.0000</t>
   </si>
   <si>
+    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
     <t>BLOKATENS 10/160MG 28 F.C.TABS.</t>
   </si>
   <si>
@@ -119,7 +131,16 @@
     <t>68.0000</t>
   </si>
   <si>
-    <t>0:4</t>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
   </si>
   <si>
     <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
@@ -302,7 +323,16 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>Wednesday, 3 September, 2025 12:12 PM</t>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>Wednesday, 3 September, 2025 12:13 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1042,7 +1072,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1052,11 +1082,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>21</v>
@@ -1068,14 +1098,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1108,7 +1138,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1118,14 +1148,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1141,7 +1171,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1151,14 +1181,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1167,14 +1197,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1191,7 +1221,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1224,7 +1254,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1240,7 +1270,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1273,7 +1303,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1283,14 +1313,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1299,14 +1329,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1316,11 +1346,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>21</v>
@@ -1332,14 +1362,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1356,7 +1386,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>61</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1365,14 +1395,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1382,11 +1412,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>21</v>
@@ -1398,14 +1428,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1415,14 +1445,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
+        <v>67</v>
+      </c>
+      <c t="s" r="Q21" s="12">
         <v>68</v>
-      </c>
-      <c t="s" r="Q21" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1438,7 +1468,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1448,11 +1478,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -1464,14 +1494,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1481,14 +1511,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1497,7 +1527,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1514,11 +1544,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -1530,14 +1560,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1547,11 +1577,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1570,7 +1600,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1580,14 +1610,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1620,7 +1650,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>87</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1629,14 +1659,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1646,14 +1676,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1662,31 +1692,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1695,7 +1725,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1708,53 +1738,152 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>63</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
-      <c r="P31" s="13">
-        <v>1891.21</v>
-      </c>
-      <c r="Q31" s="13"/>
-    </row>
-    <row r="32" ht="16.5" customHeight="1">
-      <c t="s" r="A32" s="14">
-        <v>97</v>
-      </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c t="s" r="G32" s="15">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
         <v>98</v>
       </c>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="16"/>
-      <c t="s" r="K32" s="17">
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
         <v>99</v>
       </c>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>100</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
+        <v>101</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
+        <v>102</v>
+      </c>
+      <c t="s" r="Q31" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
+        <v>103</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>23</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>100</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
+        <v>92</v>
+      </c>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
+        <v>102</v>
+      </c>
+      <c t="s" r="Q32" s="12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
+        <v>104</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>23</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>100</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
+        <v>105</v>
+      </c>
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
+        <v>106</v>
+      </c>
+      <c t="s" r="Q33" s="12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="P34" s="13">
+        <v>2041.21</v>
+      </c>
+      <c r="Q34" s="13"/>
+    </row>
+    <row r="35" ht="16.5" customHeight="1">
+      <c t="s" r="A35" s="14">
+        <v>107</v>
+      </c>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c t="s" r="G35" s="15">
+        <v>108</v>
+      </c>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="16"/>
+      <c t="s" r="K35" s="17">
+        <v>109</v>
+      </c>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="132">
+  <mergeCells count="147">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1883,10 +2012,25 @@
     <mergeCell ref="H30:K30"/>
     <mergeCell ref="L30:M30"/>
     <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="K35:Q35"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-03_00-00.xlsx
+++ b/DaySale_2025-09-03_00-00.xlsx
@@ -332,7 +332,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Wednesday, 3 September, 2025 12:13 PM</t>
+    <t>Wednesday, 3 September, 2025 12:14 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-03_00-00.xlsx
+++ b/DaySale_2025-09-03_00-00.xlsx
@@ -332,7 +332,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Wednesday, 3 September, 2025 12:14 PM</t>
+    <t>Wednesday, 3 September, 2025 12:23 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-03_00-00.xlsx
+++ b/DaySale_2025-09-03_00-00.xlsx
@@ -239,6 +239,18 @@
     <t>52.0000</t>
   </si>
   <si>
+    <t>SENSODERM SOAP تي اس</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>64.00</t>
+  </si>
+  <si>
+    <t>64.0000</t>
+  </si>
+  <si>
     <t>SILIPEX 30 CAPSULES</t>
   </si>
   <si>
@@ -311,9 +323,6 @@
     <t>4:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>10.00</t>
   </si>
   <si>
@@ -332,7 +341,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Wednesday, 3 September, 2025 12:23 PM</t>
+    <t>Wednesday, 3 September, 2025 12:29 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1540,15 +1549,15 @@
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -1560,7 +1569,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1577,11 +1586,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1593,7 +1602,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1626,14 +1635,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1676,14 +1685,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1692,14 +1701,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1709,14 +1718,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>94</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1725,14 +1734,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1749,7 +1758,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1758,28 +1767,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -1791,31 +1800,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>70</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1824,7 +1833,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -1837,53 +1846,86 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>70</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
-      <c r="P34" s="13">
-        <v>2041.21</v>
-      </c>
-      <c r="Q34" s="13"/>
-    </row>
-    <row r="35" ht="16.5" customHeight="1">
-      <c t="s" r="A35" s="14">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
         <v>107</v>
       </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c t="s" r="G35" s="15">
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>23</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>77</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
         <v>108</v>
       </c>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="16"/>
-      <c t="s" r="K35" s="17">
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
         <v>109</v>
       </c>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
+      <c t="s" r="Q34" s="12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="P35" s="13">
+        <v>2105.21</v>
+      </c>
+      <c r="Q35" s="13"/>
+    </row>
+    <row r="36" ht="16.5" customHeight="1">
+      <c t="s" r="A36" s="14">
+        <v>110</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c t="s" r="G36" s="15">
+        <v>111</v>
+      </c>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="16"/>
+      <c t="s" r="K36" s="17">
+        <v>112</v>
+      </c>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="147">
+  <mergeCells count="152">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2027,10 +2069,15 @@
     <mergeCell ref="H33:K33"/>
     <mergeCell ref="L33:M33"/>
     <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="K36:Q36"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-03_00-00.xlsx
+++ b/DaySale_2025-09-03_00-00.xlsx
@@ -176,6 +176,18 @@
     <t>35.6400</t>
   </si>
   <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>8:3</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>3.8400</t>
+  </si>
+  <si>
     <t>GINKGO BILOBA 30 CAPS.</t>
   </si>
   <si>
@@ -341,7 +353,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Wednesday, 3 September, 2025 12:29 PM</t>
+    <t>Wednesday, 3 September, 2025 12:34 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1345,7 +1357,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1355,14 +1367,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1371,7 +1383,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1388,11 +1400,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
@@ -1404,14 +1416,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1421,11 +1433,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>21</v>
@@ -1437,14 +1449,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1461,7 +1473,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>68</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1470,14 +1482,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1487,14 +1499,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
+        <v>71</v>
+      </c>
+      <c t="s" r="Q22" s="12">
         <v>72</v>
-      </c>
-      <c t="s" r="Q22" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1510,7 +1522,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1520,14 +1532,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1536,20 +1548,20 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1560,7 +1572,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1582,15 +1594,15 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1602,7 +1614,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1619,11 +1631,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -1635,7 +1647,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1668,14 +1680,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1718,14 +1730,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1734,14 +1746,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1751,14 +1763,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>98</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1767,14 +1779,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1791,7 +1803,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1800,20 +1812,20 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>103</v>
+        <v>23</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -1840,24 +1852,24 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>70</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1866,7 +1878,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -1879,53 +1891,86 @@
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
-      <c r="P35" s="13">
-        <v>2105.21</v>
-      </c>
-      <c r="Q35" s="13"/>
-    </row>
-    <row r="36" ht="16.5" customHeight="1">
-      <c t="s" r="A36" s="14">
-        <v>110</v>
-      </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c t="s" r="G36" s="15">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
         <v>111</v>
       </c>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="16"/>
-      <c t="s" r="K36" s="17">
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>23</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>81</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
         <v>112</v>
       </c>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
+        <v>113</v>
+      </c>
+      <c t="s" r="Q35" s="12">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="P36" s="13">
+        <v>2109.0500000000002</v>
+      </c>
+      <c r="Q36" s="13"/>
+    </row>
+    <row r="37" ht="16.5" customHeight="1">
+      <c t="s" r="A37" s="14">
+        <v>114</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c t="s" r="G37" s="15">
+        <v>115</v>
+      </c>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="16"/>
+      <c t="s" r="K37" s="17">
+        <v>116</v>
+      </c>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="152">
+  <mergeCells count="157">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2074,10 +2119,15 @@
     <mergeCell ref="H34:K34"/>
     <mergeCell ref="L34:M34"/>
     <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="K37:Q37"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-03_00-00.xlsx
+++ b/DaySale_2025-09-03_00-00.xlsx
@@ -353,7 +353,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Wednesday, 3 September, 2025 12:34 PM</t>
+    <t>Wednesday, 3 September, 2025 12:39 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-03_00-00.xlsx
+++ b/DaySale_2025-09-03_00-00.xlsx
@@ -77,6 +77,15 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>ANTI-COX II 15MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>111.00</t>
+  </si>
+  <si>
+    <t>73.2600</t>
+  </si>
+  <si>
     <t>ATOMORELAX 20MG/5ML SYRUP 100 ML</t>
   </si>
   <si>
@@ -101,6 +110,15 @@
     <t>57.0000</t>
   </si>
   <si>
+    <t>BETOLVEX 1MG/ML 2 AMP</t>
+  </si>
+  <si>
+    <t>64.00</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
     <t>BLOKATENS 10/160MG 28 F.C.TABS.</t>
   </si>
   <si>
@@ -122,6 +140,27 @@
     <t>43.0000</t>
   </si>
   <si>
+    <t>COLCHICINE 500MCG 100 TAB</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
+    <t>COMFORT GEL 50 GM</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
   </si>
   <si>
@@ -251,15 +290,21 @@
     <t>52.0000</t>
   </si>
   <si>
+    <t>PK-MERZ 100MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>81.0000</t>
+  </si>
+  <si>
     <t>SENSODERM SOAP تي اس</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>64.00</t>
-  </si>
-  <si>
     <t>64.0000</t>
   </si>
   <si>
@@ -284,6 +329,15 @@
     <t>234.0000</t>
   </si>
   <si>
+    <t>TRIVASTAL RETARD 50MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>47.50</t>
+  </si>
+  <si>
+    <t>47.5000</t>
+  </si>
+  <si>
     <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -317,9 +371,6 @@
     <t>4.0000</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>ZITHROKAN 200MG/5ML PD. FOR ORAL SUSP. 15 ML</t>
   </si>
   <si>
@@ -350,7 +401,10 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>15.0000</t>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>9:0</t>
   </si>
   <si>
     <t>Wednesday, 3 September, 2025 12:39 PM</t>
@@ -1060,7 +1114,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1070,14 +1124,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1086,14 +1140,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1103,11 +1157,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>21</v>
@@ -1119,14 +1173,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1159,7 +1213,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1169,14 +1223,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1185,14 +1239,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1202,14 +1256,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1218,14 +1272,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1235,14 +1289,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1251,14 +1305,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1268,14 +1322,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1284,14 +1338,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1301,11 +1355,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>21</v>
@@ -1317,14 +1371,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1334,14 +1388,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1350,14 +1404,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1367,14 +1421,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1383,14 +1437,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1400,11 +1454,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
@@ -1416,14 +1470,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1433,11 +1487,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>21</v>
@@ -1449,14 +1503,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1473,7 +1527,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1506,7 +1560,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1515,14 +1569,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1532,11 +1586,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
@@ -1548,14 +1602,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1565,14 +1619,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1581,28 +1635,28 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1614,14 +1668,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1631,14 +1685,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1647,14 +1701,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1664,11 +1718,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -1680,14 +1734,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1697,14 +1751,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1713,14 +1767,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1730,11 +1784,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -1746,31 +1800,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1779,14 +1833,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1803,7 +1857,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>102</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1812,14 +1866,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1829,11 +1883,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -1845,28 +1899,28 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>107</v>
+        <v>26</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -1878,31 +1932,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>74</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1911,66 +1965,264 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>23</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
+        <v>112</v>
+      </c>
+      <c t="s" r="Q35" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
         <v>113</v>
       </c>
-      <c t="s" r="Q35" s="12">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="36" ht="25.5" customHeight="1">
-      <c r="P36" s="13">
-        <v>2109.0500000000002</v>
-      </c>
-      <c r="Q36" s="13"/>
-    </row>
-    <row r="37" ht="16.5" customHeight="1">
-      <c t="s" r="A37" s="14">
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
         <v>114</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c t="s" r="G37" s="15">
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>13</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
+        <v>62</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
         <v>115</v>
       </c>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="16"/>
-      <c t="s" r="K37" s="17">
+      <c t="s" r="Q36" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
         <v>116</v>
       </c>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>117</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>13</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
+        <v>118</v>
+      </c>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
+        <v>119</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
+        <v>120</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>26</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>13</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
+        <v>121</v>
+      </c>
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
+        <v>122</v>
+      </c>
+      <c t="s" r="Q38" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
+        <v>123</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>124</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>97</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
+        <v>125</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
+        <v>126</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
+        <v>127</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>26</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>97</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
+        <v>118</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
+        <v>126</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
+        <v>128</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>26</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>97</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
+        <v>129</v>
+      </c>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
+        <v>130</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="P42" s="13">
+        <v>2549.8099999999999</v>
+      </c>
+      <c r="Q42" s="13"/>
+    </row>
+    <row r="43" ht="16.5" customHeight="1">
+      <c t="s" r="A43" s="14">
+        <v>132</v>
+      </c>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c t="s" r="G43" s="15">
+        <v>133</v>
+      </c>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="16"/>
+      <c t="s" r="K43" s="17">
+        <v>134</v>
+      </c>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="157">
+  <mergeCells count="187">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2124,10 +2376,40 @@
     <mergeCell ref="H35:K35"/>
     <mergeCell ref="L35:M35"/>
     <mergeCell ref="N35:O35"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="K37:Q37"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="K43:Q43"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-03_00-00.xlsx
+++ b/DaySale_2025-09-03_00-00.xlsx
@@ -194,6 +194,9 @@
     <t>156.0000</t>
   </si>
   <si>
+    <t>DURICEF 500MG/5ML SUSP. 60ML</t>
+  </si>
+  <si>
     <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
   </si>
   <si>
@@ -227,6 +230,18 @@
     <t>3.8400</t>
   </si>
   <si>
+    <t>FUSI 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
     <t>GINKGO BILOBA 30 CAPS.</t>
   </si>
   <si>
@@ -245,6 +260,15 @@
     <t>34.0000</t>
   </si>
   <si>
+    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
     <t>MILGA ADVANCE 30 F.C. TABS</t>
   </si>
   <si>
@@ -383,9 +407,6 @@
     <t>برمنجنات بوتاسيوم</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>10.00</t>
   </si>
   <si>
@@ -407,7 +428,7 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>Wednesday, 3 September, 2025 12:39 PM</t>
+    <t>Wednesday, 3 September, 2025 12:40 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1477,7 +1498,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1487,11 +1508,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>21</v>
@@ -1503,14 +1524,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1520,14 +1541,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1536,14 +1557,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1553,14 +1574,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1569,14 +1590,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1586,14 +1607,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1602,14 +1623,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1619,11 +1640,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -1635,14 +1656,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1652,11 +1673,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1668,14 +1689,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1685,14 +1706,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>85</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1701,14 +1722,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1718,11 +1739,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -1734,14 +1755,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1751,14 +1772,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1767,14 +1788,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1784,14 +1805,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1800,28 +1821,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -1833,14 +1854,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1850,14 +1871,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1866,14 +1887,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1883,11 +1904,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -1899,7 +1920,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -1912,15 +1933,15 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>34</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -1932,7 +1953,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -1949,11 +1970,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -1965,14 +1986,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1982,11 +2003,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -1998,14 +2019,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>114</v>
+        <v>26</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2015,14 +2036,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2031,14 +2052,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>117</v>
+        <v>26</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2048,14 +2069,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2064,14 +2085,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2081,11 +2102,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2097,31 +2118,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>63</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2130,31 +2151,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>26</v>
+        <v>125</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>87</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2176,7 +2197,7 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2187,42 +2208,141 @@
         <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
         <v>131</v>
       </c>
-    </row>
-    <row r="42" ht="25.5" customHeight="1">
-      <c r="P42" s="13">
-        <v>2549.8099999999999</v>
-      </c>
-      <c r="Q42" s="13"/>
-    </row>
-    <row r="43" ht="16.5" customHeight="1">
-      <c t="s" r="A43" s="14">
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>74</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>105</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
         <v>132</v>
       </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c t="s" r="G43" s="15">
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
         <v>133</v>
       </c>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="16"/>
-      <c t="s" r="K43" s="17">
+      <c t="s" r="Q42" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
         <v>134</v>
       </c>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="17"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>26</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>105</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
+        <v>126</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
+        <v>133</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
+        <v>135</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>26</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>105</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
+        <v>136</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
+        <v>137</v>
+      </c>
+      <c t="s" r="Q44" s="12">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="P45" s="13">
+        <v>2710.8099999999999</v>
+      </c>
+      <c r="Q45" s="13"/>
+    </row>
+    <row r="46" ht="16.5" customHeight="1">
+      <c t="s" r="A46" s="14">
+        <v>139</v>
+      </c>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c t="s" r="G46" s="15">
+        <v>140</v>
+      </c>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="16"/>
+      <c t="s" r="K46" s="17">
+        <v>141</v>
+      </c>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="187">
+  <mergeCells count="202">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2406,10 +2526,25 @@
     <mergeCell ref="H41:K41"/>
     <mergeCell ref="L41:M41"/>
     <mergeCell ref="N41:O41"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="K43:Q43"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="K46:Q46"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-03_00-00.xlsx
+++ b/DaySale_2025-09-03_00-00.xlsx
@@ -242,6 +242,15 @@
     <t>44.0000</t>
   </si>
   <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
     <t>GINKGO BILOBA 30 CAPS.</t>
   </si>
   <si>
@@ -428,7 +437,7 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>Wednesday, 3 September, 2025 12:40 PM</t>
+    <t>Wednesday, 3 September, 2025 12:57 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1663,7 +1672,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1729,7 +1738,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1762,7 +1771,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1795,7 +1804,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1805,14 +1814,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>93</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1821,14 +1830,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1838,14 +1847,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1854,14 +1863,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1878,7 +1887,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1894,7 +1903,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1911,7 +1920,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1927,17 +1936,17 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
@@ -1966,11 +1975,11 @@
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>34</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
@@ -2003,11 +2012,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -2019,7 +2028,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2036,11 +2045,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2092,7 +2101,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>118</v>
+        <v>26</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2102,11 +2111,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2118,14 +2127,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2135,14 +2144,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2168,14 +2177,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>63</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2184,14 +2193,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>26</v>
+        <v>128</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2208,7 +2217,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2224,13 +2233,13 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2257,24 +2266,24 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>95</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2283,7 +2292,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2296,53 +2305,86 @@
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
         <v>138</v>
       </c>
-    </row>
-    <row r="45" ht="24.75" customHeight="1">
-      <c r="P45" s="13">
-        <v>2710.8099999999999</v>
-      </c>
-      <c r="Q45" s="13"/>
-    </row>
-    <row r="46" ht="16.5" customHeight="1">
-      <c t="s" r="A46" s="14">
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>26</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>108</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
         <v>139</v>
       </c>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c t="s" r="G46" s="15">
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
         <v>140</v>
       </c>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="16"/>
-      <c t="s" r="K46" s="17">
+      <c t="s" r="Q45" s="12">
         <v>141</v>
       </c>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
-      <c r="P46" s="17"/>
-      <c r="Q46" s="17"/>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="P46" s="13">
+        <v>2732.8099999999999</v>
+      </c>
+      <c r="Q46" s="13"/>
+    </row>
+    <row r="47" ht="16.5" customHeight="1">
+      <c t="s" r="A47" s="14">
+        <v>142</v>
+      </c>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c t="s" r="G47" s="15">
+        <v>143</v>
+      </c>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="16"/>
+      <c t="s" r="K47" s="17">
+        <v>144</v>
+      </c>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="202">
+  <mergeCells count="207">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2541,10 +2583,15 @@
     <mergeCell ref="H44:K44"/>
     <mergeCell ref="L44:M44"/>
     <mergeCell ref="N44:O44"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="K46:Q46"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="K47:Q47"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-03_00-00.xlsx
+++ b/DaySale_2025-09-03_00-00.xlsx
@@ -437,7 +437,7 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>Wednesday, 3 September, 2025 12:57 PM</t>
+    <t>Wednesday, 3 September, 2025 1:01 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-03_00-00.xlsx
+++ b/DaySale_2025-09-03_00-00.xlsx
@@ -287,6 +287,15 @@
     <t>150.0000</t>
   </si>
   <si>
+    <t>MOBITIL 15MG 10 TAB.</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
     <t>NEUROVIT 6 I.M. AMPS</t>
   </si>
   <si>
@@ -332,12 +341,21 @@
     <t>81.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">RELAX  CAPS</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>63.0000</t>
+  </si>
+  <si>
     <t>SENSODERM SOAP تي اس</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>64.0000</t>
   </si>
   <si>
@@ -350,6 +368,15 @@
     <t>90.0000</t>
   </si>
   <si>
+    <t>TEMPO COOL</t>
+  </si>
+  <si>
+    <t>34.19</t>
+  </si>
+  <si>
+    <t>17.0950</t>
+  </si>
+  <si>
     <t>TRIBATENS 20/5/12.5MG 30 F.C. TABS.</t>
   </si>
   <si>
@@ -371,6 +398,15 @@
     <t>47.5000</t>
   </si>
   <si>
+    <t>TRUZYM TAB</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
     <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -437,7 +473,7 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>Wednesday, 3 September, 2025 1:01 PM</t>
+    <t>Wednesday, 3 September, 2025 1:04 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1837,7 +1873,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1847,14 +1883,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>96</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1863,14 +1899,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1880,14 +1916,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1896,14 +1932,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1920,7 +1956,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1936,7 +1972,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1953,7 +1989,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1969,17 +2005,17 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>34</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
@@ -2002,21 +2038,21 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -2028,7 +2064,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2041,15 +2077,15 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>34</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2061,7 +2097,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2078,11 +2114,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2094,31 +2130,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2127,14 +2163,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>121</v>
+        <v>26</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2144,11 +2180,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2160,14 +2196,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>125</v>
+        <v>26</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2177,14 +2213,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2193,14 +2229,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>128</v>
+        <v>26</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2210,14 +2246,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2226,7 +2262,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2239,18 +2275,18 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2259,28 +2295,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2292,31 +2328,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>26</v>
+        <v>137</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>129</v>
+        <v>63</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>98</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2325,66 +2361,198 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>26</v>
+        <v>140</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
+        <v>143</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>26</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>13</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>144</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
+        <v>145</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
+        <v>146</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>74</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>111</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
+        <v>147</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
+        <v>148</v>
+      </c>
+      <c t="s" r="Q47" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
+        <v>149</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>26</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>111</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
         <v>141</v>
       </c>
-    </row>
-    <row r="46" ht="25.5" customHeight="1">
-      <c r="P46" s="13">
-        <v>2732.8099999999999</v>
-      </c>
-      <c r="Q46" s="13"/>
-    </row>
-    <row r="47" ht="16.5" customHeight="1">
-      <c t="s" r="A47" s="14">
-        <v>142</v>
-      </c>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c t="s" r="G47" s="15">
-        <v>143</v>
-      </c>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="16"/>
-      <c t="s" r="K47" s="17">
-        <v>144</v>
-      </c>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
-      <c r="P47" s="17"/>
-      <c r="Q47" s="17"/>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
+        <v>148</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
+        <v>150</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>26</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>111</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
+        <v>151</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
+        <v>152</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="P50" s="13">
+        <v>2913.9050000000002</v>
+      </c>
+      <c r="Q50" s="13"/>
+    </row>
+    <row r="51" ht="16.5" customHeight="1">
+      <c t="s" r="A51" s="14">
+        <v>154</v>
+      </c>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c t="s" r="G51" s="15">
+        <v>155</v>
+      </c>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="16"/>
+      <c t="s" r="K51" s="17">
+        <v>156</v>
+      </c>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="207">
+  <mergeCells count="227">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2588,10 +2756,30 @@
     <mergeCell ref="H45:K45"/>
     <mergeCell ref="L45:M45"/>
     <mergeCell ref="N45:O45"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="K47:Q47"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="K51:Q51"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-03_00-00.xlsx
+++ b/DaySale_2025-09-03_00-00.xlsx
@@ -410,9 +410,6 @@
     <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
   </si>
   <si>
-    <t>0:-1</t>
-  </si>
-  <si>
     <t>175.00</t>
   </si>
   <si>
@@ -473,7 +470,7 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>Wednesday, 3 September, 2025 1:04 PM</t>
+    <t>Wednesday, 3 September, 2025 1:07 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2302,7 +2299,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>133</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2312,11 +2309,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2328,14 +2325,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2349,7 +2346,7 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2361,14 +2358,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2378,11 +2375,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>35</v>
@@ -2394,7 +2391,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2411,11 +2408,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2427,7 +2424,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2444,11 +2441,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2460,7 +2457,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2477,11 +2474,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>101</v>
@@ -2493,7 +2490,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2510,14 +2507,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
+        <v>151</v>
+      </c>
+      <c t="s" r="Q49" s="12">
         <v>152</v>
-      </c>
-      <c t="s" r="Q49" s="12">
-        <v>153</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2528,7 +2525,7 @@
     </row>
     <row r="51" ht="16.5" customHeight="1">
       <c t="s" r="A51" s="14">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B51" s="14"/>
       <c r="C51" s="14"/>
@@ -2536,13 +2533,13 @@
       <c r="E51" s="14"/>
       <c r="F51" s="14"/>
       <c t="s" r="G51" s="15">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H51" s="15"/>
       <c r="I51" s="15"/>
       <c r="J51" s="16"/>
       <c t="s" r="K51" s="17">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L51" s="17"/>
       <c r="M51" s="17"/>

--- a/DaySale_2025-09-03_00-00.xlsx
+++ b/DaySale_2025-09-03_00-00.xlsx
@@ -194,6 +194,15 @@
     <t>156.0000</t>
   </si>
   <si>
+    <t>DICETEL 100MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>41.0000</t>
+  </si>
+  <si>
     <t>DURICEF 500MG/5ML SUSP. 60ML</t>
   </si>
   <si>
@@ -470,7 +479,7 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>Wednesday, 3 September, 2025 1:07 PM</t>
+    <t>Wednesday, 3 September, 2025 3:01 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1540,7 +1549,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1550,14 +1559,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1566,14 +1575,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1583,11 +1592,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -1606,7 +1615,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1616,14 +1625,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1632,14 +1641,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1649,14 +1658,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1665,14 +1674,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1682,14 +1691,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1698,14 +1707,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1738,7 +1747,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1804,7 +1813,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1837,7 +1846,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1870,7 +1879,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1903,7 +1912,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1913,14 +1922,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>99</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1929,14 +1938,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1946,14 +1955,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1962,14 +1971,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1986,7 +1995,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2002,7 +2011,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2019,7 +2028,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2041,15 +2050,15 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -2061,28 +2070,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2094,7 +2103,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2107,11 +2116,11 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>34</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
@@ -2134,13 +2143,13 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2151,7 +2160,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2167,24 +2176,24 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2193,7 +2202,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2210,11 +2219,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2272,7 +2281,7 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2283,7 +2292,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2299,13 +2308,13 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2316,7 +2325,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2332,7 +2341,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>136</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2342,14 +2351,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>63</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2375,14 +2384,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>66</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2391,14 +2400,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>26</v>
+        <v>142</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2415,7 +2424,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2431,13 +2440,13 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2464,24 +2473,24 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>101</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2490,7 +2499,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2503,53 +2512,86 @@
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
         <v>152</v>
       </c>
-    </row>
-    <row r="50" ht="24.75" customHeight="1">
-      <c r="P50" s="13">
-        <v>2913.9050000000002</v>
-      </c>
-      <c r="Q50" s="13"/>
-    </row>
-    <row r="51" ht="16.5" customHeight="1">
-      <c t="s" r="A51" s="14">
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>26</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>114</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
         <v>153</v>
       </c>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c t="s" r="G51" s="15">
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
         <v>154</v>
       </c>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="16"/>
-      <c t="s" r="K51" s="17">
+      <c t="s" r="Q50" s="12">
         <v>155</v>
       </c>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="17"/>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="P51" s="13">
+        <v>2954.9050000000002</v>
+      </c>
+      <c r="Q51" s="13"/>
+    </row>
+    <row r="52" ht="16.5" customHeight="1">
+      <c t="s" r="A52" s="14">
+        <v>156</v>
+      </c>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c t="s" r="G52" s="15">
+        <v>157</v>
+      </c>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="16"/>
+      <c t="s" r="K52" s="17">
+        <v>158</v>
+      </c>
+      <c r="L52" s="17"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="17"/>
+      <c r="O52" s="17"/>
+      <c r="P52" s="17"/>
+      <c r="Q52" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="227">
+  <mergeCells count="232">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2773,10 +2815,15 @@
     <mergeCell ref="H49:K49"/>
     <mergeCell ref="L49:M49"/>
     <mergeCell ref="N49:O49"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="K51:Q51"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="K52:Q52"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-03_00-00.xlsx
+++ b/DaySale_2025-09-03_00-00.xlsx
@@ -194,15 +194,6 @@
     <t>156.0000</t>
   </si>
   <si>
-    <t>DICETEL 100MG 20 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>82.00</t>
-  </si>
-  <si>
-    <t>41.0000</t>
-  </si>
-  <si>
     <t>DURICEF 500MG/5ML SUSP. 60ML</t>
   </si>
   <si>
@@ -278,6 +269,12 @@
     <t>34.0000</t>
   </si>
   <si>
+    <t>KETOLAC 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
     <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
   </si>
   <si>
@@ -467,6 +464,12 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -479,7 +482,7 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>Wednesday, 3 September, 2025 3:01 PM</t>
+    <t>Wednesday, 3 September, 2025 3:33 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1549,7 +1552,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1559,14 +1562,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1575,14 +1578,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1592,11 +1595,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -1615,7 +1618,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1625,14 +1628,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1641,14 +1644,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1658,14 +1661,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1674,14 +1677,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1691,14 +1694,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1707,14 +1710,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1747,7 +1750,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1813,7 +1816,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1827,10 +1830,10 @@
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1839,7 +1842,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1856,11 +1859,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -1872,7 +1875,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1889,11 +1892,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -1905,7 +1908,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1922,11 +1925,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -1938,14 +1941,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1955,14 +1958,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
+        <v>100</v>
+      </c>
+      <c t="s" r="Q32" s="12">
         <v>101</v>
-      </c>
-      <c t="s" r="Q32" s="12">
-        <v>102</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1971,14 +1974,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1988,11 +1991,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -2004,7 +2007,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2021,11 +2024,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2037,7 +2040,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2054,11 +2057,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -2070,7 +2073,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2083,15 +2086,15 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2103,7 +2106,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2116,7 +2119,7 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2124,7 +2127,7 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2136,7 +2139,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2153,11 +2156,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2169,7 +2172,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2182,15 +2185,15 @@
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2202,7 +2205,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2219,11 +2222,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2235,7 +2238,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2252,11 +2255,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2268,7 +2271,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2285,11 +2288,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2301,7 +2304,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2314,15 +2317,15 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2334,7 +2337,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2351,11 +2354,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2367,14 +2370,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2384,11 +2387,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2400,14 +2403,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2417,11 +2420,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>35</v>
@@ -2433,7 +2436,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2450,11 +2453,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2466,28 +2469,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2499,7 +2502,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2512,18 +2515,18 @@
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>104</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2532,7 +2535,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2545,29 +2548,29 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
       <c r="P51" s="13">
-        <v>2954.9050000000002</v>
+        <v>2934.9050000000002</v>
       </c>
       <c r="Q51" s="13"/>
     </row>
     <row r="52" ht="16.5" customHeight="1">
       <c t="s" r="A52" s="14">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B52" s="14"/>
       <c r="C52" s="14"/>
@@ -2575,13 +2578,13 @@
       <c r="E52" s="14"/>
       <c r="F52" s="14"/>
       <c t="s" r="G52" s="15">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H52" s="15"/>
       <c r="I52" s="15"/>
       <c r="J52" s="16"/>
       <c t="s" r="K52" s="17">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L52" s="17"/>
       <c r="M52" s="17"/>

--- a/DaySale_2025-09-03_00-00.xlsx
+++ b/DaySale_2025-09-03_00-00.xlsx
@@ -482,7 +482,7 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>Wednesday, 3 September, 2025 3:33 PM</t>
+    <t>Wednesday, 3 September, 2025 3:34 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-03_00-00.xlsx
+++ b/DaySale_2025-09-03_00-00.xlsx
@@ -275,6 +275,15 @@
     <t>38.00</t>
   </si>
   <si>
+    <t>LACRITEARS EYE DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
     <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
   </si>
   <si>
@@ -482,7 +491,7 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>Wednesday, 3 September, 2025 3:34 PM</t>
+    <t>Wednesday, 3 September, 2025 3:42 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1882,7 +1891,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1915,7 +1924,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1948,7 +1957,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>26</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1958,14 +1967,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>101</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1974,14 +1983,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1991,14 +2000,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2007,14 +2016,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2031,7 +2040,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2047,7 +2056,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2064,7 +2073,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2086,15 +2095,15 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2106,28 +2115,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>34</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2139,7 +2148,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2152,11 +2161,11 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>34</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
@@ -2179,13 +2188,13 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2196,7 +2205,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2212,24 +2221,24 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2238,7 +2247,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2255,11 +2264,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2317,7 +2326,7 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2328,7 +2337,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2344,13 +2353,13 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2361,7 +2370,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2377,7 +2386,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>138</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2387,14 +2396,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>63</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2420,14 +2429,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>63</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2436,14 +2445,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>26</v>
+        <v>144</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2460,7 +2469,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2476,13 +2485,13 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2509,24 +2518,24 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>152</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2548,53 +2557,86 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
+        <v>154</v>
+      </c>
+      <c t="s" r="Q50" s="12">
         <v>155</v>
       </c>
-      <c t="s" r="Q50" s="12">
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
         <v>156</v>
       </c>
-    </row>
-    <row r="51" ht="25.5" customHeight="1">
-      <c r="P51" s="13">
-        <v>2934.9050000000002</v>
-      </c>
-      <c r="Q51" s="13"/>
-    </row>
-    <row r="52" ht="16.5" customHeight="1">
-      <c t="s" r="A52" s="14">
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>26</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>116</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
         <v>157</v>
       </c>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c t="s" r="G52" s="15">
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
         <v>158</v>
       </c>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="16"/>
-      <c t="s" r="K52" s="17">
+      <c t="s" r="Q51" s="12">
         <v>159</v>
       </c>
-      <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="17"/>
-      <c r="O52" s="17"/>
-      <c r="P52" s="17"/>
-      <c r="Q52" s="17"/>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="P52" s="13">
+        <v>2983.9050000000002</v>
+      </c>
+      <c r="Q52" s="13"/>
+    </row>
+    <row r="53" ht="16.5" customHeight="1">
+      <c t="s" r="A53" s="14">
+        <v>160</v>
+      </c>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c t="s" r="G53" s="15">
+        <v>161</v>
+      </c>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="16"/>
+      <c t="s" r="K53" s="17">
+        <v>162</v>
+      </c>
+      <c r="L53" s="17"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="17"/>
+      <c r="O53" s="17"/>
+      <c r="P53" s="17"/>
+      <c r="Q53" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="232">
+  <mergeCells count="237">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2823,10 +2865,15 @@
     <mergeCell ref="H50:K50"/>
     <mergeCell ref="L50:M50"/>
     <mergeCell ref="N50:O50"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="K52:Q52"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="K53:Q53"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-03_00-00.xlsx
+++ b/DaySale_2025-09-03_00-00.xlsx
@@ -434,10 +434,10 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>16.8300</t>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>33.6600</t>
   </si>
   <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
@@ -473,10 +473,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>6:0</t>
+    <t>14.0000</t>
+  </si>
+  <si>
+    <t>7:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -491,7 +491,7 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>Wednesday, 3 September, 2025 3:42 PM</t>
+    <t>Wednesday, 3 September, 2025 3:51 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2436,7 +2436,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2606,7 +2606,7 @@
     </row>
     <row r="52" ht="25.5" customHeight="1">
       <c r="P52" s="13">
-        <v>2983.9050000000002</v>
+        <v>3002.7350000000001</v>
       </c>
       <c r="Q52" s="13"/>
     </row>

--- a/DaySale_2025-09-03_00-00.xlsx
+++ b/DaySale_2025-09-03_00-00.xlsx
@@ -293,6 +293,18 @@
     <t>39.0000</t>
   </si>
   <si>
+    <t>LICID LOTION 30 ML</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t>MILGA ADVANCE 30 F.C. TABS</t>
   </si>
   <si>
@@ -476,9 +488,6 @@
     <t>14.0000</t>
   </si>
   <si>
-    <t>7:0</t>
-  </si>
-  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -491,7 +500,7 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>Wednesday, 3 September, 2025 3:51 PM</t>
+    <t>Wednesday, 3 September, 2025 5:05 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1924,7 +1933,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1934,11 +1943,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -1950,14 +1959,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1967,11 +1976,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -1983,14 +1992,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2007,7 +2016,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>104</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2016,14 +2025,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2033,14 +2042,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
+        <v>107</v>
+      </c>
+      <c t="s" r="Q34" s="12">
         <v>108</v>
-      </c>
-      <c t="s" r="Q34" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2056,7 +2065,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2066,14 +2075,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2082,14 +2091,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2099,14 +2108,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2115,7 +2124,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2128,7 +2137,7 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2155,21 +2164,21 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>34</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2181,7 +2190,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2194,15 +2203,15 @@
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>34</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2214,31 +2223,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2247,31 +2256,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2280,7 +2289,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2297,11 +2306,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2313,7 +2322,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2330,11 +2339,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2346,7 +2355,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2359,18 +2368,18 @@
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2379,31 +2388,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2412,14 +2421,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2429,14 +2438,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2445,14 +2454,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2462,14 +2471,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>63</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2485,7 +2494,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>26</v>
+        <v>148</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2495,14 +2504,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2511,28 +2520,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2544,31 +2553,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>155</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2577,7 +2586,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2590,53 +2599,86 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
         <v>159</v>
       </c>
-    </row>
-    <row r="52" ht="25.5" customHeight="1">
-      <c r="P52" s="13">
-        <v>3002.7350000000001</v>
-      </c>
-      <c r="Q52" s="13"/>
-    </row>
-    <row r="53" ht="16.5" customHeight="1">
-      <c t="s" r="A53" s="14">
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>26</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>120</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
         <v>160</v>
       </c>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c t="s" r="G53" s="15">
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
         <v>161</v>
       </c>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="16"/>
-      <c t="s" r="K53" s="17">
+      <c t="s" r="Q52" s="12">
         <v>162</v>
       </c>
-      <c r="L53" s="17"/>
-      <c r="M53" s="17"/>
-      <c r="N53" s="17"/>
-      <c r="O53" s="17"/>
-      <c r="P53" s="17"/>
-      <c r="Q53" s="17"/>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="P53" s="13">
+        <v>3042.7350000000001</v>
+      </c>
+      <c r="Q53" s="13"/>
+    </row>
+    <row r="54" ht="16.5" customHeight="1">
+      <c t="s" r="A54" s="14">
+        <v>163</v>
+      </c>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c t="s" r="G54" s="15">
+        <v>164</v>
+      </c>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="16"/>
+      <c t="s" r="K54" s="17">
+        <v>165</v>
+      </c>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="237">
+  <mergeCells count="242">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2870,10 +2912,15 @@
     <mergeCell ref="H51:K51"/>
     <mergeCell ref="L51:M51"/>
     <mergeCell ref="N51:O51"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="K53:Q53"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="K54:Q54"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-03_00-00.xlsx
+++ b/DaySale_2025-09-03_00-00.xlsx
@@ -314,6 +314,18 @@
     <t>150.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">MIRFENACIN MR5/25  TAB</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>277.50</t>
+  </si>
+  <si>
+    <t>277.5000</t>
+  </si>
+  <si>
     <t>MOBITIL 15MG 10 TAB.</t>
   </si>
   <si>
@@ -371,9 +383,6 @@
     <t xml:space="preserve">RELAX  CAPS</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>63.00</t>
   </si>
   <si>
@@ -500,7 +509,7 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>Wednesday, 3 September, 2025 5:05 PM</t>
+    <t>Wednesday, 3 September, 2025 5:10 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1999,21 +2008,21 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -2025,14 +2034,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2049,7 +2058,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>108</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2058,14 +2067,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2075,14 +2084,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
+        <v>111</v>
+      </c>
+      <c t="s" r="Q35" s="12">
         <v>112</v>
-      </c>
-      <c t="s" r="Q35" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2098,7 +2107,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2108,14 +2117,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2124,14 +2133,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2141,14 +2150,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2157,7 +2166,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2170,7 +2179,7 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2197,21 +2206,21 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>34</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2223,7 +2232,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2236,11 +2245,11 @@
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>34</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
@@ -2263,13 +2272,13 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2280,7 +2289,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2296,24 +2305,24 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2322,7 +2331,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2339,11 +2348,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2401,7 +2410,7 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2412,7 +2421,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2428,13 +2437,13 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2445,7 +2454,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2461,7 +2470,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>145</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2471,14 +2480,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>63</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2504,14 +2513,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>63</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2520,14 +2529,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>26</v>
+        <v>151</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2544,7 +2553,7 @@
         <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2560,13 +2569,13 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2593,24 +2602,24 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>95</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2619,7 +2628,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2632,53 +2641,86 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
         <v>162</v>
       </c>
-    </row>
-    <row r="53" ht="24.75" customHeight="1">
-      <c r="P53" s="13">
-        <v>3042.7350000000001</v>
-      </c>
-      <c r="Q53" s="13"/>
-    </row>
-    <row r="54" ht="16.5" customHeight="1">
-      <c t="s" r="A54" s="14">
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>26</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>102</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
         <v>163</v>
       </c>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c t="s" r="G54" s="15">
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
         <v>164</v>
       </c>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="16"/>
-      <c t="s" r="K54" s="17">
+      <c t="s" r="Q53" s="12">
         <v>165</v>
       </c>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="17"/>
-      <c r="P54" s="17"/>
-      <c r="Q54" s="17"/>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="P54" s="13">
+        <v>3320.2350000000001</v>
+      </c>
+      <c r="Q54" s="13"/>
+    </row>
+    <row r="55" ht="16.5" customHeight="1">
+      <c t="s" r="A55" s="14">
+        <v>166</v>
+      </c>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c t="s" r="G55" s="15">
+        <v>167</v>
+      </c>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="16"/>
+      <c t="s" r="K55" s="17">
+        <v>168</v>
+      </c>
+      <c r="L55" s="17"/>
+      <c r="M55" s="17"/>
+      <c r="N55" s="17"/>
+      <c r="O55" s="17"/>
+      <c r="P55" s="17"/>
+      <c r="Q55" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="242">
+  <mergeCells count="247">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2917,10 +2959,15 @@
     <mergeCell ref="H52:K52"/>
     <mergeCell ref="L52:M52"/>
     <mergeCell ref="N52:O52"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="K54:Q54"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="K55:Q55"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-03_00-00.xlsx
+++ b/DaySale_2025-09-03_00-00.xlsx
@@ -425,6 +425,12 @@
     <t>234.0000</t>
   </si>
   <si>
+    <t>TRITTICO 100MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>21.5000</t>
+  </si>
+  <si>
     <t>TRIVASTAL RETARD 50MG 30 TAB.</t>
   </si>
   <si>
@@ -509,7 +515,7 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>Wednesday, 3 September, 2025 5:10 PM</t>
+    <t>Wednesday, 3 September, 2025 5:15 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2404,7 +2410,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2414,14 +2420,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>41</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2430,7 +2436,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2443,18 +2449,18 @@
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2463,31 +2469,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2496,14 +2502,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>148</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2513,14 +2519,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>63</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2529,14 +2535,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2546,14 +2552,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>63</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2562,14 +2568,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>26</v>
+        <v>153</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2579,14 +2585,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2595,28 +2601,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -2628,14 +2634,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2645,14 +2651,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>95</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2678,49 +2684,82 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
+        <v>163</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
         <v>164</v>
       </c>
-      <c t="s" r="Q53" s="12">
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>26</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>102</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
         <v>165</v>
       </c>
-    </row>
-    <row r="54" ht="25.5" customHeight="1">
-      <c r="P54" s="13">
-        <v>3320.2350000000001</v>
-      </c>
-      <c r="Q54" s="13"/>
-    </row>
-    <row r="55" ht="16.5" customHeight="1">
-      <c t="s" r="A55" s="14">
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
         <v>166</v>
       </c>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c t="s" r="G55" s="15">
+      <c t="s" r="Q54" s="12">
         <v>167</v>
       </c>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="16"/>
-      <c t="s" r="K55" s="17">
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="P55" s="13">
+        <v>3341.7350000000001</v>
+      </c>
+      <c r="Q55" s="13"/>
+    </row>
+    <row r="56" ht="16.5" customHeight="1">
+      <c t="s" r="A56" s="14">
         <v>168</v>
       </c>
-      <c r="L55" s="17"/>
-      <c r="M55" s="17"/>
-      <c r="N55" s="17"/>
-      <c r="O55" s="17"/>
-      <c r="P55" s="17"/>
-      <c r="Q55" s="17"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c t="s" r="G56" s="15">
+        <v>169</v>
+      </c>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="16"/>
+      <c t="s" r="K56" s="17">
+        <v>170</v>
+      </c>
+      <c r="L56" s="17"/>
+      <c r="M56" s="17"/>
+      <c r="N56" s="17"/>
+      <c r="O56" s="17"/>
+      <c r="P56" s="17"/>
+      <c r="Q56" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="247">
+  <mergeCells count="252">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2964,10 +3003,15 @@
     <mergeCell ref="H53:K53"/>
     <mergeCell ref="L53:M53"/>
     <mergeCell ref="N53:O53"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="K55:Q55"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="K56:Q56"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-03_00-00.xlsx
+++ b/DaySale_2025-09-03_00-00.xlsx
@@ -164,6 +164,9 @@
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
   </si>
   <si>
+    <t>4:0</t>
+  </si>
+  <si>
     <t>85.00</t>
   </si>
   <si>
@@ -230,12 +233,18 @@
     <t>3.8400</t>
   </si>
   <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
     <t>FUSI 2% CREAM 15 GM</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>44.00</t>
   </si>
   <si>
@@ -287,6 +296,9 @@
     <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
   </si>
   <si>
+    <t>3:0</t>
+  </si>
+  <si>
     <t>39.00</t>
   </si>
   <si>
@@ -320,10 +332,10 @@
     <t>0</t>
   </si>
   <si>
-    <t>277.50</t>
-  </si>
-  <si>
-    <t>277.5000</t>
+    <t>339.00</t>
+  </si>
+  <si>
+    <t>339.0000</t>
   </si>
   <si>
     <t>MOBITIL 15MG 10 TAB.</t>
@@ -401,9 +413,6 @@
     <t>90.00</t>
   </si>
   <si>
-    <t>90.0000</t>
-  </si>
-  <si>
     <t>TEMPO COOL</t>
   </si>
   <si>
@@ -515,7 +524,7 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>Wednesday, 3 September, 2025 5:15 PM</t>
+    <t>Wednesday, 3 September, 2025 5:57 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1486,7 +1495,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1496,11 +1505,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>30</v>
@@ -1512,14 +1521,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1529,11 +1538,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>12</v>
@@ -1545,14 +1554,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1562,11 +1571,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
@@ -1578,7 +1587,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1599,7 +1608,7 @@
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>21</v>
@@ -1611,14 +1620,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1628,11 +1637,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -1644,14 +1653,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1661,11 +1670,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>30</v>
@@ -1677,14 +1686,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1694,11 +1703,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1710,14 +1719,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1734,7 +1743,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1750,7 +1759,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1783,7 +1792,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1849,7 +1858,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1863,10 +1872,10 @@
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1875,7 +1884,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1892,14 +1901,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1981,7 +1990,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1991,11 +2000,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -2007,7 +2016,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2020,7 +2029,7 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -2047,21 +2056,21 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -2073,14 +2082,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>26</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2097,7 +2106,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>112</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2106,14 +2115,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2123,14 +2132,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
+        <v>115</v>
+      </c>
+      <c t="s" r="Q36" s="12">
         <v>116</v>
-      </c>
-      <c t="s" r="Q36" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2146,7 +2155,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>118</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2156,14 +2165,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2172,14 +2181,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2189,14 +2198,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2205,7 +2214,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2218,15 +2227,15 @@
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2238,28 +2247,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>34</v>
+        <v>128</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2271,7 +2280,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2284,15 +2293,15 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>34</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2304,31 +2313,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2344,24 +2353,24 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2370,7 +2379,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2387,11 +2396,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2410,7 +2419,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2420,14 +2429,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>41</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2436,14 +2445,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2453,14 +2462,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>41</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2476,13 +2485,13 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2493,7 +2502,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2509,13 +2518,13 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2526,7 +2535,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2542,7 +2551,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>150</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2552,14 +2561,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>63</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2585,14 +2594,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>64</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2601,14 +2610,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>26</v>
+        <v>156</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2625,7 +2634,7 @@
         <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2641,13 +2650,13 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -2674,24 +2683,24 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>95</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2700,7 +2709,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2713,53 +2722,86 @@
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
         <v>167</v>
       </c>
-    </row>
-    <row r="55" ht="24.75" customHeight="1">
-      <c r="P55" s="13">
-        <v>3341.7350000000001</v>
-      </c>
-      <c r="Q55" s="13"/>
-    </row>
-    <row r="56" ht="16.5" customHeight="1">
-      <c t="s" r="A56" s="14">
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>26</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>106</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
         <v>168</v>
       </c>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c t="s" r="G56" s="15">
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
         <v>169</v>
       </c>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="16"/>
-      <c t="s" r="K56" s="17">
+      <c t="s" r="Q55" s="12">
         <v>170</v>
       </c>
-      <c r="L56" s="17"/>
-      <c r="M56" s="17"/>
-      <c r="N56" s="17"/>
-      <c r="O56" s="17"/>
-      <c r="P56" s="17"/>
-      <c r="Q56" s="17"/>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="P56" s="13">
+        <v>3493.2350000000001</v>
+      </c>
+      <c r="Q56" s="13"/>
+    </row>
+    <row r="57" ht="16.5" customHeight="1">
+      <c t="s" r="A57" s="14">
+        <v>171</v>
+      </c>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c t="s" r="G57" s="15">
+        <v>172</v>
+      </c>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="16"/>
+      <c t="s" r="K57" s="17">
+        <v>173</v>
+      </c>
+      <c r="L57" s="17"/>
+      <c r="M57" s="17"/>
+      <c r="N57" s="17"/>
+      <c r="O57" s="17"/>
+      <c r="P57" s="17"/>
+      <c r="Q57" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="252">
+  <mergeCells count="257">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3008,10 +3050,15 @@
     <mergeCell ref="H54:K54"/>
     <mergeCell ref="L54:M54"/>
     <mergeCell ref="N54:O54"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="K56:Q56"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="K57:Q57"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-03_00-00.xlsx
+++ b/DaySale_2025-09-03_00-00.xlsx
@@ -524,7 +524,7 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>Wednesday, 3 September, 2025 5:57 PM</t>
+    <t>Wednesday, 3 September, 2025 6:14 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-03_00-00.xlsx
+++ b/DaySale_2025-09-03_00-00.xlsx
@@ -126,6 +126,15 @@
   </si>
   <si>
     <t>160.0000</t>
+  </si>
+  <si>
+    <t>BRUFEN 200MG 30 TAB</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
   </si>
   <si>
     <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
@@ -1396,7 +1405,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1406,14 +1415,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1422,14 +1431,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1439,14 +1448,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1455,14 +1464,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1479,7 +1488,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1495,7 +1504,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1505,14 +1514,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1521,14 +1530,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1538,14 +1547,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1554,14 +1563,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1571,14 +1580,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1587,14 +1596,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1604,11 +1613,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>21</v>
@@ -1620,14 +1629,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1637,11 +1646,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -1660,7 +1669,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1670,14 +1679,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1686,14 +1695,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1703,14 +1712,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1719,14 +1728,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1759,7 +1768,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1776,7 +1785,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1792,7 +1801,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1825,7 +1834,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1891,7 +1900,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1905,10 +1914,10 @@
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1917,7 +1926,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1934,14 +1943,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1957,7 +1966,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1967,11 +1976,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -1983,14 +1992,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2000,11 +2009,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -2016,14 +2025,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2056,21 +2065,21 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -2082,20 +2091,20 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -2122,7 +2131,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>113</v>
+        <v>26</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2132,14 +2141,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>116</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2148,14 +2157,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2165,14 +2174,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2181,14 +2190,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>121</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2205,7 +2214,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2221,7 +2230,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2238,7 +2247,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2260,7 +2269,7 @@
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2287,21 +2296,21 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>34</v>
+        <v>131</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2313,7 +2322,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2326,15 +2335,15 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>34</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2346,31 +2355,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2386,24 +2395,24 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2412,7 +2421,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2429,11 +2438,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2452,7 +2461,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2462,14 +2471,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>41</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2478,7 +2487,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2495,14 +2504,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>44</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2518,13 +2527,13 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2535,7 +2544,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2551,13 +2560,13 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -2568,7 +2577,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2584,7 +2593,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>153</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2594,14 +2603,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>64</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2627,14 +2636,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>67</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2643,14 +2652,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>26</v>
+        <v>159</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2667,7 +2676,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2683,13 +2692,13 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
@@ -2716,24 +2725,24 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>99</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2742,7 +2751,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2755,53 +2764,86 @@
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
         <v>170</v>
       </c>
-    </row>
-    <row r="56" ht="25.5" customHeight="1">
-      <c r="P56" s="13">
-        <v>3493.2350000000001</v>
-      </c>
-      <c r="Q56" s="13"/>
-    </row>
-    <row r="57" ht="16.5" customHeight="1">
-      <c t="s" r="A57" s="14">
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>26</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>109</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
         <v>171</v>
       </c>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c t="s" r="G57" s="15">
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
         <v>172</v>
       </c>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="16"/>
-      <c t="s" r="K57" s="17">
+      <c t="s" r="Q56" s="12">
         <v>173</v>
       </c>
-      <c r="L57" s="17"/>
-      <c r="M57" s="17"/>
-      <c r="N57" s="17"/>
-      <c r="O57" s="17"/>
-      <c r="P57" s="17"/>
-      <c r="Q57" s="17"/>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="P57" s="13">
+        <v>3509.0749999999998</v>
+      </c>
+      <c r="Q57" s="13"/>
+    </row>
+    <row r="58" ht="16.5" customHeight="1">
+      <c t="s" r="A58" s="14">
+        <v>174</v>
+      </c>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c t="s" r="G58" s="15">
+        <v>175</v>
+      </c>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="16"/>
+      <c t="s" r="K58" s="17">
+        <v>176</v>
+      </c>
+      <c r="L58" s="17"/>
+      <c r="M58" s="17"/>
+      <c r="N58" s="17"/>
+      <c r="O58" s="17"/>
+      <c r="P58" s="17"/>
+      <c r="Q58" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="257">
+  <mergeCells count="262">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3055,10 +3097,15 @@
     <mergeCell ref="H55:K55"/>
     <mergeCell ref="L55:M55"/>
     <mergeCell ref="N55:O55"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="K57:Q57"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="K58:Q58"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-03_00-00.xlsx
+++ b/DaySale_2025-09-03_00-00.xlsx
@@ -533,7 +533,7 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>Wednesday, 3 September, 2025 6:14 PM</t>
+    <t>Wednesday, 3 September, 2025 6:15 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-03_00-00.xlsx
+++ b/DaySale_2025-09-03_00-00.xlsx
@@ -410,6 +410,12 @@
     <t>63.0000</t>
   </si>
   <si>
+    <t>RICHI PANTHENOL ADVANCE GEL</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
     <t>SENSODERM SOAP تي اس</t>
   </si>
   <si>
@@ -422,6 +428,15 @@
     <t>90.00</t>
   </si>
   <si>
+    <t>STARVILLE WHITENING ANTIPRESPIRANT ROLL-ON 60 ML</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
     <t>TEMPO COOL</t>
   </si>
   <si>
@@ -461,9 +476,6 @@
     <t>TRUZYM TAB</t>
   </si>
   <si>
-    <t>130.00</t>
-  </si>
-  <si>
     <t>65.0000</t>
   </si>
   <si>
@@ -476,6 +488,9 @@
     <t>175.0000</t>
   </si>
   <si>
+    <t>VENTAMOR BLACK CHARCOAL SOAP 100 GM</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -515,6 +530,15 @@
     <t>10.0000</t>
   </si>
   <si>
+    <t>جل صبار برطمان</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -533,7 +557,7 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>Wednesday, 3 September, 2025 6:15 PM</t>
+    <t>Wednesday, 3 September, 2025 6:24 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2339,7 +2363,7 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
@@ -2368,15 +2392,15 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>34</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2395,13 +2419,13 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2409,10 +2433,10 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2421,7 +2445,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2438,11 +2462,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2454,31 +2478,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2487,14 +2511,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2504,14 +2528,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>44</v>
+        <v>138</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2527,7 +2551,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2560,21 +2584,21 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2586,14 +2610,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2603,11 +2627,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -2619,31 +2643,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>156</v>
+        <v>26</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>67</v>
+        <v>140</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2652,14 +2676,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>159</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2669,14 +2693,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2685,7 +2709,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2702,11 +2726,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>55</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -2718,31 +2742,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>54</v>
+        <v>161</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>67</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2751,31 +2775,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>26</v>
+        <v>164</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>102</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2784,7 +2808,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2797,53 +2821,185 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
+        <v>169</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
+        <v>170</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>54</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>109</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>171</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
         <v>172</v>
       </c>
-      <c t="s" r="Q56" s="12">
+      <c t="s" r="Q57" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
         <v>173</v>
       </c>
-    </row>
-    <row r="57" ht="25.5" customHeight="1">
-      <c r="P57" s="13">
-        <v>3509.0749999999998</v>
-      </c>
-      <c r="Q57" s="13"/>
-    </row>
-    <row r="58" ht="16.5" customHeight="1">
-      <c t="s" r="A58" s="14">
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>35</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>109</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
         <v>174</v>
       </c>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c t="s" r="G58" s="15">
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
         <v>175</v>
       </c>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="16"/>
-      <c t="s" r="K58" s="17">
+      <c t="s" r="Q58" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
         <v>176</v>
       </c>
-      <c r="L58" s="17"/>
-      <c r="M58" s="17"/>
-      <c r="N58" s="17"/>
-      <c r="O58" s="17"/>
-      <c r="P58" s="17"/>
-      <c r="Q58" s="17"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>26</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>109</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>165</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>177</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
+        <v>178</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>26</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>109</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
+        <v>179</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
+        <v>180</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="P61" s="13">
+        <v>3834.0749999999998</v>
+      </c>
+      <c r="Q61" s="13"/>
+    </row>
+    <row r="62" ht="16.5" customHeight="1">
+      <c t="s" r="A62" s="14">
+        <v>182</v>
+      </c>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c t="s" r="G62" s="15">
+        <v>183</v>
+      </c>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="16"/>
+      <c t="s" r="K62" s="17">
+        <v>184</v>
+      </c>
+      <c r="L62" s="17"/>
+      <c r="M62" s="17"/>
+      <c r="N62" s="17"/>
+      <c r="O62" s="17"/>
+      <c r="P62" s="17"/>
+      <c r="Q62" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="262">
+  <mergeCells count="282">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3102,10 +3258,30 @@
     <mergeCell ref="H56:K56"/>
     <mergeCell ref="L56:M56"/>
     <mergeCell ref="N56:O56"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="K58:Q58"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="K62:Q62"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-03_00-00.xlsx
+++ b/DaySale_2025-09-03_00-00.xlsx
@@ -149,6 +149,18 @@
     <t>43.0000</t>
   </si>
   <si>
+    <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>COLCHICINE 500MCG 100 TAB</t>
   </si>
   <si>
@@ -317,15 +329,15 @@
     <t>LICID LOTION 30 ML</t>
   </si>
   <si>
-    <t>7:0</t>
-  </si>
-  <si>
     <t>40.00</t>
   </si>
   <si>
     <t>40.0000</t>
   </si>
   <si>
+    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
+  </si>
+  <si>
     <t>MILGA ADVANCE 30 F.C. TABS</t>
   </si>
   <si>
@@ -383,6 +395,15 @@
     <t>29.0000</t>
   </si>
   <si>
+    <t>OPLEX-N SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>PANTAZOL 40MG 14 ENTERIC COATED TAB.</t>
   </si>
   <si>
@@ -557,7 +578,22 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>Wednesday, 3 September, 2025 6:24 PM</t>
+    <t>مناديل FINE</t>
+  </si>
+  <si>
+    <t>31:0</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>مناديل مبلله كبيره</t>
+  </si>
+  <si>
+    <t>Wednesday, 3 September, 2025 7:20 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1512,7 +1548,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1528,7 +1564,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1538,14 +1574,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1554,14 +1590,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1578,7 +1614,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1611,7 +1647,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1644,7 +1680,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1660,7 +1696,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1670,11 +1706,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -1686,14 +1722,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1703,11 +1739,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -1719,14 +1755,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1743,7 +1779,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1776,7 +1812,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1792,7 +1828,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1802,11 +1838,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1818,14 +1854,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1835,14 +1871,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1851,14 +1887,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1868,11 +1904,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -1884,14 +1920,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1901,11 +1937,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -1917,7 +1953,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1934,11 +1970,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -1950,14 +1986,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1967,14 +2003,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1983,7 +2019,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2000,14 +2036,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2016,14 +2052,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2089,7 +2125,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2122,21 +2158,21 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>31</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -2148,14 +2184,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2165,11 +2201,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2181,31 +2217,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>119</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2214,14 +2250,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>121</v>
+        <v>26</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2231,11 +2267,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2247,14 +2283,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2264,14 +2300,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2280,14 +2316,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>125</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2297,11 +2333,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2313,28 +2349,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2346,31 +2382,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>55</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2379,24 +2415,24 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>34</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
@@ -2419,13 +2455,13 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2433,7 +2469,7 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2445,7 +2481,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2458,11 +2494,11 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>59</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
@@ -2485,24 +2521,24 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>34</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2511,7 +2547,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2528,11 +2564,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2584,21 +2620,21 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2610,14 +2646,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2627,11 +2663,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -2643,7 +2679,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2656,18 +2692,18 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2683,7 +2719,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2693,14 +2729,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>44</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2709,14 +2745,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2726,11 +2762,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>55</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -2742,31 +2778,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>161</v>
+        <v>26</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>67</v>
+        <v>147</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2782,7 +2818,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>164</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2792,14 +2828,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2808,7 +2844,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2825,11 +2861,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>59</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -2841,31 +2877,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>54</v>
+        <v>168</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>71</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2874,31 +2910,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>35</v>
+        <v>171</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2907,7 +2943,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -2920,18 +2956,18 @@
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>102</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2940,66 +2976,231 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
+        <v>179</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
         <v>180</v>
       </c>
-      <c t="s" r="Q60" s="12">
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>35</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>113</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
         <v>181</v>
       </c>
-    </row>
-    <row r="61" ht="25.5" customHeight="1">
-      <c r="P61" s="13">
-        <v>3834.0749999999998</v>
-      </c>
-      <c r="Q61" s="13"/>
-    </row>
-    <row r="62" ht="16.5" customHeight="1">
-      <c t="s" r="A62" s="14">
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
         <v>182</v>
       </c>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c t="s" r="G62" s="15">
+      <c t="s" r="Q61" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
         <v>183</v>
       </c>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="16"/>
-      <c t="s" r="K62" s="17">
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>26</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>113</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>172</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
         <v>184</v>
       </c>
-      <c r="L62" s="17"/>
-      <c r="M62" s="17"/>
-      <c r="N62" s="17"/>
-      <c r="O62" s="17"/>
-      <c r="P62" s="17"/>
-      <c r="Q62" s="17"/>
+      <c t="s" r="Q62" s="12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
+        <v>185</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>26</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>113</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>186</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
+        <v>187</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
+        <v>189</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>190</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>113</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>191</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>192</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
+        <v>193</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>35</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>113</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>191</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
+        <v>192</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="P66" s="13">
+        <v>4005.0749999999998</v>
+      </c>
+      <c r="Q66" s="13"/>
+    </row>
+    <row r="67" ht="16.5" customHeight="1">
+      <c t="s" r="A67" s="14">
+        <v>194</v>
+      </c>
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c t="s" r="G67" s="15">
+        <v>195</v>
+      </c>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="16"/>
+      <c t="s" r="K67" s="17">
+        <v>196</v>
+      </c>
+      <c r="L67" s="17"/>
+      <c r="M67" s="17"/>
+      <c r="N67" s="17"/>
+      <c r="O67" s="17"/>
+      <c r="P67" s="17"/>
+      <c r="Q67" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="282">
+  <mergeCells count="307">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3278,10 +3479,35 @@
     <mergeCell ref="H60:K60"/>
     <mergeCell ref="L60:M60"/>
     <mergeCell ref="N60:O60"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="K62:Q62"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="K67:Q67"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-03_00-00.xlsx
+++ b/DaySale_2025-09-03_00-00.xlsx
@@ -266,10 +266,22 @@
     <t>FUSI 2% CREAM 15 GM</t>
   </si>
   <si>
+    <t>3:0</t>
+  </si>
+  <si>
     <t>44.00</t>
   </si>
   <si>
-    <t>44.0000</t>
+    <t>88.0000</t>
+  </si>
+  <si>
+    <t>FUSI 2% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
   </si>
   <si>
     <t>GARAMYCIN 0.1% CREAM 15 GM</t>
@@ -299,12 +311,18 @@
     <t>34.0000</t>
   </si>
   <si>
+    <t>KENACOMB TOPICAL CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
     <t>KETOLAC 10MG 20 TAB</t>
   </si>
   <si>
-    <t>38.00</t>
-  </si>
-  <si>
     <t>LACRITEARS EYE DROPS 15 ML</t>
   </si>
   <si>
@@ -317,9 +335,6 @@
     <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>39.00</t>
   </si>
   <si>
@@ -360,12 +375,6 @@
   </si>
   <si>
     <t>MOBITIL 15MG 10 TAB.</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>36.0000</t>
   </si>
   <si>
     <t>NEUROVIT 6 I.M. AMPS</t>
@@ -1894,7 +1903,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1904,14 +1913,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1920,14 +1929,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1937,11 +1946,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -1953,14 +1962,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1970,11 +1979,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -1986,7 +1995,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2003,11 +2012,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -2019,14 +2028,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2036,14 +2045,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2052,14 +2061,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2069,11 +2078,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -2085,14 +2094,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2102,14 +2111,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2118,14 +2127,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2135,11 +2144,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -2151,14 +2160,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2168,11 +2177,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>31</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -2184,14 +2193,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2201,11 +2210,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2217,28 +2226,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>31</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2250,14 +2259,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2267,11 +2276,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2283,31 +2292,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>123</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2316,14 +2325,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>125</v>
+        <v>26</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2333,11 +2342,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2349,14 +2358,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2366,14 +2375,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2382,14 +2391,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2399,14 +2408,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2415,14 +2424,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2432,11 +2441,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2448,31 +2457,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2481,28 +2490,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>59</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2514,28 +2523,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>34</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2547,7 +2556,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2560,15 +2569,15 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>59</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>83</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2580,7 +2589,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2593,15 +2602,15 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>34</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2613,31 +2622,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2646,7 +2655,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2663,11 +2672,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>83</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -2679,31 +2688,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2712,14 +2721,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2729,14 +2738,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>44</v>
+        <v>148</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2745,14 +2754,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2762,11 +2771,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -2778,28 +2787,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>147</v>
+        <v>44</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2811,14 +2820,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2828,11 +2837,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>21</v>
@@ -2844,7 +2853,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2857,18 +2866,18 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>59</v>
+        <v>150</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>141</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2877,14 +2886,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>168</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2894,14 +2903,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>71</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2910,14 +2919,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>171</v>
+        <v>26</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2927,14 +2936,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>59</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2943,14 +2952,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>26</v>
+        <v>171</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2960,14 +2969,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>71</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2976,31 +2985,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>58</v>
+        <v>174</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3009,28 +3018,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>21</v>
@@ -3042,31 +3051,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3075,31 +3084,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>188</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3108,31 +3117,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>190</v>
+        <v>26</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>47</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3141,66 +3150,132 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
+        <v>190</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
         <v>192</v>
       </c>
-      <c t="s" r="Q65" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="66" ht="25.5" customHeight="1">
-      <c r="P66" s="13">
-        <v>4005.0749999999998</v>
-      </c>
-      <c r="Q66" s="13"/>
-    </row>
-    <row r="67" ht="16.5" customHeight="1">
-      <c t="s" r="A67" s="14">
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>193</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>118</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
         <v>194</v>
       </c>
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c t="s" r="G67" s="15">
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
         <v>195</v>
       </c>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
-      <c r="J67" s="16"/>
-      <c t="s" r="K67" s="17">
+      <c t="s" r="Q66" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
         <v>196</v>
       </c>
-      <c r="L67" s="17"/>
-      <c r="M67" s="17"/>
-      <c r="N67" s="17"/>
-      <c r="O67" s="17"/>
-      <c r="P67" s="17"/>
-      <c r="Q67" s="17"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>35</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>118</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>194</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
+        <v>195</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="P68" s="13">
+        <v>4123.0749999999998</v>
+      </c>
+      <c r="Q68" s="13"/>
+    </row>
+    <row r="69" ht="16.5" customHeight="1">
+      <c t="s" r="A69" s="14">
+        <v>197</v>
+      </c>
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c t="s" r="G69" s="15">
+        <v>198</v>
+      </c>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="16"/>
+      <c t="s" r="K69" s="17">
+        <v>199</v>
+      </c>
+      <c r="L69" s="17"/>
+      <c r="M69" s="17"/>
+      <c r="N69" s="17"/>
+      <c r="O69" s="17"/>
+      <c r="P69" s="17"/>
+      <c r="Q69" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="307">
+  <mergeCells count="317">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3504,10 +3579,20 @@
     <mergeCell ref="H65:K65"/>
     <mergeCell ref="L65:M65"/>
     <mergeCell ref="N65:O65"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="A67:F67"/>
-    <mergeCell ref="G67:I67"/>
-    <mergeCell ref="K67:Q67"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="G69:I69"/>
+    <mergeCell ref="K69:Q69"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-03_00-00.xlsx
+++ b/DaySale_2025-09-03_00-00.xlsx
@@ -602,7 +602,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Wednesday, 3 September, 2025 7:20 PM</t>
+    <t>Wednesday, 3 September, 2025 7:34 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-03_00-00.xlsx
+++ b/DaySale_2025-09-03_00-00.xlsx
@@ -290,7 +290,7 @@
     <t>22.00</t>
   </si>
   <si>
-    <t>22.0000</t>
+    <t>44.0000</t>
   </si>
   <si>
     <t>GINKGO BILOBA 30 CAPS.</t>
@@ -602,7 +602,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Wednesday, 3 September, 2025 7:34 PM</t>
+    <t>Wednesday, 3 September, 2025 7:54 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1969,7 +1969,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1986,7 +1986,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -3245,7 +3245,7 @@
     </row>
     <row r="68" ht="24.75" customHeight="1">
       <c r="P68" s="13">
-        <v>4123.0749999999998</v>
+        <v>4145.0749999999998</v>
       </c>
       <c r="Q68" s="13"/>
     </row>

--- a/DaySale_2025-09-03_00-00.xlsx
+++ b/DaySale_2025-09-03_00-00.xlsx
@@ -86,6 +86,18 @@
     <t>73.2600</t>
   </si>
   <si>
+    <t>ASMAKAST 10 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
     <t>ATOMORELAX 20MG/5ML SYRUP 100 ML</t>
   </si>
   <si>
@@ -203,18 +215,12 @@
     <t>65.00</t>
   </si>
   <si>
-    <t>78.0000</t>
-  </si>
-  <si>
     <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
   </si>
   <si>
     <t>2:2</t>
   </si>
   <si>
-    <t>156.00</t>
-  </si>
-  <si>
     <t>156.0000</t>
   </si>
   <si>
@@ -266,9 +272,6 @@
     <t>FUSI 2% CREAM 15 GM</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>44.00</t>
   </si>
   <si>
@@ -293,6 +296,18 @@
     <t>44.0000</t>
   </si>
   <si>
+    <t>GAST-REG 200 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>27.7200</t>
+  </si>
+  <si>
     <t>GINKGO BILOBA 30 CAPS.</t>
   </si>
   <si>
@@ -446,6 +461,15 @@
     <t>85.0000</t>
   </si>
   <si>
+    <t>SALMETOCORT 250/50MCG 60 PD. INH. CAPS.+ INH. DEVICE</t>
+  </si>
+  <si>
+    <t>237.00</t>
+  </si>
+  <si>
+    <t>37.9200</t>
+  </si>
+  <si>
     <t>SENSODERM SOAP تي اس</t>
   </si>
   <si>
@@ -551,6 +575,15 @@
     <t>62.0000</t>
   </si>
   <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
     <t>برمنجنات بوتاسيوم</t>
   </si>
   <si>
@@ -602,7 +635,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Wednesday, 3 September, 2025 7:54 PM</t>
+    <t>Wednesday, 3 September, 2025 7:58 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1359,7 +1392,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1408,7 +1441,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1418,14 +1451,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1434,14 +1467,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1451,14 +1484,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1467,14 +1500,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1484,14 +1517,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1500,14 +1533,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1524,7 +1557,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1590,7 +1623,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1606,7 +1639,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1616,14 +1649,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1632,14 +1665,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1656,7 +1689,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1689,7 +1722,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1719,10 +1752,10 @@
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1731,14 +1764,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1748,11 +1781,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -1764,14 +1797,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1781,11 +1814,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
@@ -1797,14 +1830,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1814,14 +1847,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1830,14 +1863,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1847,14 +1880,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1863,14 +1896,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1880,11 +1913,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1896,14 +1929,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1913,14 +1946,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1929,14 +1962,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1946,14 +1979,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1962,7 +1995,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1979,14 +2012,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1995,14 +2028,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2012,14 +2045,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2028,14 +2061,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2045,14 +2078,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2061,14 +2094,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2078,11 +2111,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -2094,14 +2127,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2111,14 +2144,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2127,14 +2160,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2144,11 +2177,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -2160,14 +2193,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2177,14 +2210,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2193,14 +2226,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2210,11 +2243,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2226,14 +2259,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2243,11 +2276,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>31</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>32</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2259,14 +2292,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2276,11 +2309,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2292,28 +2325,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>35</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2325,14 +2358,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2342,11 +2375,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2365,13 +2398,13 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2382,7 +2415,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>126</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2391,14 +2424,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>128</v>
+        <v>30</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2408,11 +2441,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2424,14 +2457,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2441,14 +2474,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>131</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2457,14 +2490,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>133</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2474,14 +2507,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2490,14 +2523,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2507,11 +2540,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2523,31 +2556,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2556,24 +2589,24 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>59</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
@@ -2596,21 +2629,21 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>34</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2622,28 +2655,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>63</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>83</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2655,14 +2688,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2672,14 +2705,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2688,31 +2721,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>38</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2728,7 +2761,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2738,11 +2771,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -2754,14 +2787,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2771,11 +2804,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -2787,28 +2820,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>44</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2820,14 +2853,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2837,11 +2870,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>21</v>
@@ -2860,24 +2893,24 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2886,14 +2919,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2903,14 +2936,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>167</v>
+        <v>48</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2926,7 +2959,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2936,11 +2969,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>59</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
@@ -2952,31 +2985,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>171</v>
+        <v>30</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>71</v>
+        <v>158</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2985,14 +3018,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>174</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3009,7 +3042,7 @@
         <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3025,7 +3058,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3035,11 +3068,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>178</v>
+        <v>63</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>179</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>21</v>
@@ -3051,31 +3084,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>58</v>
+        <v>179</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>181</v>
+        <v>73</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3084,31 +3117,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>35</v>
+        <v>182</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3117,31 +3150,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3157,13 +3190,13 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
@@ -3174,7 +3207,7 @@
         <v>190</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>191</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3183,28 +3216,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>193</v>
+        <v>62</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>21</v>
@@ -3216,66 +3249,198 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
-      <c r="P68" s="13">
-        <v>4145.0749999999998</v>
-      </c>
-      <c r="Q68" s="13"/>
-    </row>
-    <row r="69" ht="16.5" customHeight="1">
-      <c t="s" r="A69" s="14">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
         <v>197</v>
       </c>
-      <c r="B69" s="14"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c t="s" r="G69" s="15">
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>30</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>123</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>183</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
         <v>198</v>
       </c>
-      <c r="H69" s="15"/>
-      <c r="I69" s="15"/>
-      <c r="J69" s="16"/>
-      <c t="s" r="K69" s="17">
+      <c t="s" r="Q68" s="12">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
         <v>199</v>
       </c>
-      <c r="L69" s="17"/>
-      <c r="M69" s="17"/>
-      <c r="N69" s="17"/>
-      <c r="O69" s="17"/>
-      <c r="P69" s="17"/>
-      <c r="Q69" s="17"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>30</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>123</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>200</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>201</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
+        <v>203</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>204</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>123</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>205</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
+        <v>206</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
+        <v>207</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>39</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>123</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>205</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>206</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="P72" s="13">
+        <v>4384.7150000000001</v>
+      </c>
+      <c r="Q72" s="13"/>
+    </row>
+    <row r="73" ht="16.5" customHeight="1">
+      <c t="s" r="A73" s="14">
+        <v>208</v>
+      </c>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c t="s" r="G73" s="15">
+        <v>209</v>
+      </c>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="16"/>
+      <c t="s" r="K73" s="17">
+        <v>210</v>
+      </c>
+      <c r="L73" s="17"/>
+      <c r="M73" s="17"/>
+      <c r="N73" s="17"/>
+      <c r="O73" s="17"/>
+      <c r="P73" s="17"/>
+      <c r="Q73" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="317">
+  <mergeCells count="337">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3589,10 +3754,30 @@
     <mergeCell ref="H67:K67"/>
     <mergeCell ref="L67:M67"/>
     <mergeCell ref="N67:O67"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="G69:I69"/>
-    <mergeCell ref="K69:Q69"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="K73:Q73"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-03_00-00.xlsx
+++ b/DaySale_2025-09-03_00-00.xlsx
@@ -635,7 +635,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Wednesday, 3 September, 2025 7:58 PM</t>
+    <t>Wednesday, 3 September, 2025 8:34 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-03_00-00.xlsx
+++ b/DaySale_2025-09-03_00-00.xlsx
@@ -584,6 +584,18 @@
     <t>96.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">برفان القصاص </t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>برمنجنات بوتاسيوم</t>
   </si>
   <si>
@@ -626,16 +638,10 @@
     <t>31:0</t>
   </si>
   <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Wednesday, 3 September, 2025 8:34 PM</t>
+    <t>Wednesday, 3 September, 2025 8:42 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3223,7 +3229,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>62</v>
+        <v>192</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3233,11 +3239,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>21</v>
@@ -3249,14 +3255,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3266,11 +3272,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>21</v>
@@ -3282,14 +3288,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3299,14 +3305,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3315,7 +3321,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3332,14 +3338,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>202</v>
+        <v>51</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3355,7 +3361,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>204</v>
+        <v>30</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3365,14 +3371,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
+        <v>205</v>
+      </c>
+      <c t="s" r="Q70" s="12">
         <v>206</v>
-      </c>
-      <c t="s" r="Q70" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3388,7 +3394,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>39</v>
+        <v>208</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3398,49 +3404,82 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
-      <c r="P72" s="13">
-        <v>4384.7150000000001</v>
-      </c>
-      <c r="Q72" s="13"/>
-    </row>
-    <row r="73" ht="16.5" customHeight="1">
-      <c t="s" r="A73" s="14">
-        <v>208</v>
-      </c>
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c t="s" r="G73" s="15">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
         <v>209</v>
       </c>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
-      <c r="J73" s="16"/>
-      <c t="s" r="K73" s="17">
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>39</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>123</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>193</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>194</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="P73" s="13">
+        <v>4414.7150000000001</v>
+      </c>
+      <c r="Q73" s="13"/>
+    </row>
+    <row r="74" ht="16.5" customHeight="1">
+      <c t="s" r="A74" s="14">
         <v>210</v>
       </c>
-      <c r="L73" s="17"/>
-      <c r="M73" s="17"/>
-      <c r="N73" s="17"/>
-      <c r="O73" s="17"/>
-      <c r="P73" s="17"/>
-      <c r="Q73" s="17"/>
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c t="s" r="G74" s="15">
+        <v>211</v>
+      </c>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="16"/>
+      <c t="s" r="K74" s="17">
+        <v>212</v>
+      </c>
+      <c r="L74" s="17"/>
+      <c r="M74" s="17"/>
+      <c r="N74" s="17"/>
+      <c r="O74" s="17"/>
+      <c r="P74" s="17"/>
+      <c r="Q74" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="337">
+  <mergeCells count="342">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3774,10 +3813,15 @@
     <mergeCell ref="H71:K71"/>
     <mergeCell ref="L71:M71"/>
     <mergeCell ref="N71:O71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="K73:Q73"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="G74:I74"/>
+    <mergeCell ref="K74:Q74"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-03_00-00.xlsx
+++ b/DaySale_2025-09-03_00-00.xlsx
@@ -641,7 +641,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Wednesday, 3 September, 2025 8:42 PM</t>
+    <t>Wednesday, 3 September, 2025 8:57 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-03_00-00.xlsx
+++ b/DaySale_2025-09-03_00-00.xlsx
@@ -338,6 +338,18 @@
     <t>KETOLAC 10MG 20 TAB</t>
   </si>
   <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>3:3</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
     <t>LACRITEARS EYE DROPS 15 ML</t>
   </si>
   <si>
@@ -617,7 +629,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>14.0000</t>
+    <t>16.0000</t>
+  </si>
+  <si>
+    <t>8:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -641,7 +656,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Wednesday, 3 September, 2025 8:57 PM</t>
+    <t>Wednesday, 3 September, 2025 9:03 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2239,7 +2254,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2249,14 +2264,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2265,14 +2280,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2282,11 +2297,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2298,14 +2313,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2315,11 +2330,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2331,14 +2346,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2348,11 +2363,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>36</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2364,14 +2379,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2381,11 +2396,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>35</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2397,20 +2412,20 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2437,21 +2452,21 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2463,14 +2478,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>128</v>
+        <v>30</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2480,14 +2495,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>131</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2496,14 +2511,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2513,14 +2528,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
+        <v>134</v>
+      </c>
+      <c t="s" r="Q44" s="12">
         <v>135</v>
-      </c>
-      <c t="s" r="Q44" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2536,7 +2551,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>26</v>
+        <v>137</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2546,11 +2561,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2562,14 +2577,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2579,14 +2594,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2595,14 +2610,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2612,14 +2627,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2628,7 +2643,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2641,15 +2656,15 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2661,28 +2676,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>63</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2694,31 +2709,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>63</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2727,31 +2742,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>38</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2760,7 +2775,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2773,15 +2788,15 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>38</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>85</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -2793,7 +2808,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2810,11 +2825,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -2826,31 +2841,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2859,31 +2874,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>85</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2892,7 +2907,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2909,11 +2924,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -2925,14 +2940,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2942,14 +2957,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>48</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2958,7 +2973,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -2975,14 +2990,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>48</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2991,31 +3006,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3024,31 +3039,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3057,14 +3072,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3074,11 +3089,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>63</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>149</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>21</v>
@@ -3090,14 +3105,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>179</v>
+        <v>30</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3107,14 +3122,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3123,14 +3138,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3140,14 +3155,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>183</v>
+        <v>73</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
         <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>39</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3163,7 +3178,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>30</v>
+        <v>186</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3173,14 +3188,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3189,14 +3204,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3206,11 +3221,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>21</v>
@@ -3222,20 +3237,20 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>192</v>
+        <v>62</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
@@ -3262,21 +3277,21 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>62</v>
+        <v>196</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>21</v>
@@ -3288,28 +3303,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>21</v>
@@ -3321,31 +3336,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3354,7 +3369,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3367,18 +3382,18 @@
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3387,31 +3402,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>208</v>
+        <v>30</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>211</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3420,66 +3435,99 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>39</v>
+        <v>213</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
-      <c r="P73" s="13">
-        <v>4414.7150000000001</v>
-      </c>
-      <c r="Q73" s="13"/>
-    </row>
-    <row r="74" ht="16.5" customHeight="1">
-      <c t="s" r="A74" s="14">
-        <v>210</v>
-      </c>
-      <c r="B74" s="14"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-      <c t="s" r="G74" s="15">
-        <v>211</v>
-      </c>
-      <c r="H74" s="15"/>
-      <c r="I74" s="15"/>
-      <c r="J74" s="16"/>
-      <c t="s" r="K74" s="17">
-        <v>212</v>
-      </c>
-      <c r="L74" s="17"/>
-      <c r="M74" s="17"/>
-      <c r="N74" s="17"/>
-      <c r="O74" s="17"/>
-      <c r="P74" s="17"/>
-      <c r="Q74" s="17"/>
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
+        <v>214</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>39</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>127</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>197</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>198</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="P74" s="13">
+        <v>4428.7150000000001</v>
+      </c>
+      <c r="Q74" s="13"/>
+    </row>
+    <row r="75" ht="16.5" customHeight="1">
+      <c t="s" r="A75" s="14">
+        <v>215</v>
+      </c>
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c t="s" r="G75" s="15">
+        <v>216</v>
+      </c>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="16"/>
+      <c t="s" r="K75" s="17">
+        <v>217</v>
+      </c>
+      <c r="L75" s="17"/>
+      <c r="M75" s="17"/>
+      <c r="N75" s="17"/>
+      <c r="O75" s="17"/>
+      <c r="P75" s="17"/>
+      <c r="Q75" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="342">
+  <mergeCells count="347">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3818,10 +3866,15 @@
     <mergeCell ref="H72:K72"/>
     <mergeCell ref="L72:M72"/>
     <mergeCell ref="N72:O72"/>
-    <mergeCell ref="P73:Q73"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="G74:I74"/>
-    <mergeCell ref="K74:Q74"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="K75:Q75"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-03_00-00.xlsx
+++ b/DaySale_2025-09-03_00-00.xlsx
@@ -599,64 +599,76 @@
     <t xml:space="preserve">برفان القصاص </t>
   </si>
   <si>
-    <t>6:0</t>
-  </si>
-  <si>
     <t>30.00</t>
   </si>
   <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>برمنجنات بوتاسيوم</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>جل صبار برطمان</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>رول اون ريكسونا25</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>16.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>كريم فيبكس الازرق</t>
+  </si>
+  <si>
+    <t>مناديل FINE</t>
+  </si>
+  <si>
+    <t>31:0</t>
+  </si>
+  <si>
     <t>30.0000</t>
   </si>
   <si>
-    <t>برمنجنات بوتاسيوم</t>
-  </si>
-  <si>
-    <t>10.00</t>
-  </si>
-  <si>
-    <t>10.0000</t>
-  </si>
-  <si>
-    <t>جل صبار برطمان</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>16.0000</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>مناديل FINE</t>
-  </si>
-  <si>
-    <t>31:0</t>
-  </si>
-  <si>
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Wednesday, 3 September, 2025 9:03 PM</t>
+    <t>Wednesday, 3 September, 2025 9:06 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3277,7 +3289,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>196</v>
+        <v>137</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3287,14 +3299,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3303,7 +3315,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3320,11 +3332,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>21</v>
@@ -3336,7 +3348,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3353,11 +3365,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>21</v>
@@ -3369,14 +3381,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>30</v>
+        <v>205</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3386,14 +3398,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>207</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3419,14 +3431,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3435,14 +3447,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>213</v>
+        <v>30</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3452,14 +3464,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>213</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3475,7 +3487,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3485,49 +3497,115 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
-      <c r="P74" s="13">
-        <v>4428.7150000000001</v>
-      </c>
-      <c r="Q74" s="13"/>
-    </row>
-    <row r="75" ht="16.5" customHeight="1">
-      <c t="s" r="A75" s="14">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
         <v>215</v>
       </c>
-      <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-      <c t="s" r="G75" s="15">
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
         <v>216</v>
       </c>
-      <c r="H75" s="15"/>
-      <c r="I75" s="15"/>
-      <c r="J75" s="16"/>
-      <c t="s" r="K75" s="17">
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>127</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>196</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
         <v>217</v>
       </c>
-      <c r="L75" s="17"/>
-      <c r="M75" s="17"/>
-      <c r="N75" s="17"/>
-      <c r="O75" s="17"/>
-      <c r="P75" s="17"/>
-      <c r="Q75" s="17"/>
+      <c t="s" r="Q74" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
+        <v>218</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>39</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>127</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>196</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>217</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="P76" s="13">
+        <v>4528.7150000000001</v>
+      </c>
+      <c r="Q76" s="13"/>
+    </row>
+    <row r="77" ht="16.5" customHeight="1">
+      <c t="s" r="A77" s="14">
+        <v>219</v>
+      </c>
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c t="s" r="G77" s="15">
+        <v>220</v>
+      </c>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="16"/>
+      <c t="s" r="K77" s="17">
+        <v>221</v>
+      </c>
+      <c r="L77" s="17"/>
+      <c r="M77" s="17"/>
+      <c r="N77" s="17"/>
+      <c r="O77" s="17"/>
+      <c r="P77" s="17"/>
+      <c r="Q77" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="347">
+  <mergeCells count="357">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3871,10 +3949,20 @@
     <mergeCell ref="H73:K73"/>
     <mergeCell ref="L73:M73"/>
     <mergeCell ref="N73:O73"/>
-    <mergeCell ref="P74:Q74"/>
-    <mergeCell ref="A75:F75"/>
-    <mergeCell ref="G75:I75"/>
-    <mergeCell ref="K75:Q75"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="G77:I77"/>
+    <mergeCell ref="K77:Q77"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-03_00-00.xlsx
+++ b/DaySale_2025-09-03_00-00.xlsx
@@ -128,105 +128,108 @@
     <t>64.00</t>
   </si>
   <si>
+    <t>192.0000</t>
+  </si>
+  <si>
+    <t>BLOKATENS 10/160MG 28 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>160.0000</t>
+  </si>
+  <si>
+    <t>BRUFEN 200MG 30 TAB</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
+    <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>COLCHICINE 500MCG 100 TAB</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
+    <t>COMFORT GEL 50 GM</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>156.0000</t>
+  </si>
+  <si>
+    <t>DURICEF 500MG/5ML SUSP. 60ML</t>
+  </si>
+  <si>
     <t>2:0</t>
   </si>
   <si>
-    <t>BLOKATENS 10/160MG 28 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>160.00</t>
-  </si>
-  <si>
-    <t>160.0000</t>
-  </si>
-  <si>
-    <t>BRUFEN 200MG 30 TAB</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
-  </si>
-  <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>43.00</t>
-  </si>
-  <si>
-    <t>43.0000</t>
-  </si>
-  <si>
-    <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>COLCHICINE 500MCG 100 TAB</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>190.00</t>
-  </si>
-  <si>
-    <t>19.0000</t>
-  </si>
-  <si>
-    <t>COMFORT GEL 50 GM</t>
-  </si>
-  <si>
-    <t>80.00</t>
-  </si>
-  <si>
-    <t>80.0000</t>
-  </si>
-  <si>
-    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>68.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>156.0000</t>
-  </si>
-  <si>
-    <t>DURICEF 500MG/5ML SUSP. 60ML</t>
-  </si>
-  <si>
     <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
   </si>
   <si>
@@ -440,6 +443,15 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>OTRIVIN BABY SALINE NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>PANTAZOL 40MG 14 ENTERIC COATED TAB.</t>
   </si>
   <si>
@@ -668,7 +680,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Wednesday, 3 September, 2025 9:06 PM</t>
+    <t>Wednesday, 3 September, 2025 9:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1507,7 +1519,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1521,10 +1533,10 @@
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1837,7 +1849,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1863,7 +1875,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1880,11 +1892,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -1896,14 +1908,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1913,11 +1925,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>34</v>
@@ -1929,14 +1941,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1946,11 +1958,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1962,7 +1974,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1979,11 +1991,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1995,7 +2007,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -2012,14 +2024,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>39</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2028,7 +2040,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2045,11 +2057,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -2061,7 +2073,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2078,14 +2090,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>39</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2094,14 +2106,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2111,11 +2123,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2127,7 +2139,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2144,11 +2156,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -2160,7 +2172,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2177,11 +2189,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -2193,7 +2205,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2210,11 +2222,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -2226,7 +2238,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2243,7 +2255,7 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
@@ -2259,14 +2271,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2276,11 +2288,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2292,7 +2304,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2309,11 +2321,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2325,7 +2337,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2342,11 +2354,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2358,7 +2370,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2375,11 +2387,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2391,7 +2403,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2424,7 +2436,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2441,11 +2453,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2457,7 +2469,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2470,15 +2482,15 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2490,7 +2502,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2507,11 +2519,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2523,14 +2535,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2540,14 +2552,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2556,14 +2568,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2573,11 +2585,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2589,7 +2601,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2606,11 +2618,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2622,14 +2634,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2639,14 +2651,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2655,14 +2667,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2672,14 +2684,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2688,7 +2700,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2701,15 +2713,15 @@
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2721,28 +2733,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>63</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -2754,31 +2766,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>128</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>63</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2787,31 +2799,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>38</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2820,7 +2832,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2833,15 +2845,15 @@
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>128</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>38</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>85</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -2853,7 +2865,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2870,11 +2882,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -2886,31 +2898,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2919,31 +2931,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>128</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2952,7 +2964,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -2969,11 +2981,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -2985,14 +2997,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3002,14 +3014,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>48</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3018,7 +3030,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3035,14 +3047,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>48</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3051,31 +3063,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3084,31 +3096,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>128</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3117,14 +3129,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3134,11 +3146,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>63</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>153</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
@@ -3150,14 +3162,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>183</v>
+        <v>30</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3167,14 +3179,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3183,14 +3195,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3200,14 +3212,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>187</v>
+        <v>74</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>39</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3223,7 +3235,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>30</v>
+        <v>190</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3233,14 +3245,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>72</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3249,14 +3261,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3266,11 +3278,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>21</v>
@@ -3282,31 +3294,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>137</v>
+        <v>62</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3315,31 +3327,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>62</v>
+        <v>138</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>72</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3348,28 +3360,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>21</v>
@@ -3381,20 +3393,20 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>205</v>
+        <v>72</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
@@ -3421,24 +3433,24 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>205</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3447,7 +3459,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3460,18 +3472,18 @@
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3487,24 +3499,24 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>217</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3513,28 +3525,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>216</v>
+        <v>62</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>21</v>
@@ -3546,66 +3558,99 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>39</v>
+        <v>220</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
-      <c r="P76" s="13">
-        <v>4528.7150000000001</v>
-      </c>
-      <c r="Q76" s="13"/>
-    </row>
-    <row r="77" ht="16.5" customHeight="1">
-      <c t="s" r="A77" s="14">
-        <v>219</v>
-      </c>
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
-      <c t="s" r="G77" s="15">
-        <v>220</v>
-      </c>
-      <c r="H77" s="15"/>
-      <c r="I77" s="15"/>
-      <c r="J77" s="16"/>
-      <c t="s" r="K77" s="17">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
+        <v>222</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>72</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>128</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>200</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
         <v>221</v>
       </c>
-      <c r="L77" s="17"/>
-      <c r="M77" s="17"/>
-      <c r="N77" s="17"/>
-      <c r="O77" s="17"/>
-      <c r="P77" s="17"/>
-      <c r="Q77" s="17"/>
+      <c t="s" r="Q76" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="P77" s="13">
+        <v>4612.7150000000001</v>
+      </c>
+      <c r="Q77" s="13"/>
+    </row>
+    <row r="78" ht="16.5" customHeight="1">
+      <c t="s" r="A78" s="14">
+        <v>223</v>
+      </c>
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c t="s" r="G78" s="15">
+        <v>224</v>
+      </c>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="16"/>
+      <c t="s" r="K78" s="17">
+        <v>225</v>
+      </c>
+      <c r="L78" s="17"/>
+      <c r="M78" s="17"/>
+      <c r="N78" s="17"/>
+      <c r="O78" s="17"/>
+      <c r="P78" s="17"/>
+      <c r="Q78" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="357">
+  <mergeCells count="362">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3959,10 +4004,15 @@
     <mergeCell ref="H75:K75"/>
     <mergeCell ref="L75:M75"/>
     <mergeCell ref="N75:O75"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="G77:I77"/>
-    <mergeCell ref="K77:Q77"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="G78:I78"/>
+    <mergeCell ref="K78:Q78"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-03_00-00.xlsx
+++ b/DaySale_2025-09-03_00-00.xlsx
@@ -89,132 +89,156 @@
     <t>ASMAKAST 10 MG 30 F.C.TABS.</t>
   </si>
   <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
+    <t>234.0000</t>
+  </si>
+  <si>
+    <t>ATOMORELAX 20MG/5ML SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>128.00</t>
+  </si>
+  <si>
+    <t>128.0000</t>
+  </si>
+  <si>
+    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
+    <t>BETOLVEX 1MG/ML 2 AMP</t>
+  </si>
+  <si>
+    <t>64.00</t>
+  </si>
+  <si>
+    <t>192.0000</t>
+  </si>
+  <si>
     <t>3:0</t>
   </si>
   <si>
-    <t>156.00</t>
+    <t>BLOKATENS 10/160MG 28 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>160.0000</t>
+  </si>
+  <si>
+    <t>BRUFEN 200MG 30 TAB</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
+    <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>COLCHICINE 500MCG 100 TAB</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
+    <t>COMFORT GEL 50 GM</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
+    <t>COVERSYL 5MG 15 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>79.00</t>
+  </si>
+  <si>
+    <t>79.0000</t>
+  </si>
+  <si>
+    <t>CRESTOLIP 20 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>141.0000</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>65.00</t>
   </si>
   <si>
     <t>78.0000</t>
   </si>
   <si>
-    <t>ATOMORELAX 20MG/5ML SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>128.00</t>
-  </si>
-  <si>
-    <t>128.0000</t>
-  </si>
-  <si>
-    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>57.00</t>
-  </si>
-  <si>
-    <t>57.0000</t>
-  </si>
-  <si>
-    <t>BETOLVEX 1MG/ML 2 AMP</t>
-  </si>
-  <si>
-    <t>64.00</t>
-  </si>
-  <si>
-    <t>192.0000</t>
-  </si>
-  <si>
-    <t>BLOKATENS 10/160MG 28 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>160.00</t>
-  </si>
-  <si>
-    <t>160.0000</t>
-  </si>
-  <si>
-    <t>BRUFEN 200MG 30 TAB</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
-  </si>
-  <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>43.00</t>
-  </si>
-  <si>
-    <t>43.0000</t>
-  </si>
-  <si>
-    <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>COLCHICINE 500MCG 100 TAB</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>190.00</t>
-  </si>
-  <si>
-    <t>19.0000</t>
-  </si>
-  <si>
-    <t>COMFORT GEL 50 GM</t>
-  </si>
-  <si>
-    <t>80.00</t>
-  </si>
-  <si>
-    <t>80.0000</t>
-  </si>
-  <si>
-    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>68.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
     <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
   </si>
   <si>
@@ -227,9 +251,6 @@
     <t>DURICEF 500MG/5ML SUSP. 60ML</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
   </si>
   <si>
@@ -329,6 +350,15 @@
     <t>34.0000</t>
   </si>
   <si>
+    <t>IVABRAGIN 5MG 30TAB</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>234.00</t>
+  </si>
+  <si>
     <t>KENACOMB TOPICAL CREAM 15 GM</t>
   </si>
   <si>
@@ -383,6 +413,15 @@
     <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
   </si>
   <si>
+    <t>MAXOPHAGE XR 1000MG 30 EXT. REL. TABS.</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
     <t>MILGA ADVANCE 30 F.C. TABS</t>
   </si>
   <si>
@@ -395,9 +434,6 @@
     <t xml:space="preserve">MIRFENACIN MR5/25  TAB</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>339.00</t>
   </si>
   <si>
@@ -422,6 +458,15 @@
     <t>0:-3</t>
   </si>
   <si>
+    <t>NEVILOB 5 MG 21 TAB</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>99.0000</t>
+  </si>
+  <si>
     <t>OLOHISTINE 1MG/ML OPHTHALMIC SOL. 5 ML</t>
   </si>
   <si>
@@ -452,6 +497,15 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>PANTAZOL 40MG 14 ENTERIC COATED TAB.</t>
   </si>
   <si>
@@ -524,18 +578,21 @@
     <t>17.0950</t>
   </si>
   <si>
+    <t>TRESIBA 100 I.U./ML FLEXTOUCH PRE-FILLED PEN</t>
+  </si>
+  <si>
+    <t>550.00</t>
+  </si>
+  <si>
+    <t>550.0000</t>
+  </si>
+  <si>
     <t>TRIBATENS 20/5/12.5MG 30 F.C. TABS.</t>
   </si>
   <si>
     <t>TRIPLIXAM 10/2.5/10MG 15 F.C. TABS.</t>
   </si>
   <si>
-    <t>234.00</t>
-  </si>
-  <si>
-    <t>234.0000</t>
-  </si>
-  <si>
     <t>TRITTICO 100MG 20 TAB.</t>
   </si>
   <si>
@@ -560,10 +617,13 @@
     <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
   </si>
   <si>
+    <t>0:-1</t>
+  </si>
+  <si>
     <t>175.00</t>
   </si>
   <si>
-    <t>175.0000</t>
+    <t>290.5000</t>
   </si>
   <si>
     <t>VENTAMOR BLACK CHARCOAL SOAP 100 GM</t>
@@ -659,9 +719,6 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>27.0000</t>
-  </si>
-  <si>
     <t>9:0</t>
   </si>
   <si>
@@ -680,7 +737,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Wednesday, 3 September, 2025 9:18 PM</t>
+    <t>Wednesday, 3 September, 2025 9:23 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1437,7 +1494,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1536,7 +1593,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1545,7 +1602,7 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1562,11 +1619,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>21</v>
@@ -1578,7 +1635,7 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1595,11 +1652,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1611,14 +1668,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1628,11 +1685,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>21</v>
@@ -1644,14 +1701,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1661,11 +1718,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>21</v>
@@ -1677,14 +1734,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1694,11 +1751,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1710,7 +1767,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1727,11 +1784,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
@@ -1743,14 +1800,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1767,7 +1824,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1783,7 +1840,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1793,14 +1850,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1826,14 +1883,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1842,14 +1899,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1859,14 +1916,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1875,14 +1932,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1892,11 +1949,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -1908,14 +1965,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1925,14 +1982,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1948,7 +2005,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1958,14 +2015,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1974,14 +2031,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1998,7 +2055,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2014,7 +2071,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2024,14 +2081,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2040,14 +2097,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2057,14 +2114,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2073,14 +2130,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2090,14 +2147,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>72</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2106,14 +2163,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2130,7 +2187,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2146,7 +2203,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2163,7 +2220,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2179,7 +2236,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2189,14 +2246,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2205,14 +2262,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2222,11 +2279,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -2238,14 +2295,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2255,14 +2312,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2271,31 +2328,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2304,14 +2361,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2321,11 +2378,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2337,14 +2394,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2354,14 +2411,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2377,7 +2434,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>51</v>
+        <v>121</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2387,14 +2444,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2403,14 +2460,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2420,11 +2477,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>36</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2436,14 +2493,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2453,11 +2510,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2469,28 +2526,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>128</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2502,14 +2559,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2519,11 +2576,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>107</v>
+        <v>35</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>108</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2535,14 +2592,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>133</v>
+        <v>21</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2552,14 +2609,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>136</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2575,7 +2632,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>138</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2585,11 +2642,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2601,28 +2658,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2634,14 +2691,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2651,11 +2708,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2667,14 +2724,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>145</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2684,14 +2741,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>148</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2700,14 +2757,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2717,11 +2774,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2733,20 +2790,20 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>153</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>128</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2773,21 +2830,21 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>128</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>63</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -2799,14 +2856,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2816,14 +2873,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2832,31 +2889,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>30</v>
+        <v>163</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2865,14 +2922,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2882,14 +2939,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>86</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2898,14 +2955,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2915,11 +2972,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>21</v>
@@ -2931,31 +2988,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2964,7 +3021,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -2977,15 +3034,15 @@
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>164</v>
+        <v>70</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>86</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -2997,14 +3054,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3014,14 +3071,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3030,31 +3087,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3063,14 +3120,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3080,11 +3137,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>21</v>
@@ -3096,7 +3153,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3109,18 +3166,18 @@
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>128</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3129,31 +3186,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3162,7 +3219,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3179,11 +3236,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>63</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>157</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>21</v>
@@ -3195,14 +3252,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>187</v>
+        <v>30</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3212,14 +3269,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>74</v>
+        <v>182</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3228,14 +3285,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>190</v>
+        <v>30</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3245,14 +3302,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>115</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>72</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3261,14 +3318,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3278,14 +3335,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>49</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3301,7 +3358,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3334,24 +3391,24 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>138</v>
+        <v>30</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3360,20 +3417,20 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>62</v>
+        <v>202</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>128</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
@@ -3384,7 +3441,7 @@
         <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>56</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3400,21 +3457,21 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>128</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>70</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>21</v>
@@ -3426,31 +3483,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>128</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>210</v>
+        <v>81</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3459,31 +3516,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>30</v>
+        <v>210</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>128</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>209</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3492,7 +3549,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3505,18 +3562,18 @@
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>128</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>217</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3525,28 +3582,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>128</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>21</v>
@@ -3565,24 +3622,24 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>220</v>
+        <v>153</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3598,59 +3655,290 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
-      <c r="P77" s="13">
-        <v>4612.7150000000001</v>
-      </c>
-      <c r="Q77" s="13"/>
-    </row>
-    <row r="78" ht="16.5" customHeight="1">
-      <c t="s" r="A78" s="14">
-        <v>223</v>
-      </c>
-      <c r="B78" s="14"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
-      <c t="s" r="G78" s="15">
-        <v>224</v>
-      </c>
-      <c r="H78" s="15"/>
-      <c r="I78" s="15"/>
-      <c r="J78" s="16"/>
-      <c t="s" r="K78" s="17">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
         <v>225</v>
       </c>
-      <c r="L78" s="17"/>
-      <c r="M78" s="17"/>
-      <c r="N78" s="17"/>
-      <c r="O78" s="17"/>
-      <c r="P78" s="17"/>
-      <c r="Q78" s="17"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>26</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>114</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>226</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>227</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>228</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>229</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>114</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>230</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>231</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
+        <v>232</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>30</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>114</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>211</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>233</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
+        <v>234</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>30</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>114</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>235</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>164</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
+        <v>237</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>69</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>114</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>230</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
+        <v>231</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
+        <v>238</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>239</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>114</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>220</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
+        <v>240</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
+        <v>241</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>26</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>114</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>220</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
+        <v>240</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="P84" s="13">
+        <v>6086.2150000000001</v>
+      </c>
+      <c r="Q84" s="13"/>
+    </row>
+    <row r="85" ht="16.5" customHeight="1">
+      <c t="s" r="A85" s="14">
+        <v>242</v>
+      </c>
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c t="s" r="G85" s="15">
+        <v>243</v>
+      </c>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="16"/>
+      <c t="s" r="K85" s="17">
+        <v>244</v>
+      </c>
+      <c r="L85" s="17"/>
+      <c r="M85" s="17"/>
+      <c r="N85" s="17"/>
+      <c r="O85" s="17"/>
+      <c r="P85" s="17"/>
+      <c r="Q85" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="362">
+  <mergeCells count="397">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4009,10 +4297,45 @@
     <mergeCell ref="H76:K76"/>
     <mergeCell ref="L76:M76"/>
     <mergeCell ref="N76:O76"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="G78:I78"/>
-    <mergeCell ref="K78:Q78"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="G85:I85"/>
+    <mergeCell ref="K85:Q85"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-03_00-00.xlsx
+++ b/DaySale_2025-09-03_00-00.xlsx
@@ -737,7 +737,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Wednesday, 3 September, 2025 9:23 PM</t>
+    <t>Wednesday, 3 September, 2025 9:24 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-03_00-00.xlsx
+++ b/DaySale_2025-09-03_00-00.xlsx
@@ -341,6 +341,18 @@
     <t>186.0000</t>
   </si>
   <si>
+    <t>HERBANA 30CAPS</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
     <t>HISTAZINE-1 0.1% SYRUP 100ML</t>
   </si>
   <si>
@@ -351,9 +363,6 @@
   </si>
   <si>
     <t>IVABRAGIN 5MG 30TAB</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
   <si>
     <t>234.00</t>
@@ -2302,21 +2311,21 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -2328,7 +2337,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2341,7 +2350,7 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2349,7 +2358,7 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>28</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2361,28 +2370,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2401,7 +2410,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2411,14 +2420,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>58</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2427,14 +2436,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2444,11 +2453,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2460,14 +2469,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>21</v>
+        <v>124</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2484,7 +2493,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2500,7 +2509,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2533,7 +2542,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2566,7 +2575,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2576,11 +2585,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>35</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>36</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2592,14 +2601,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2609,11 +2618,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>35</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2632,7 +2641,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2665,13 +2674,13 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2698,21 +2707,21 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2724,14 +2733,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>145</v>
+        <v>30</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2741,14 +2750,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>148</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2757,14 +2766,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>148</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2774,14 +2783,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
+        <v>150</v>
+      </c>
+      <c t="s" r="Q49" s="12">
         <v>151</v>
-      </c>
-      <c t="s" r="Q49" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2797,7 +2806,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>153</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2807,11 +2816,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -2823,14 +2832,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>40</v>
+        <v>156</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2863,7 +2872,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2896,24 +2905,24 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>163</v>
+        <v>69</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>85</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2929,17 +2938,17 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>166</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>85</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
@@ -2962,7 +2971,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2979,7 +2988,7 @@
         <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3001,7 +3010,7 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -3028,21 +3037,21 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>70</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -3054,31 +3063,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>70</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3094,24 +3103,24 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>38</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3120,7 +3129,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3133,15 +3142,15 @@
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>38</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>93</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>21</v>
@@ -3153,7 +3162,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3170,11 +3179,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>21</v>
@@ -3193,13 +3202,13 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
@@ -3210,7 +3219,7 @@
         <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3226,13 +3235,13 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3243,7 +3252,7 @@
         <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3269,11 +3278,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>93</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>21</v>
@@ -3285,7 +3294,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3302,11 +3311,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>115</v>
+        <v>185</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>21</v>
@@ -3318,14 +3327,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3335,14 +3344,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>49</v>
+        <v>118</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3351,7 +3360,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3368,14 +3377,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>49</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3391,24 +3400,24 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3417,31 +3426,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>202</v>
+        <v>30</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3450,14 +3459,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>30</v>
+        <v>205</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3467,14 +3476,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>70</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>175</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>56</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3483,14 +3492,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>207</v>
+        <v>30</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3500,14 +3509,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3533,14 +3542,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>81</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3549,14 +3558,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>30</v>
+        <v>213</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3573,7 +3582,7 @@
         <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3589,7 +3598,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3622,13 +3631,13 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>153</v>
+        <v>69</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
@@ -3639,7 +3648,7 @@
         <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3655,13 +3664,13 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>69</v>
+        <v>156</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
@@ -3672,7 +3681,7 @@
         <v>224</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3688,13 +3697,13 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
@@ -3721,21 +3730,21 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>229</v>
+        <v>26</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>21</v>
@@ -3747,31 +3756,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>30</v>
+        <v>232</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>229</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3780,7 +3789,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3793,18 +3802,18 @@
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>164</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3820,24 +3829,24 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>231</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>239</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3846,28 +3855,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>239</v>
+        <v>69</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>21</v>
@@ -3886,59 +3895,92 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>26</v>
+        <v>242</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
-      <c r="P84" s="13">
-        <v>6086.2150000000001</v>
-      </c>
-      <c r="Q84" s="13"/>
-    </row>
-    <row r="85" ht="16.5" customHeight="1">
-      <c t="s" r="A85" s="14">
-        <v>242</v>
-      </c>
-      <c r="B85" s="14"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
-      <c t="s" r="G85" s="15">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
+        <v>244</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>26</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>111</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>223</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
         <v>243</v>
       </c>
-      <c r="H85" s="15"/>
-      <c r="I85" s="15"/>
-      <c r="J85" s="16"/>
-      <c t="s" r="K85" s="17">
-        <v>244</v>
-      </c>
-      <c r="L85" s="17"/>
-      <c r="M85" s="17"/>
-      <c r="N85" s="17"/>
-      <c r="O85" s="17"/>
-      <c r="P85" s="17"/>
-      <c r="Q85" s="17"/>
+      <c t="s" r="Q84" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="P85" s="13">
+        <v>6206.2150000000001</v>
+      </c>
+      <c r="Q85" s="13"/>
+    </row>
+    <row r="86" ht="16.5" customHeight="1">
+      <c t="s" r="A86" s="14">
+        <v>245</v>
+      </c>
+      <c r="B86" s="14"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c t="s" r="G86" s="15">
+        <v>246</v>
+      </c>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15"/>
+      <c r="J86" s="16"/>
+      <c t="s" r="K86" s="17">
+        <v>247</v>
+      </c>
+      <c r="L86" s="17"/>
+      <c r="M86" s="17"/>
+      <c r="N86" s="17"/>
+      <c r="O86" s="17"/>
+      <c r="P86" s="17"/>
+      <c r="Q86" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="397">
+  <mergeCells count="402">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4332,10 +4374,15 @@
     <mergeCell ref="H83:K83"/>
     <mergeCell ref="L83:M83"/>
     <mergeCell ref="N83:O83"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="G85:I85"/>
-    <mergeCell ref="K85:Q85"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="G86:I86"/>
+    <mergeCell ref="K86:Q86"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-03_00-00.xlsx
+++ b/DaySale_2025-09-03_00-00.xlsx
@@ -341,16 +341,13 @@
     <t>186.0000</t>
   </si>
   <si>
-    <t>HERBANA 30CAPS</t>
+    <t>HAIRVOGINE 30TAB</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>120.0000</t>
+    <t>180.0000</t>
   </si>
   <si>
     <t>HISTAZINE-1 0.1% SYRUP 100ML</t>
@@ -746,7 +743,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Wednesday, 3 September, 2025 9:24 PM</t>
+    <t>Wednesday, 3 September, 2025 9:26 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2321,11 +2318,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -2337,7 +2334,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2354,11 +2351,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2370,7 +2367,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2387,7 +2384,7 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
@@ -2403,7 +2400,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2420,11 +2417,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2436,7 +2433,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2469,14 +2466,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2486,11 +2483,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2502,7 +2499,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2519,11 +2516,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2535,7 +2532,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2552,11 +2549,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2568,7 +2565,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2585,11 +2582,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2601,7 +2598,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2634,7 +2631,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2651,11 +2648,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2667,7 +2664,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2684,11 +2681,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2700,7 +2697,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2717,11 +2714,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2733,7 +2730,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2750,11 +2747,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2766,14 +2763,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2783,14 +2780,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
+        <v>149</v>
+      </c>
+      <c t="s" r="Q49" s="12">
         <v>150</v>
-      </c>
-      <c t="s" r="Q49" s="12">
-        <v>151</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2799,7 +2796,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2816,11 +2813,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -2832,14 +2829,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2849,11 +2846,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -2865,7 +2862,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2882,11 +2879,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -2898,7 +2895,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2915,11 +2912,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -2931,14 +2928,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2952,7 +2949,7 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2964,7 +2961,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2981,11 +2978,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2997,7 +2994,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3014,11 +3011,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -3030,7 +3027,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3047,11 +3044,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -3063,7 +3060,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3084,7 +3081,7 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
@@ -3096,7 +3093,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3113,11 +3110,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3129,7 +3126,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3150,7 +3147,7 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>21</v>
@@ -3162,7 +3159,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3179,7 +3176,7 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
@@ -3195,7 +3192,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3212,11 +3209,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
@@ -3228,7 +3225,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3245,11 +3242,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3261,7 +3258,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3278,11 +3275,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>21</v>
@@ -3294,7 +3291,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3311,7 +3308,7 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
@@ -3327,7 +3324,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3344,7 +3341,7 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
@@ -3360,7 +3357,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3381,7 +3378,7 @@
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3393,7 +3390,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3410,11 +3407,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>21</v>
@@ -3426,7 +3423,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3443,11 +3440,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3459,14 +3456,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3476,11 +3473,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>56</v>
@@ -3492,7 +3489,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3513,7 +3510,7 @@
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>21</v>
@@ -3525,14 +3522,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3546,7 +3543,7 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>18</v>
@@ -3558,14 +3555,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3575,11 +3572,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>26</v>
@@ -3591,7 +3588,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3608,11 +3605,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>21</v>
@@ -3624,7 +3621,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3641,11 +3638,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>21</v>
@@ -3657,14 +3654,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3674,11 +3671,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>26</v>
@@ -3690,7 +3687,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3707,11 +3704,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>21</v>
@@ -3723,7 +3720,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3740,11 +3737,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>21</v>
@@ -3756,14 +3753,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3773,11 +3770,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>21</v>
@@ -3789,7 +3786,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3806,14 +3803,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3822,7 +3819,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3839,14 +3836,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3855,7 +3852,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -3872,11 +3869,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>21</v>
@@ -3888,14 +3885,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3905,11 +3902,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>21</v>
@@ -3921,7 +3918,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -3938,11 +3935,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>21</v>
@@ -3950,13 +3947,13 @@
     </row>
     <row r="85" ht="24.75" customHeight="1">
       <c r="P85" s="13">
-        <v>6206.2150000000001</v>
+        <v>6266.2150000000001</v>
       </c>
       <c r="Q85" s="13"/>
     </row>
     <row r="86" ht="16.5" customHeight="1">
       <c t="s" r="A86" s="14">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B86" s="14"/>
       <c r="C86" s="14"/>
@@ -3964,13 +3961,13 @@
       <c r="E86" s="14"/>
       <c r="F86" s="14"/>
       <c t="s" r="G86" s="15">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H86" s="15"/>
       <c r="I86" s="15"/>
       <c r="J86" s="16"/>
       <c t="s" r="K86" s="17">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L86" s="17"/>
       <c r="M86" s="17"/>

--- a/DaySale_2025-09-03_00-00.xlsx
+++ b/DaySale_2025-09-03_00-00.xlsx
@@ -248,6 +248,12 @@
     <t>156.0000</t>
   </si>
   <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>9:2</t>
+  </si>
+  <si>
     <t>DURICEF 500MG/5ML SUSP. 60ML</t>
   </si>
   <si>
@@ -635,6 +641,9 @@
     <t>VENTAMOR BLACK CHARCOAL SOAP 100 GM</t>
   </si>
   <si>
+    <t>VIOTIC EAR DROPS 10 ML</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -743,7 +752,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Wednesday, 3 September, 2025 9:26 PM</t>
+    <t>Wednesday, 3 September, 2025 9:27 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1978,7 +1987,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1988,14 +1997,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2004,14 +2013,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2021,11 +2030,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -2037,14 +2046,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2054,14 +2063,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2070,14 +2079,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2087,14 +2096,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2103,14 +2112,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2120,11 +2129,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2136,14 +2145,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2153,14 +2162,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2169,14 +2178,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2186,14 +2195,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2202,7 +2211,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2219,14 +2228,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2235,14 +2244,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>104</v>
+        <v>21</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2252,14 +2261,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2268,14 +2277,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2285,14 +2294,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2301,28 +2310,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -2334,28 +2343,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2367,7 +2376,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2380,15 +2389,15 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>28</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2407,13 +2416,13 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2421,7 +2430,7 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2433,14 +2442,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2450,14 +2459,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>58</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2466,14 +2475,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>123</v>
+        <v>21</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2483,11 +2492,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2499,14 +2508,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2516,14 +2525,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2532,14 +2541,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2549,11 +2558,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2565,14 +2574,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2582,11 +2591,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2598,14 +2607,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2615,11 +2624,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>35</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>36</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2631,14 +2640,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2648,11 +2657,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>35</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2664,14 +2673,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2681,11 +2690,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2697,28 +2706,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2730,28 +2739,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2763,14 +2772,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>147</v>
+        <v>30</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2780,14 +2789,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>150</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2796,14 +2805,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>149</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2813,14 +2822,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>152</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2829,14 +2838,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>155</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2846,11 +2855,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -2862,14 +2871,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>40</v>
+        <v>157</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2879,11 +2888,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -2895,14 +2904,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2912,11 +2921,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -2928,31 +2937,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>165</v>
+        <v>69</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>85</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2961,28 +2970,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>167</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>87</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2994,14 +3003,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3011,14 +3020,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3027,7 +3036,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3040,15 +3049,15 @@
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -3060,24 +3069,24 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>70</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
@@ -3100,24 +3109,24 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>70</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3126,31 +3135,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>38</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3172,15 +3181,15 @@
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>38</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>93</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>21</v>
@@ -3213,7 +3222,7 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
@@ -3225,31 +3234,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3258,31 +3267,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3291,7 +3300,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3308,11 +3317,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>93</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>21</v>
@@ -3324,7 +3333,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3341,11 +3350,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>117</v>
+        <v>186</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>21</v>
@@ -3357,14 +3366,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3374,14 +3383,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>49</v>
+        <v>119</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3407,14 +3416,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>49</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3423,31 +3432,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3463,24 +3472,24 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>204</v>
+        <v>30</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3489,14 +3498,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>30</v>
+        <v>206</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3506,14 +3515,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>70</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>177</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>56</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3522,14 +3531,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>209</v>
+        <v>30</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3539,14 +3548,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3555,14 +3564,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>212</v>
+        <v>30</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3572,14 +3581,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>213</v>
+        <v>53</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3588,14 +3597,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>30</v>
+        <v>212</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3605,14 +3614,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>216</v>
+        <v>83</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3621,14 +3630,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>69</v>
+        <v>215</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3638,14 +3647,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3654,31 +3663,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>155</v>
+        <v>30</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3687,7 +3696,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3700,15 +3709,15 @@
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>21</v>
@@ -3720,31 +3729,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>26</v>
+        <v>157</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3753,28 +3762,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>231</v>
+        <v>69</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>21</v>
@@ -3786,31 +3795,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>231</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3819,31 +3828,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>30</v>
+        <v>234</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>166</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>238</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3852,31 +3861,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>21</v>
+        <v>234</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3885,31 +3894,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>241</v>
+        <v>30</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>242</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>21</v>
+        <v>241</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3918,66 +3927,132 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
-      <c r="P85" s="13">
-        <v>6266.2150000000001</v>
-      </c>
-      <c r="Q85" s="13"/>
-    </row>
-    <row r="86" ht="16.5" customHeight="1">
-      <c t="s" r="A86" s="14">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
+        <v>243</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
         <v>244</v>
       </c>
-      <c r="B86" s="14"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
-      <c t="s" r="G86" s="15">
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>113</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>225</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
         <v>245</v>
       </c>
-      <c r="H86" s="15"/>
-      <c r="I86" s="15"/>
-      <c r="J86" s="16"/>
-      <c t="s" r="K86" s="17">
+      <c t="s" r="Q85" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
         <v>246</v>
       </c>
-      <c r="L86" s="17"/>
-      <c r="M86" s="17"/>
-      <c r="N86" s="17"/>
-      <c r="O86" s="17"/>
-      <c r="P86" s="17"/>
-      <c r="Q86" s="17"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>26</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>113</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>225</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
+        <v>245</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="P87" s="13">
+        <v>6305.0550000000003</v>
+      </c>
+      <c r="Q87" s="13"/>
+    </row>
+    <row r="88" ht="16.5" customHeight="1">
+      <c t="s" r="A88" s="14">
+        <v>247</v>
+      </c>
+      <c r="B88" s="14"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c t="s" r="G88" s="15">
+        <v>248</v>
+      </c>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="16"/>
+      <c t="s" r="K88" s="17">
+        <v>249</v>
+      </c>
+      <c r="L88" s="17"/>
+      <c r="M88" s="17"/>
+      <c r="N88" s="17"/>
+      <c r="O88" s="17"/>
+      <c r="P88" s="17"/>
+      <c r="Q88" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="402">
+  <mergeCells count="412">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4376,10 +4451,20 @@
     <mergeCell ref="H84:K84"/>
     <mergeCell ref="L84:M84"/>
     <mergeCell ref="N84:O84"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="A86:F86"/>
-    <mergeCell ref="G86:I86"/>
-    <mergeCell ref="K86:Q86"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="G88:I88"/>
+    <mergeCell ref="K88:Q88"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-03_00-00.xlsx
+++ b/DaySale_2025-09-03_00-00.xlsx
@@ -122,6 +122,21 @@
     <t>57.0000</t>
   </si>
   <si>
+    <t>B-COM I.M./I.V. 6 AMP</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
     <t>BETOLVEX 1MG/ML 2 AMP</t>
   </si>
   <si>
@@ -146,9 +161,6 @@
     <t>BRUFEN 200MG 30 TAB</t>
   </si>
   <si>
-    <t>48.00</t>
-  </si>
-  <si>
     <t>15.8400</t>
   </si>
   <si>
@@ -230,9 +242,6 @@
     <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
   </si>
   <si>
-    <t>1:3</t>
-  </si>
-  <si>
     <t>65.00</t>
   </si>
   <si>
@@ -251,7 +260,10 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>9:2</t>
+    <t>9:1</t>
+  </si>
+  <si>
+    <t>31.6800</t>
   </si>
   <si>
     <t>DURICEF 500MG/5ML SUSP. 60ML</t>
@@ -329,9 +341,6 @@
     <t>GAST-REG 200 MG 30 TABS.</t>
   </si>
   <si>
-    <t>0:3</t>
-  </si>
-  <si>
     <t>84.00</t>
   </si>
   <si>
@@ -644,6 +653,9 @@
     <t>VIOTIC EAR DROPS 10 ML</t>
   </si>
   <si>
+    <t>VOLTAREN 1% EMULGEL 25 GM</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -683,6 +695,18 @@
     <t>96.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
+  </si>
+  <si>
+    <t>14:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">برفان القصاص </t>
   </si>
   <si>
@@ -704,12 +728,6 @@
     <t>جل صبار برطمان</t>
   </si>
   <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
     <t>رول اون ريكسونا25</t>
   </si>
   <si>
@@ -725,7 +743,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>16.0000</t>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>11:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -1591,7 +1612,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1601,14 +1622,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1617,14 +1638,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1634,14 +1655,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1650,14 +1671,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1667,14 +1688,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1683,14 +1704,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1700,14 +1721,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
         <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1773,7 +1794,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1789,7 +1810,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1799,14 +1820,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1815,14 +1836,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1832,11 +1853,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>21</v>
@@ -1848,7 +1869,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1865,11 +1886,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -1881,14 +1902,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1905,7 +1926,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1938,7 +1959,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1954,7 +1975,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1964,14 +1985,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
         <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1997,14 +2018,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2013,14 +2034,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2030,14 +2051,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2046,14 +2067,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2063,11 +2084,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -2079,14 +2100,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2103,7 +2124,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2136,7 +2157,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2152,7 +2173,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2162,11 +2183,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2178,14 +2199,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2195,14 +2216,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2211,14 +2232,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2228,14 +2249,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2244,7 +2265,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2261,14 +2282,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2277,14 +2298,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2301,7 +2322,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2317,7 +2338,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2334,7 +2355,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2350,17 +2371,17 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
@@ -2383,17 +2404,17 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
@@ -2422,7 +2443,7 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2430,7 +2451,7 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2442,28 +2463,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2482,7 +2503,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2492,14 +2513,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>58</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2508,14 +2529,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2525,11 +2546,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2541,14 +2562,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2565,7 +2586,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2581,7 +2602,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2614,7 +2635,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2647,7 +2668,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2657,11 +2678,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>35</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>36</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2673,14 +2694,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2690,11 +2711,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>35</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2713,7 +2734,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2746,13 +2767,13 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2779,21 +2800,21 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2805,14 +2826,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>149</v>
+        <v>30</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2822,14 +2843,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>152</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2838,14 +2859,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>152</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2855,14 +2876,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
+        <v>154</v>
+      </c>
+      <c t="s" r="Q51" s="12">
         <v>155</v>
-      </c>
-      <c t="s" r="Q51" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2878,7 +2899,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2888,11 +2909,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -2904,14 +2925,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2944,7 +2965,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2977,24 +2998,24 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>167</v>
+        <v>73</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>87</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3010,17 +3031,17 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>170</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>91</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
@@ -3043,7 +3064,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3060,7 +3081,7 @@
         <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3082,7 +3103,7 @@
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -3109,21 +3130,21 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>70</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>21</v>
@@ -3135,31 +3156,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>106</v>
+        <v>30</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>74</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3175,24 +3196,24 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>38</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3201,7 +3222,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3214,15 +3235,15 @@
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>95</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
@@ -3234,7 +3255,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3251,11 +3272,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>21</v>
@@ -3274,13 +3295,13 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
@@ -3291,7 +3312,7 @@
         <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3307,13 +3328,13 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
@@ -3324,7 +3345,7 @@
         <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3350,11 +3371,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>95</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>21</v>
@@ -3366,7 +3387,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3383,11 +3404,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>119</v>
+        <v>189</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>21</v>
@@ -3399,14 +3420,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3416,14 +3437,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>49</v>
+        <v>122</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3432,7 +3453,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3449,14 +3470,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>53</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3472,24 +3493,24 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3498,31 +3519,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>206</v>
+        <v>30</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3531,14 +3552,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3548,14 +3569,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>70</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>179</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>60</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3564,7 +3585,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3581,11 +3602,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>54</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>21</v>
@@ -3597,14 +3618,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>212</v>
+        <v>30</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3614,14 +3635,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>213</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3637,7 +3658,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>215</v>
+        <v>26</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3647,14 +3668,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>216</v>
+        <v>135</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3663,14 +3684,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>30</v>
+        <v>216</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3680,14 +3701,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>219</v>
+        <v>87</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3696,14 +3717,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>69</v>
+        <v>219</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3713,14 +3734,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3729,31 +3750,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>157</v>
+        <v>30</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3762,28 +3783,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>21</v>
@@ -3795,28 +3816,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>21</v>
@@ -3828,31 +3849,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>234</v>
+        <v>160</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3861,31 +3882,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>234</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3894,31 +3915,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>168</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>241</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3927,28 +3948,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>69</v>
+        <v>240</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>21</v>
@@ -3967,24 +3988,24 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>244</v>
+        <v>30</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
+        <v>244</v>
+      </c>
+      <c t="s" r="Q85" s="12">
         <v>245</v>
-      </c>
-      <c t="s" r="Q85" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4000,59 +4021,158 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>245</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>21</v>
+        <v>248</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
-      <c r="P87" s="13">
-        <v>6305.0550000000003</v>
-      </c>
-      <c r="Q87" s="13"/>
-    </row>
-    <row r="88" ht="16.5" customHeight="1">
-      <c t="s" r="A88" s="14">
-        <v>247</v>
-      </c>
-      <c r="B88" s="14"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
-      <c t="s" r="G88" s="15">
-        <v>248</v>
-      </c>
-      <c r="H88" s="15"/>
-      <c r="I88" s="15"/>
-      <c r="J88" s="16"/>
-      <c t="s" r="K88" s="17">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
         <v>249</v>
       </c>
-      <c r="L88" s="17"/>
-      <c r="M88" s="17"/>
-      <c r="N88" s="17"/>
-      <c r="O88" s="17"/>
-      <c r="P88" s="17"/>
-      <c r="Q88" s="17"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>73</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>116</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>241</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
+        <v>242</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
+        <v>250</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>251</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>116</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>233</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
+        <v>252</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
+        <v>253</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>26</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>116</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>233</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>252</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="P90" s="13">
+        <v>6414.8950000000004</v>
+      </c>
+      <c r="Q90" s="13"/>
+    </row>
+    <row r="91" ht="16.5" customHeight="1">
+      <c t="s" r="A91" s="14">
+        <v>254</v>
+      </c>
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
+      <c t="s" r="G91" s="15">
+        <v>255</v>
+      </c>
+      <c r="H91" s="15"/>
+      <c r="I91" s="15"/>
+      <c r="J91" s="16"/>
+      <c t="s" r="K91" s="17">
+        <v>256</v>
+      </c>
+      <c r="L91" s="17"/>
+      <c r="M91" s="17"/>
+      <c r="N91" s="17"/>
+      <c r="O91" s="17"/>
+      <c r="P91" s="17"/>
+      <c r="Q91" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="412">
+  <mergeCells count="427">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4461,10 +4581,25 @@
     <mergeCell ref="H86:K86"/>
     <mergeCell ref="L86:M86"/>
     <mergeCell ref="N86:O86"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="G88:I88"/>
-    <mergeCell ref="K88:Q88"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="P90:Q90"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="G91:I91"/>
+    <mergeCell ref="K91:Q91"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-03_00-00.xlsx
+++ b/DaySale_2025-09-03_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ALL-VENT SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>AMARYL 2 MG 30 TABS</t>
   </si>
   <si>
     <t>1:1</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>78.00</t>
   </si>
   <si>
@@ -74,9 +89,6 @@
     <t>114.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>ANTI-COX II 15MG 30 TAB.</t>
   </si>
   <si>
@@ -146,9 +158,6 @@
     <t>192.0000</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>BLOKATENS 10/160MG 28 F.C.TABS.</t>
   </si>
   <si>
@@ -368,12 +377,6 @@
     <t>HISTAZINE-1 0.1% SYRUP 100ML</t>
   </si>
   <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
     <t>IVABRAGIN 5MG 30TAB</t>
   </si>
   <si>
@@ -659,10 +662,7 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>33.6600</t>
+    <t>50.4900</t>
   </si>
   <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
@@ -756,6 +756,9 @@
   </si>
   <si>
     <t>9:0</t>
+  </si>
+  <si>
+    <t>قطن 50جم</t>
   </si>
   <si>
     <t>كريم فيبكس الازرق</t>
@@ -1480,7 +1483,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1490,14 +1493,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1506,14 +1509,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1530,7 +1533,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1563,7 +1566,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1596,7 +1599,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1629,7 +1632,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1638,14 +1641,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1678,7 +1681,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1695,7 +1698,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1711,7 +1714,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1721,11 +1724,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1737,14 +1740,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1754,11 +1757,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>21</v>
@@ -1770,14 +1773,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1787,14 +1790,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1803,14 +1806,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1820,11 +1823,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1836,14 +1839,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1876,7 +1879,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1893,7 +1896,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1909,7 +1912,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1926,7 +1929,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1942,7 +1945,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1952,14 +1955,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1968,14 +1971,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1992,7 +1995,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2008,7 +2011,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2018,14 +2021,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2051,14 +2054,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2074,7 +2077,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2084,14 +2087,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2100,14 +2103,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2117,14 +2120,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2140,7 +2143,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2150,14 +2153,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2166,14 +2169,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2183,14 +2186,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2199,14 +2202,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2223,7 +2226,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2239,7 +2242,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2256,7 +2259,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2272,7 +2275,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2289,7 +2292,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2305,7 +2308,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2322,7 +2325,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2338,7 +2341,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2355,7 +2358,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2371,7 +2374,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2404,24 +2407,24 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2437,24 +2440,24 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>119</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2470,24 +2473,24 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2496,31 +2499,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>119</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2529,14 +2532,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2546,11 +2549,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>62</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2569,7 +2572,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2579,14 +2582,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2595,14 +2598,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>21</v>
+        <v>129</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2612,11 +2615,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2628,14 +2631,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2645,14 +2648,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2661,14 +2664,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2678,14 +2681,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2694,14 +2697,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2711,14 +2714,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>35</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>36</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2734,7 +2737,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2744,14 +2747,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>39</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2760,14 +2763,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2777,14 +2780,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2793,31 +2796,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2826,31 +2829,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>119</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2866,7 +2869,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>152</v>
+        <v>34</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2876,14 +2879,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>125</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>155</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2892,14 +2895,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>153</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2909,14 +2912,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>156</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2925,14 +2928,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>160</v>
+        <v>21</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2942,14 +2945,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2958,14 +2961,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>45</v>
+        <v>161</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2975,14 +2978,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2991,14 +2994,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3008,14 +3011,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3024,28 +3027,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>170</v>
+        <v>76</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>91</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3057,31 +3060,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>171</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>119</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>94</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3090,14 +3093,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3107,11 +3110,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
@@ -3123,31 +3126,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3156,31 +3159,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>74</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3189,28 +3192,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>119</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>77</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3222,28 +3225,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>43</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
@@ -3255,31 +3258,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>119</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>47</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>99</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3288,14 +3291,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3305,14 +3308,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3321,28 +3324,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3354,7 +3357,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3367,15 +3370,15 @@
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>119</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>21</v>
@@ -3387,14 +3390,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3404,14 +3407,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>99</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3427,7 +3430,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3437,14 +3440,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>122</v>
+        <v>190</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3460,7 +3463,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3470,11 +3473,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3486,14 +3489,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3503,11 +3506,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>56</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>21</v>
@@ -3519,28 +3522,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3552,31 +3555,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>209</v>
+        <v>34</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>119</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>60</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3585,14 +3588,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>30</v>
+        <v>210</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3602,14 +3605,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>74</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>182</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3625,7 +3628,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3635,14 +3638,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>58</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3658,7 +3661,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3668,14 +3671,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>135</v>
+        <v>60</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3691,7 +3694,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>216</v>
+        <v>30</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3701,14 +3704,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>87</v>
+        <v>136</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>217</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3717,14 +3720,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>219</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3734,14 +3737,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>220</v>
+        <v>90</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>26</v>
+        <v>45</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3750,14 +3753,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>30</v>
+        <v>219</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3767,14 +3770,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3783,14 +3786,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3800,14 +3803,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3816,31 +3819,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>229</v>
+        <v>76</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3849,31 +3852,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>160</v>
+        <v>229</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3882,31 +3885,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>73</v>
+        <v>161</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3915,31 +3918,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3948,31 +3951,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>240</v>
+        <v>30</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3981,31 +3984,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>30</v>
+        <v>240</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>245</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4014,31 +4017,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>247</v>
+        <v>220</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>171</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4047,31 +4050,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>242</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>21</v>
+        <v>248</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4080,31 +4083,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>251</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4113,66 +4116,132 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
+        <v>242</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
+        <v>251</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
         <v>252</v>
       </c>
-      <c t="s" r="Q89" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="90" ht="24.75" customHeight="1">
-      <c r="P90" s="13">
-        <v>6414.8950000000004</v>
-      </c>
-      <c r="Q90" s="13"/>
-    </row>
-    <row r="91" ht="16.5" customHeight="1">
-      <c t="s" r="A91" s="14">
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>119</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>233</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
+        <v>253</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
         <v>254</v>
       </c>
-      <c r="B91" s="14"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
-      <c t="s" r="G91" s="15">
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>30</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>119</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>233</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>253</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="P92" s="13">
+        <v>6475.7250000000004</v>
+      </c>
+      <c r="Q92" s="13"/>
+    </row>
+    <row r="93" ht="16.5" customHeight="1">
+      <c t="s" r="A93" s="14">
         <v>255</v>
       </c>
-      <c r="H91" s="15"/>
-      <c r="I91" s="15"/>
-      <c r="J91" s="16"/>
-      <c t="s" r="K91" s="17">
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14"/>
+      <c t="s" r="G93" s="15">
         <v>256</v>
       </c>
-      <c r="L91" s="17"/>
-      <c r="M91" s="17"/>
-      <c r="N91" s="17"/>
-      <c r="O91" s="17"/>
-      <c r="P91" s="17"/>
-      <c r="Q91" s="17"/>
+      <c r="H93" s="15"/>
+      <c r="I93" s="15"/>
+      <c r="J93" s="16"/>
+      <c t="s" r="K93" s="17">
+        <v>257</v>
+      </c>
+      <c r="L93" s="17"/>
+      <c r="M93" s="17"/>
+      <c r="N93" s="17"/>
+      <c r="O93" s="17"/>
+      <c r="P93" s="17"/>
+      <c r="Q93" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="427">
+  <mergeCells count="437">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4596,10 +4665,20 @@
     <mergeCell ref="H89:K89"/>
     <mergeCell ref="L89:M89"/>
     <mergeCell ref="N89:O89"/>
-    <mergeCell ref="P90:Q90"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="G91:I91"/>
-    <mergeCell ref="K91:Q91"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="P92:Q92"/>
+    <mergeCell ref="A93:F93"/>
+    <mergeCell ref="G93:I93"/>
+    <mergeCell ref="K93:Q93"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-03_00-00.xlsx
+++ b/DaySale_2025-09-03_00-00.xlsx
@@ -776,7 +776,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Wednesday, 3 September, 2025 9:27 PM</t>
+    <t>Wednesday, 3 September, 2025 9:28 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-03_00-00.xlsx
+++ b/DaySale_2025-09-03_00-00.xlsx
@@ -98,6 +98,15 @@
     <t>73.2600</t>
   </si>
   <si>
+    <t xml:space="preserve">ANTODINE20    6 AMP</t>
+  </si>
+  <si>
+    <t>3:3</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>ASMAKAST 10 MG 30 F.C.TABS.</t>
   </si>
   <si>
@@ -368,9 +377,6 @@
     <t>HAIRVOGINE 30TAB</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>180.0000</t>
   </si>
   <si>
@@ -398,9 +404,6 @@
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
-    <t>3:3</t>
-  </si>
-  <si>
     <t>60.00</t>
   </si>
   <si>
@@ -743,10 +746,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>11:0</t>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>13:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -776,7 +779,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Wednesday, 3 September, 2025 9:28 PM</t>
+    <t>Wednesday, 3 September, 2025 9:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1555,18 +1558,18 @@
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1575,14 +1578,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1592,14 +1595,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1608,14 +1611,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1625,11 +1628,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1641,14 +1644,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1658,14 +1661,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1674,14 +1677,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1691,14 +1694,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
+        <v>47</v>
+      </c>
+      <c t="s" r="Q15" s="12">
         <v>48</v>
-      </c>
-      <c t="s" r="Q15" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1714,7 +1717,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1731,7 +1734,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1747,7 +1750,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1757,14 +1760,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1773,14 +1776,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1790,14 +1793,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1806,14 +1809,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1823,11 +1826,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1839,14 +1842,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1856,14 +1859,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1872,14 +1875,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1896,7 +1899,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1912,7 +1915,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1945,7 +1948,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1978,7 +1981,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1988,14 +1991,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2004,14 +2007,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2028,7 +2031,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>18</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2044,7 +2047,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2054,14 +2057,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2087,14 +2090,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2110,7 +2113,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2120,14 +2123,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2136,14 +2139,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2153,11 +2156,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2176,7 +2179,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2186,14 +2189,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2202,14 +2205,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2219,14 +2222,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2235,14 +2238,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2275,7 +2278,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2292,7 +2295,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2308,7 +2311,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2325,7 +2328,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2358,7 +2361,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2374,7 +2377,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2391,7 +2394,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2407,7 +2410,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2424,7 +2427,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2440,17 +2443,17 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
@@ -2473,21 +2476,21 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>15</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2499,28 +2502,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>14</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2539,13 +2542,13 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2553,7 +2556,7 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2565,14 +2568,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2582,14 +2585,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2598,14 +2601,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>129</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2615,11 +2618,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2631,14 +2634,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2648,14 +2651,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2664,14 +2667,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2681,11 +2684,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2697,14 +2700,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2714,11 +2717,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2730,14 +2733,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2747,11 +2750,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>39</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>40</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2770,7 +2773,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2780,11 +2783,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>42</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2796,14 +2799,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2813,11 +2816,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2829,28 +2832,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2862,28 +2865,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2902,7 +2905,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>153</v>
+        <v>37</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2912,14 +2915,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>156</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2928,14 +2931,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>21</v>
+        <v>154</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2945,14 +2948,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>157</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2961,14 +2964,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>161</v>
+        <v>21</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2978,11 +2981,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2994,14 +2997,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>162</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3011,11 +3014,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3027,14 +3030,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3044,11 +3047,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3060,31 +3063,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>171</v>
+        <v>79</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>94</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3093,28 +3096,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>21</v>
+        <v>172</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>97</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
@@ -3126,14 +3129,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3143,14 +3146,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3159,7 +3162,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3172,15 +3175,15 @@
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3192,28 +3195,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>119</v>
+        <v>31</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>77</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3225,31 +3228,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>80</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3258,31 +3261,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>47</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3291,28 +3294,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>102</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3324,14 +3327,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3341,11 +3344,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3357,31 +3360,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3390,31 +3393,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3423,14 +3426,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3440,11 +3443,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>102</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3463,7 +3466,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3473,11 +3476,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>123</v>
+        <v>191</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>32</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3496,7 +3499,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3506,14 +3509,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>56</v>
+        <v>125</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3522,7 +3525,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3539,14 +3542,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>205</v>
+        <v>59</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3555,31 +3558,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3588,31 +3591,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>210</v>
+        <v>37</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>63</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3621,14 +3624,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>34</v>
+        <v>211</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3638,14 +3641,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>77</v>
+        <v>212</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>183</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>66</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3661,7 +3664,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3671,11 +3674,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>61</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3694,7 +3697,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3704,11 +3707,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>136</v>
+        <v>63</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>137</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3727,7 +3730,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3737,14 +3740,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>90</v>
+        <v>137</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>217</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3753,14 +3756,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>219</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3770,14 +3773,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>220</v>
+        <v>93</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>30</v>
+        <v>48</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3786,14 +3789,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>34</v>
+        <v>220</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3803,14 +3806,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3819,14 +3822,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3836,11 +3839,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3852,28 +3855,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>229</v>
+        <v>79</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3885,31 +3888,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>161</v>
+        <v>230</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>119</v>
+        <v>31</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3918,31 +3921,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>76</v>
+        <v>162</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>119</v>
+        <v>31</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3951,28 +3954,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>119</v>
+        <v>31</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -3991,21 +3994,21 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>240</v>
+        <v>33</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>119</v>
+        <v>31</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4017,31 +4020,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>34</v>
+        <v>241</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>119</v>
+        <v>31</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>245</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4050,31 +4053,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>119</v>
+        <v>31</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>172</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4083,31 +4086,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>119</v>
+        <v>31</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>237</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>249</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4123,21 +4126,21 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>119</v>
+        <v>31</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4156,21 +4159,21 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>252</v>
+        <v>79</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>119</v>
+        <v>31</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4182,66 +4185,99 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>30</v>
+        <v>253</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>119</v>
+        <v>31</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
-      <c r="P92" s="13">
-        <v>6475.7250000000004</v>
-      </c>
-      <c r="Q92" s="13"/>
-    </row>
-    <row r="93" ht="16.5" customHeight="1">
-      <c t="s" r="A93" s="14">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
         <v>255</v>
       </c>
-      <c r="B93" s="14"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14"/>
-      <c t="s" r="G93" s="15">
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>33</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>31</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>234</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
+        <v>254</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="P93" s="13">
+        <v>6505.4650000000001</v>
+      </c>
+      <c r="Q93" s="13"/>
+    </row>
+    <row r="94" ht="16.5" customHeight="1">
+      <c t="s" r="A94" s="14">
         <v>256</v>
       </c>
-      <c r="H93" s="15"/>
-      <c r="I93" s="15"/>
-      <c r="J93" s="16"/>
-      <c t="s" r="K93" s="17">
+      <c r="B94" s="14"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="14"/>
+      <c t="s" r="G94" s="15">
         <v>257</v>
       </c>
-      <c r="L93" s="17"/>
-      <c r="M93" s="17"/>
-      <c r="N93" s="17"/>
-      <c r="O93" s="17"/>
-      <c r="P93" s="17"/>
-      <c r="Q93" s="17"/>
+      <c r="H94" s="15"/>
+      <c r="I94" s="15"/>
+      <c r="J94" s="16"/>
+      <c t="s" r="K94" s="17">
+        <v>258</v>
+      </c>
+      <c r="L94" s="17"/>
+      <c r="M94" s="17"/>
+      <c r="N94" s="17"/>
+      <c r="O94" s="17"/>
+      <c r="P94" s="17"/>
+      <c r="Q94" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="437">
+  <mergeCells count="442">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4675,10 +4711,15 @@
     <mergeCell ref="H91:K91"/>
     <mergeCell ref="L91:M91"/>
     <mergeCell ref="N91:O91"/>
-    <mergeCell ref="P92:Q92"/>
-    <mergeCell ref="A93:F93"/>
-    <mergeCell ref="G93:I93"/>
-    <mergeCell ref="K93:Q93"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="P93:Q93"/>
+    <mergeCell ref="A94:F94"/>
+    <mergeCell ref="G94:I94"/>
+    <mergeCell ref="K94:Q94"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-03_00-00.xlsx
+++ b/DaySale_2025-09-03_00-00.xlsx
@@ -131,6 +131,18 @@
     <t>128.0000</t>
   </si>
   <si>
+    <t>ATROVENT 500MCG/2ML 20 UNIT DOSE VIALS</t>
+  </si>
+  <si>
+    <t>1:5</t>
+  </si>
+  <si>
+    <t>286.00</t>
+  </si>
+  <si>
+    <t>14.3000</t>
+  </si>
+  <si>
     <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
   </si>
   <si>
@@ -551,6 +563,18 @@
     <t>81.0000</t>
   </si>
   <si>
+    <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
+  </si>
+  <si>
+    <t>1:15</t>
+  </si>
+  <si>
+    <t>752.00</t>
+  </si>
+  <si>
+    <t>37.6000</t>
+  </si>
+  <si>
     <t xml:space="preserve">RELAX  CAPS</t>
   </si>
   <si>
@@ -779,7 +803,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Wednesday, 3 September, 2025 9:32 PM</t>
+    <t>Wednesday, 3 September, 2025 9:38 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1668,7 +1692,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1701,7 +1725,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1710,14 +1734,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1734,7 +1758,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1743,14 +1767,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1760,14 +1784,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1776,14 +1800,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1793,14 +1817,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1809,14 +1833,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1826,14 +1850,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1899,7 +1923,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1915,7 +1939,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1925,14 +1949,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1941,14 +1965,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1958,11 +1982,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1974,7 +1998,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1991,11 +2015,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -2007,14 +2031,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2031,7 +2055,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2047,7 +2071,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2057,14 +2081,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2073,14 +2097,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2090,14 +2114,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2106,14 +2130,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2123,14 +2147,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2139,14 +2163,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2156,14 +2180,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2172,14 +2196,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2189,11 +2213,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2205,14 +2229,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2229,7 +2253,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2262,7 +2286,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2278,7 +2302,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2288,11 +2312,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -2304,14 +2328,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2321,14 +2345,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2337,14 +2361,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2354,14 +2378,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2370,7 +2394,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2387,14 +2411,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2403,14 +2427,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2420,14 +2444,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2436,14 +2460,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2453,14 +2477,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2469,28 +2493,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2502,28 +2526,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>15</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2535,7 +2559,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2548,15 +2572,15 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>14</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2568,28 +2592,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2601,14 +2625,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2618,14 +2642,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>68</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2634,14 +2658,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2651,11 +2675,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2667,14 +2691,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2684,14 +2708,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2700,14 +2724,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2717,11 +2741,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2733,14 +2757,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2750,11 +2774,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2766,14 +2790,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2783,11 +2807,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2799,14 +2823,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2816,11 +2840,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>46</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>145</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2832,14 +2856,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2849,11 +2873,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2865,28 +2889,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2898,28 +2922,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2931,14 +2955,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>154</v>
+        <v>37</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2948,14 +2972,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>157</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2964,14 +2988,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>21</v>
+        <v>158</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2988,7 +3012,7 @@
         <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>161</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2997,14 +3021,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>162</v>
+        <v>21</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3037,7 +3061,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>166</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3047,11 +3071,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3063,14 +3087,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3080,11 +3104,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3096,31 +3120,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>172</v>
+        <v>83</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>97</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3129,28 +3153,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>21</v>
+        <v>176</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>101</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>21</v>
@@ -3162,14 +3186,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3179,14 +3203,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3195,7 +3219,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3208,15 +3232,15 @@
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3228,31 +3252,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>37</v>
+        <v>185</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>80</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3261,31 +3285,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3294,7 +3318,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3311,11 +3335,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3327,14 +3351,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3344,14 +3368,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>105</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3360,7 +3384,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3373,15 +3397,15 @@
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>54</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3393,31 +3417,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3426,7 +3450,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3443,11 +3467,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3459,31 +3483,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>105</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3492,7 +3516,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3509,11 +3533,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>125</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>35</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3525,14 +3549,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3542,14 +3566,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>59</v>
+        <v>199</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>204</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3558,14 +3582,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3575,11 +3599,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>206</v>
+        <v>129</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>207</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3591,28 +3615,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>193</v>
+        <v>63</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>21</v>
@@ -3624,14 +3648,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>211</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3641,14 +3665,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>66</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3657,7 +3681,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3670,18 +3694,18 @@
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>80</v>
+        <v>201</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>184</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3690,14 +3714,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>37</v>
+        <v>219</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3707,14 +3731,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>63</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>64</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>70</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3723,14 +3747,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3740,11 +3764,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>137</v>
+        <v>84</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>138</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3756,14 +3780,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3773,14 +3797,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>218</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3789,14 +3813,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>220</v>
+        <v>33</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3806,14 +3830,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>221</v>
+        <v>141</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>222</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3822,14 +3846,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3839,14 +3863,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>224</v>
+        <v>97</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3855,14 +3879,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>79</v>
+        <v>228</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3872,14 +3896,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3888,28 +3912,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>230</v>
+        <v>37</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3921,31 +3945,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>162</v>
+        <v>83</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3954,14 +3978,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>79</v>
+        <v>238</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3971,11 +3995,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -3987,14 +4011,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4004,14 +4028,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4020,14 +4044,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>241</v>
+        <v>83</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4037,11 +4061,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4053,14 +4077,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4070,14 +4094,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>246</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4086,14 +4110,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>37</v>
+        <v>249</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4103,14 +4127,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>173</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>249</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4119,14 +4143,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4136,14 +4160,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>254</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4152,14 +4176,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4169,14 +4193,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>243</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>257</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4185,14 +4209,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>253</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4202,11 +4226,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4218,14 +4242,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4235,49 +4259,115 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
-      <c r="P93" s="13">
-        <v>6505.4650000000001</v>
-      </c>
-      <c r="Q93" s="13"/>
-    </row>
-    <row r="94" ht="16.5" customHeight="1">
-      <c t="s" r="A94" s="14">
-        <v>256</v>
-      </c>
-      <c r="B94" s="14"/>
-      <c r="C94" s="14"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="14"/>
-      <c t="s" r="G94" s="15">
-        <v>257</v>
-      </c>
-      <c r="H94" s="15"/>
-      <c r="I94" s="15"/>
-      <c r="J94" s="16"/>
-      <c t="s" r="K94" s="17">
-        <v>258</v>
-      </c>
-      <c r="L94" s="17"/>
-      <c r="M94" s="17"/>
-      <c r="N94" s="17"/>
-      <c r="O94" s="17"/>
-      <c r="P94" s="17"/>
-      <c r="Q94" s="17"/>
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
+        <v>260</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>261</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>31</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>242</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
+        <v>262</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
+        <v>263</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>33</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>31</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>242</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>262</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="P95" s="13">
+        <v>6557.3649999999998</v>
+      </c>
+      <c r="Q95" s="13"/>
+    </row>
+    <row r="96" ht="16.5" customHeight="1">
+      <c t="s" r="A96" s="14">
+        <v>264</v>
+      </c>
+      <c r="B96" s="14"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
+      <c t="s" r="G96" s="15">
+        <v>265</v>
+      </c>
+      <c r="H96" s="15"/>
+      <c r="I96" s="15"/>
+      <c r="J96" s="16"/>
+      <c t="s" r="K96" s="17">
+        <v>266</v>
+      </c>
+      <c r="L96" s="17"/>
+      <c r="M96" s="17"/>
+      <c r="N96" s="17"/>
+      <c r="O96" s="17"/>
+      <c r="P96" s="17"/>
+      <c r="Q96" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="442">
+  <mergeCells count="452">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4716,10 +4806,20 @@
     <mergeCell ref="H92:K92"/>
     <mergeCell ref="L92:M92"/>
     <mergeCell ref="N92:O92"/>
-    <mergeCell ref="P93:Q93"/>
-    <mergeCell ref="A94:F94"/>
-    <mergeCell ref="G94:I94"/>
-    <mergeCell ref="K94:Q94"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="P95:Q95"/>
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="K96:Q96"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-03_00-00.xlsx
+++ b/DaySale_2025-09-03_00-00.xlsx
@@ -134,7 +134,7 @@
     <t>ATROVENT 500MCG/2ML 20 UNIT DOSE VIALS</t>
   </si>
   <si>
-    <t>1:5</t>
+    <t>1:6</t>
   </si>
   <si>
     <t>286.00</t>
@@ -290,10 +290,10 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>9:1</t>
-  </si>
-  <si>
-    <t>31.6800</t>
+    <t>8:2</t>
+  </si>
+  <si>
+    <t>63.8400</t>
   </si>
   <si>
     <t>DURICEF 500MG/5ML SUSP. 60ML</t>
@@ -566,7 +566,7 @@
     <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
   </si>
   <si>
-    <t>1:15</t>
+    <t>1:16</t>
   </si>
   <si>
     <t>752.00</t>
@@ -680,9 +680,6 @@
     <t>VENTAMOR BLACK CHARCOAL SOAP 100 GM</t>
   </si>
   <si>
-    <t>VIOTIC EAR DROPS 10 ML</t>
-  </si>
-  <si>
     <t>VOLTAREN 1% EMULGEL 25 GM</t>
   </si>
   <si>
@@ -803,7 +800,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Wednesday, 3 September, 2025 9:38 PM</t>
+    <t>Wednesday, 3 September, 2025 10:00 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2187,7 +2184,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -3787,7 +3784,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3797,11 +3794,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>67</v>
+        <v>141</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>68</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3820,7 +3817,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3830,14 +3827,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>141</v>
+        <v>97</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>142</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3846,14 +3843,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>227</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3863,14 +3860,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>97</v>
+        <v>228</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>52</v>
+        <v>33</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3879,14 +3876,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>228</v>
+        <v>37</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3896,14 +3893,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3912,14 +3909,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3929,11 +3926,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3945,28 +3942,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>83</v>
+        <v>237</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3978,14 +3975,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>238</v>
+        <v>166</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3995,14 +3992,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4011,14 +4008,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>166</v>
+        <v>83</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4028,14 +4025,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4044,14 +4041,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4061,11 +4058,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4084,7 +4081,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>33</v>
+        <v>248</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4094,11 +4091,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4110,14 +4107,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>249</v>
+        <v>37</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4127,14 +4124,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>253</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4143,7 +4140,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4160,14 +4157,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>253</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4176,14 +4173,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4193,14 +4190,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>177</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>257</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4216,7 +4213,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4226,11 +4223,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4249,7 +4246,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>83</v>
+        <v>260</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4259,11 +4256,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4275,14 +4272,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>261</v>
+        <v>33</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4292,82 +4289,49 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
-      <c r="A94" s="7">
-        <v>88</v>
-      </c>
-      <c r="B94" s="7"/>
-      <c t="s" r="C94" s="8">
+      <c r="P94" s="13">
+        <v>6566.5249999999996</v>
+      </c>
+      <c r="Q94" s="13"/>
+    </row>
+    <row r="95" ht="16.5" customHeight="1">
+      <c t="s" r="A95" s="14">
         <v>263</v>
       </c>
-      <c r="D94" s="8"/>
-      <c r="E94" s="8"/>
-      <c r="F94" s="8"/>
-      <c r="G94" s="8"/>
-      <c t="s" r="H94" s="9">
-        <v>33</v>
-      </c>
-      <c r="I94" s="9"/>
-      <c r="J94" s="9"/>
-      <c r="K94" s="9"/>
-      <c t="s" r="L94" s="10">
-        <v>31</v>
-      </c>
-      <c r="M94" s="10"/>
-      <c t="s" r="N94" s="8">
-        <v>242</v>
-      </c>
-      <c r="O94" s="8"/>
-      <c t="s" r="P94" s="11">
-        <v>262</v>
-      </c>
-      <c t="s" r="Q94" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="95" ht="24.75" customHeight="1">
-      <c r="P95" s="13">
-        <v>6557.3649999999998</v>
-      </c>
-      <c r="Q95" s="13"/>
-    </row>
-    <row r="96" ht="16.5" customHeight="1">
-      <c t="s" r="A96" s="14">
+      <c r="B95" s="14"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="14"/>
+      <c t="s" r="G95" s="15">
         <v>264</v>
       </c>
-      <c r="B96" s="14"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
-      <c t="s" r="G96" s="15">
+      <c r="H95" s="15"/>
+      <c r="I95" s="15"/>
+      <c r="J95" s="16"/>
+      <c t="s" r="K95" s="17">
         <v>265</v>
       </c>
-      <c r="H96" s="15"/>
-      <c r="I96" s="15"/>
-      <c r="J96" s="16"/>
-      <c t="s" r="K96" s="17">
-        <v>266</v>
-      </c>
-      <c r="L96" s="17"/>
-      <c r="M96" s="17"/>
-      <c r="N96" s="17"/>
-      <c r="O96" s="17"/>
-      <c r="P96" s="17"/>
-      <c r="Q96" s="17"/>
+      <c r="L95" s="17"/>
+      <c r="M95" s="17"/>
+      <c r="N95" s="17"/>
+      <c r="O95" s="17"/>
+      <c r="P95" s="17"/>
+      <c r="Q95" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="452">
+  <mergeCells count="447">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4811,15 +4775,10 @@
     <mergeCell ref="H93:K93"/>
     <mergeCell ref="L93:M93"/>
     <mergeCell ref="N93:O93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:G94"/>
-    <mergeCell ref="H94:K94"/>
-    <mergeCell ref="L94:M94"/>
-    <mergeCell ref="N94:O94"/>
-    <mergeCell ref="P95:Q95"/>
-    <mergeCell ref="A96:F96"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="K96:Q96"/>
+    <mergeCell ref="P94:Q94"/>
+    <mergeCell ref="A95:F95"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="K95:Q95"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-03_00-00.xlsx
+++ b/DaySale_2025-09-03_00-00.xlsx
@@ -77,6 +77,15 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>AMRIZOLE 500 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>12.5000</t>
+  </si>
+  <si>
     <t>ANGIOFOX (EFFOX) 25MG LONG 30 CAPS.</t>
   </si>
   <si>
@@ -170,6 +179,18 @@
     <t>0:3</t>
   </si>
   <si>
+    <t>BECOZYME I.M./I.V. 12 AMP</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>BETOLVEX 1MG/ML 2 AMP</t>
   </si>
   <si>
@@ -218,6 +239,15 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>CIPROFAR 500MG 10 F.C.TAB</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
     <t>COLCHICINE 500MCG 100 TAB</t>
   </si>
   <si>
@@ -506,6 +536,15 @@
     <t>99.0000</t>
   </si>
   <si>
+    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>OLOHISTINE 1MG/ML OPHTHALMIC SOL. 5 ML</t>
   </si>
   <si>
@@ -530,12 +569,6 @@
     <t>OTRIVIN BABY SALINE NASAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
@@ -665,6 +698,9 @@
     <t>65.0000</t>
   </si>
   <si>
+    <t>URAID-N EFF. GRANUL. 12 SACHETS</t>
+  </si>
+  <si>
     <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -680,6 +716,15 @@
     <t>VENTAMOR BLACK CHARCOAL SOAP 100 GM</t>
   </si>
   <si>
+    <t>VIAGRA 50MG 4 F.C. TAB</t>
+  </si>
+  <si>
+    <t>112.00</t>
+  </si>
+  <si>
+    <t>112.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 1% EMULGEL 25 GM</t>
   </si>
   <si>
@@ -725,9 +770,6 @@
     <t>14:0</t>
   </si>
   <si>
-    <t>25.00</t>
-  </si>
-  <si>
     <t>25.0000</t>
   </si>
   <si>
@@ -767,10 +809,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>13:0</t>
+    <t>32.0000</t>
+  </si>
+  <si>
+    <t>16:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -794,13 +836,10 @@
     <t>31:0</t>
   </si>
   <si>
-    <t>30.0000</t>
-  </si>
-  <si>
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Wednesday, 3 September, 2025 10:00 PM</t>
+    <t>Wednesday, 3 September, 2025 10:15 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1507,7 +1546,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1517,14 +1556,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1533,14 +1572,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1557,7 +1596,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1573,24 +1612,24 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1612,18 +1651,18 @@
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1632,14 +1671,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1649,14 +1688,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1665,14 +1704,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1682,14 +1721,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1698,14 +1737,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1715,14 +1754,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1731,14 +1770,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1748,14 +1787,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1764,14 +1803,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1781,14 +1820,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
+        <v>54</v>
+      </c>
+      <c t="s" r="Q17" s="12">
         <v>55</v>
-      </c>
-      <c t="s" r="Q17" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1804,7 +1843,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1814,14 +1853,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1830,14 +1869,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1847,14 +1886,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1863,14 +1902,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1880,11 +1919,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1896,14 +1935,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1913,14 +1952,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1929,14 +1968,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1946,14 +1985,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1962,14 +2001,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2002,7 +2041,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2035,7 +2074,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2045,14 +2084,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2061,14 +2100,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2085,7 +2124,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2101,7 +2140,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2118,7 +2157,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2134,7 +2173,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2144,7 +2183,7 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
@@ -2177,14 +2216,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>18</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2193,14 +2232,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2210,14 +2249,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2226,14 +2265,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2243,11 +2282,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2259,14 +2298,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2276,14 +2315,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2292,14 +2331,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>104</v>
+        <v>36</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2309,14 +2348,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2325,7 +2364,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2342,14 +2381,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2358,14 +2397,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2382,7 +2421,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2398,7 +2437,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2408,14 +2447,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2424,14 +2463,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2441,14 +2480,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2457,14 +2496,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2474,14 +2513,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2490,14 +2529,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2507,11 +2546,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2523,31 +2562,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2556,14 +2595,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2573,14 +2612,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>14</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>15</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2589,28 +2628,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>35</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2622,28 +2661,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2655,14 +2694,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2672,14 +2711,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>114</v>
+        <v>14</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2688,31 +2727,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2721,14 +2760,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2738,11 +2777,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2754,14 +2793,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2771,14 +2810,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2787,14 +2826,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2804,14 +2843,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2820,14 +2859,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2837,11 +2876,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>46</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>47</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2853,14 +2892,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2870,11 +2909,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2886,14 +2925,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2903,11 +2942,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2919,28 +2958,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>49</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2952,14 +2991,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2969,11 +3008,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2985,14 +3024,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>158</v>
+        <v>26</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3002,14 +3041,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>161</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3018,28 +3057,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3051,14 +3090,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>166</v>
+        <v>40</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3068,11 +3107,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3084,14 +3123,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>168</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3101,14 +3140,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
+        <v>170</v>
+      </c>
+      <c t="s" r="Q57" s="12">
         <v>171</v>
-      </c>
-      <c t="s" r="Q57" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3124,7 +3163,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3157,24 +3196,24 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>176</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>101</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3190,7 +3229,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>21</v>
+        <v>179</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3200,14 +3239,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3216,14 +3255,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3233,11 +3272,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3249,14 +3288,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>185</v>
+        <v>93</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3266,14 +3305,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3282,31 +3321,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>23</v>
+        <v>187</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>111</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3315,31 +3354,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>84</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3348,14 +3387,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3365,14 +3404,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3381,31 +3420,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>37</v>
+        <v>196</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>54</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3414,28 +3453,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>109</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3447,28 +3486,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>94</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3480,28 +3519,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>21</v>
@@ -3513,24 +3552,24 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>61</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
@@ -3553,7 +3592,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3563,11 +3602,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3579,14 +3618,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3596,11 +3635,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>129</v>
+        <v>212</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>35</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3612,28 +3651,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>63</v>
+        <v>215</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>21</v>
@@ -3645,14 +3684,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3662,11 +3701,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3678,31 +3717,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3711,14 +3750,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>219</v>
+        <v>40</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3728,14 +3767,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>139</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>70</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3751,7 +3790,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3761,14 +3800,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>192</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3777,14 +3816,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3794,11 +3833,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>141</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>142</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3810,31 +3849,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>97</v>
+        <v>212</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>52</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3843,14 +3882,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>227</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3860,14 +3899,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>228</v>
+        <v>124</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>229</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3883,7 +3922,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>37</v>
+        <v>231</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3893,14 +3932,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3909,14 +3948,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3926,11 +3965,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>234</v>
+        <v>94</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3942,28 +3981,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>237</v>
+        <v>40</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3975,31 +4014,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>166</v>
+        <v>36</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>241</v>
+        <v>151</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>242</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4008,31 +4047,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>244</v>
+        <v>107</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4041,31 +4080,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>33</v>
+        <v>242</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4074,28 +4113,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>248</v>
+        <v>40</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4107,31 +4146,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>253</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4140,31 +4179,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>37</v>
+        <v>252</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>255</v>
+        <v>23</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>177</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>256</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4173,31 +4212,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>179</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4206,28 +4245,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4239,28 +4278,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>260</v>
+        <v>36</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>241</v>
+        <v>23</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4272,66 +4311,264 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>33</v>
+        <v>262</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
-      <c r="P94" s="13">
-        <v>6566.5249999999996</v>
-      </c>
-      <c r="Q94" s="13"/>
-    </row>
-    <row r="95" ht="16.5" customHeight="1">
-      <c t="s" r="A95" s="14">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
+        <v>265</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>40</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>34</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>243</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>266</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
+        <v>268</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>40</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>34</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>269</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>188</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
+        <v>271</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>16</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>34</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>258</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>259</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
+        <v>272</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>93</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>34</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
         <v>263</v>
       </c>
-      <c r="B95" s="14"/>
-      <c r="C95" s="14"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14"/>
-      <c t="s" r="G95" s="15">
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
         <v>264</v>
       </c>
-      <c r="H95" s="15"/>
-      <c r="I95" s="15"/>
-      <c r="J95" s="16"/>
-      <c t="s" r="K95" s="17">
-        <v>265</v>
-      </c>
-      <c r="L95" s="17"/>
-      <c r="M95" s="17"/>
-      <c r="N95" s="17"/>
-      <c r="O95" s="17"/>
-      <c r="P95" s="17"/>
-      <c r="Q95" s="17"/>
+      <c t="s" r="Q97" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
+        <v>273</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>274</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>34</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>255</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
+        <v>59</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
+        <v>275</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>36</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>34</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>255</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
+        <v>59</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="P100" s="13">
+        <v>6854.0249999999996</v>
+      </c>
+      <c r="Q100" s="13"/>
+    </row>
+    <row r="101" ht="16.5" customHeight="1">
+      <c t="s" r="A101" s="14">
+        <v>276</v>
+      </c>
+      <c r="B101" s="14"/>
+      <c r="C101" s="14"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="14"/>
+      <c r="F101" s="14"/>
+      <c t="s" r="G101" s="15">
+        <v>277</v>
+      </c>
+      <c r="H101" s="15"/>
+      <c r="I101" s="15"/>
+      <c r="J101" s="16"/>
+      <c t="s" r="K101" s="17">
+        <v>278</v>
+      </c>
+      <c r="L101" s="17"/>
+      <c r="M101" s="17"/>
+      <c r="N101" s="17"/>
+      <c r="O101" s="17"/>
+      <c r="P101" s="17"/>
+      <c r="Q101" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="447">
+  <mergeCells count="477">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4775,10 +5012,40 @@
     <mergeCell ref="H93:K93"/>
     <mergeCell ref="L93:M93"/>
     <mergeCell ref="N93:O93"/>
-    <mergeCell ref="P94:Q94"/>
-    <mergeCell ref="A95:F95"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="K95:Q95"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="P100:Q100"/>
+    <mergeCell ref="A101:F101"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="K101:Q101"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-03_00-00.xlsx
+++ b/DaySale_2025-09-03_00-00.xlsx
@@ -395,7 +395,7 @@
     <t>22.00</t>
   </si>
   <si>
-    <t>44.0000</t>
+    <t>66.0000</t>
   </si>
   <si>
     <t>GAST-REG 200 MG 30 TABS.</t>
@@ -839,7 +839,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Wednesday, 3 September, 2025 10:15 PM</t>
+    <t>Wednesday, 3 September, 2025 10:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2569,7 +2569,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2586,7 +2586,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -4538,7 +4538,7 @@
     </row>
     <row r="100" ht="24.75" customHeight="1">
       <c r="P100" s="13">
-        <v>6854.0249999999996</v>
+        <v>6876.0249999999996</v>
       </c>
       <c r="Q100" s="13"/>
     </row>

--- a/DaySale_2025-09-03_00-00.xlsx
+++ b/DaySale_2025-09-03_00-00.xlsx
@@ -371,6 +371,15 @@
     <t>90.0000</t>
   </si>
   <si>
+    <t>FOOT SMART CREAM 60 GM</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t>FUSI 2% CREAM 15 GM</t>
   </si>
   <si>
@@ -473,12 +482,6 @@
     <t>LICID LOTION 30 ML</t>
   </si>
   <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
     <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
   </si>
   <si>
@@ -839,7 +842,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Wednesday, 3 September, 2025 10:18 PM</t>
+    <t>Wednesday, 3 September, 2025 10:25 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2503,7 +2506,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2520,7 +2523,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2536,7 +2539,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2553,7 +2556,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2569,7 +2572,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2586,7 +2589,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2602,7 +2605,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2619,7 +2622,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2635,7 +2638,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2652,7 +2655,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2668,21 +2671,21 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2694,28 +2697,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>15</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2727,7 +2730,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2740,15 +2743,15 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>14</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2760,28 +2763,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2800,7 +2803,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2810,14 +2813,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2826,14 +2829,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2843,11 +2846,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2866,7 +2869,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2883,7 +2886,7 @@
         <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2899,7 +2902,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2932,7 +2935,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2965,7 +2968,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2975,11 +2978,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>49</v>
+        <v>121</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>50</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2998,7 +3001,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3008,11 +3011,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>49</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3024,14 +3027,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3041,11 +3044,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3057,28 +3060,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3090,28 +3093,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>141</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3130,7 +3133,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>168</v>
+        <v>40</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3140,14 +3143,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>171</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3156,14 +3159,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>21</v>
+        <v>169</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3173,14 +3176,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>172</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3189,14 +3192,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3206,11 +3209,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3222,14 +3225,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>179</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3239,11 +3242,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3255,14 +3258,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>180</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3272,11 +3275,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3288,14 +3291,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3305,11 +3308,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3328,24 +3331,24 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>187</v>
+        <v>93</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>111</v>
+        <v>177</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3354,28 +3357,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>21</v>
+        <v>188</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>111</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>21</v>
@@ -3387,14 +3390,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3404,14 +3407,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3420,14 +3423,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>196</v>
+        <v>26</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3437,14 +3440,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3453,31 +3456,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>26</v>
+        <v>197</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3486,14 +3489,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3503,11 +3506,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>94</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3519,31 +3522,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>94</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3552,31 +3555,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>61</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3585,7 +3588,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3598,15 +3601,15 @@
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>210</v>
+        <v>61</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>119</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3618,7 +3621,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3635,11 +3638,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3651,31 +3654,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3684,31 +3687,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3717,7 +3720,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3734,11 +3737,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>119</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3767,11 +3770,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>139</v>
+        <v>211</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3790,7 +3793,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3800,14 +3803,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>70</v>
+        <v>142</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3816,7 +3819,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3833,14 +3836,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>70</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3849,31 +3852,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3882,31 +3885,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>124</v>
+        <v>213</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>125</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3922,7 +3925,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>231</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3932,14 +3935,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>232</v>
+        <v>127</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>233</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3948,14 +3951,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>40</v>
+        <v>232</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3965,14 +3968,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>94</v>
+        <v>233</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3998,11 +4001,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>236</v>
+        <v>94</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>237</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4014,14 +4017,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4031,11 +4034,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>151</v>
+        <v>237</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>152</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4054,7 +4057,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4064,14 +4067,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>107</v>
+        <v>154</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>240</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4080,14 +4083,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>242</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4097,14 +4100,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>243</v>
+        <v>107</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>36</v>
+        <v>55</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4113,14 +4116,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>40</v>
+        <v>243</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4130,14 +4133,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4146,14 +4149,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4163,11 +4166,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4179,28 +4182,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>252</v>
+        <v>93</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>23</v>
+        <v>250</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4212,14 +4215,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>179</v>
+        <v>253</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4229,14 +4232,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>255</v>
+        <v>23</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4245,14 +4248,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>93</v>
+        <v>180</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4262,14 +4265,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4278,14 +4281,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4295,11 +4298,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>23</v>
+        <v>259</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4318,7 +4321,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>262</v>
+        <v>36</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4328,11 +4331,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>263</v>
+        <v>23</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4344,14 +4347,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>40</v>
+        <v>263</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4361,14 +4364,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>243</v>
+        <v>264</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>267</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4377,7 +4380,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4394,14 +4397,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>188</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4410,14 +4413,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4427,14 +4430,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>259</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>271</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4450,7 +4453,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4460,11 +4463,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4483,7 +4486,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>274</v>
+        <v>93</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4493,11 +4496,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>59</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4509,14 +4512,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>36</v>
+        <v>275</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4526,7 +4529,7 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
@@ -4537,38 +4540,71 @@
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
-      <c r="P100" s="13">
-        <v>6876.0249999999996</v>
-      </c>
-      <c r="Q100" s="13"/>
-    </row>
-    <row r="101" ht="16.5" customHeight="1">
-      <c t="s" r="A101" s="14">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
         <v>276</v>
       </c>
-      <c r="B101" s="14"/>
-      <c r="C101" s="14"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="14"/>
-      <c r="F101" s="14"/>
-      <c t="s" r="G101" s="15">
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>36</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>34</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>256</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
+        <v>59</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="P101" s="13">
+        <v>6916.0249999999996</v>
+      </c>
+      <c r="Q101" s="13"/>
+    </row>
+    <row r="102" ht="16.5" customHeight="1">
+      <c t="s" r="A102" s="14">
         <v>277</v>
       </c>
-      <c r="H101" s="15"/>
-      <c r="I101" s="15"/>
-      <c r="J101" s="16"/>
-      <c t="s" r="K101" s="17">
+      <c r="B102" s="14"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="14"/>
+      <c r="F102" s="14"/>
+      <c t="s" r="G102" s="15">
         <v>278</v>
       </c>
-      <c r="L101" s="17"/>
-      <c r="M101" s="17"/>
-      <c r="N101" s="17"/>
-      <c r="O101" s="17"/>
-      <c r="P101" s="17"/>
-      <c r="Q101" s="17"/>
+      <c r="H102" s="15"/>
+      <c r="I102" s="15"/>
+      <c r="J102" s="16"/>
+      <c t="s" r="K102" s="17">
+        <v>279</v>
+      </c>
+      <c r="L102" s="17"/>
+      <c r="M102" s="17"/>
+      <c r="N102" s="17"/>
+      <c r="O102" s="17"/>
+      <c r="P102" s="17"/>
+      <c r="Q102" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="477">
+  <mergeCells count="482">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5042,10 +5078,15 @@
     <mergeCell ref="H99:K99"/>
     <mergeCell ref="L99:M99"/>
     <mergeCell ref="N99:O99"/>
-    <mergeCell ref="P100:Q100"/>
-    <mergeCell ref="A101:F101"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="K101:Q101"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="P101:Q101"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="K102:Q102"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-03_00-00.xlsx
+++ b/DaySale_2025-09-03_00-00.xlsx
@@ -269,6 +269,18 @@
     <t>80.0000</t>
   </si>
   <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
     <t>COVERSYL 5MG 15 F.C. TAB.</t>
   </si>
   <si>
@@ -326,6 +338,15 @@
     <t>63.8400</t>
   </si>
   <si>
+    <t>DOLPHIN 25 MG 10 SUPP.</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
     <t>DURICEF 500MG/5ML SUSP. 60ML</t>
   </si>
   <si>
@@ -392,12 +413,6 @@
     <t>FUSI 2% OINT. 15 GM</t>
   </si>
   <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
     <t>GARAMYCIN 0.1% CREAM 15 GM</t>
   </si>
   <si>
@@ -431,6 +446,15 @@
     <t>180.0000</t>
   </si>
   <si>
+    <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>92.0000</t>
+  </si>
+  <si>
     <t>HISTAZINE-1 0.1% SYRUP 100ML</t>
   </si>
   <si>
@@ -476,261 +500,261 @@
     <t>39.00</t>
   </si>
   <si>
+    <t>LICID LOTION 30 ML</t>
+  </si>
+  <si>
+    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>MAXOPHAGE XR 1000MG 30 EXT. REL. TABS.</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>MILGA ADVANCE 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>150.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIRFENACIN MR5/25  TAB</t>
+  </si>
+  <si>
+    <t>339.00</t>
+  </si>
+  <si>
+    <t>339.0000</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG 10 TAB.</t>
+  </si>
+  <si>
+    <t>NEUROVIT 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>-33.0000</t>
+  </si>
+  <si>
+    <t>0:-3</t>
+  </si>
+  <si>
+    <t>NEVILOB 5 MG 21 TAB</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>99.0000</t>
+  </si>
+  <si>
+    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>OLOHISTINE 1MG/ML OPHTHALMIC SOL. 5 ML</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>29.00</t>
+  </si>
+  <si>
+    <t>29.0000</t>
+  </si>
+  <si>
+    <t>OPLEX-N SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>OTRIVIN BABY SALINE NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>PANTAZOL 40MG 14 ENTERIC COATED TAB.</t>
+  </si>
+  <si>
+    <t>104.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>PK-MERZ 100MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>81.0000</t>
+  </si>
+  <si>
+    <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
+  </si>
+  <si>
+    <t>1:16</t>
+  </si>
+  <si>
+    <t>752.00</t>
+  </si>
+  <si>
+    <t>37.6000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RELAX  CAPS</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>63.0000</t>
+  </si>
+  <si>
+    <t>RICHI PANTHENOL ADVANCE GEL</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>SALMETOCORT 250/50MCG 60 PD. INH. CAPS.+ INH. DEVICE</t>
+  </si>
+  <si>
+    <t>237.00</t>
+  </si>
+  <si>
+    <t>37.9200</t>
+  </si>
+  <si>
+    <t>SENSODERM SOAP تي اس</t>
+  </si>
+  <si>
+    <t>64.0000</t>
+  </si>
+  <si>
+    <t>SILIPEX 30 CAPSULES</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>STARVILLE WHITENING ANTIPRESPIRANT ROLL-ON 60 ML</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>TEMPO COOL</t>
+  </si>
+  <si>
+    <t>34.19</t>
+  </si>
+  <si>
+    <t>17.0950</t>
+  </si>
+  <si>
+    <t>TRESIBA 100 I.U./ML FLEXTOUCH PRE-FILLED PEN</t>
+  </si>
+  <si>
+    <t>550.00</t>
+  </si>
+  <si>
+    <t>550.0000</t>
+  </si>
+  <si>
+    <t>TRIBATENS 20/5/12.5MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>TRIPLIXAM 10/2.5/10MG 15 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>TRITTICO 100MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>21.5000</t>
+  </si>
+  <si>
+    <t>TRIVASTAL RETARD 50MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>47.50</t>
+  </si>
+  <si>
+    <t>47.5000</t>
+  </si>
+  <si>
+    <t>TRUZYM TAB</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>URAID-N EFF. GRANUL. 12 SACHETS</t>
+  </si>
+  <si>
+    <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>175.00</t>
+  </si>
+  <si>
+    <t>290.5000</t>
+  </si>
+  <si>
+    <t>VENTAMOR BLACK CHARCOAL SOAP 100 GM</t>
+  </si>
+  <si>
+    <t>VIAGRA 50MG 4 F.C. TAB</t>
+  </si>
+  <si>
+    <t>112.00</t>
+  </si>
+  <si>
+    <t>112.0000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 1% EMULGEL 25 GM</t>
+  </si>
+  <si>
     <t>39.0000</t>
   </si>
   <si>
-    <t>LICID LOTION 30 ML</t>
-  </si>
-  <si>
-    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>MAXOPHAGE XR 1000MG 30 EXT. REL. TABS.</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>MILGA ADVANCE 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>150.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIRFENACIN MR5/25  TAB</t>
-  </si>
-  <si>
-    <t>339.00</t>
-  </si>
-  <si>
-    <t>339.0000</t>
-  </si>
-  <si>
-    <t>MOBITIL 15MG 10 TAB.</t>
-  </si>
-  <si>
-    <t>NEUROVIT 6 I.M. AMPS</t>
-  </si>
-  <si>
-    <t>2:3</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>-33.0000</t>
-  </si>
-  <si>
-    <t>0:-3</t>
-  </si>
-  <si>
-    <t>NEVILOB 5 MG 21 TAB</t>
-  </si>
-  <si>
-    <t>99.00</t>
-  </si>
-  <si>
-    <t>99.0000</t>
-  </si>
-  <si>
-    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>OLOHISTINE 1MG/ML OPHTHALMIC SOL. 5 ML</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>29.00</t>
-  </si>
-  <si>
-    <t>29.0000</t>
-  </si>
-  <si>
-    <t>OPLEX-N SYRUP 125ML</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>OTRIVIN BABY SALINE NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>PANADOL EXTRA 48 TAB</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>PANTAZOL 40MG 14 ENTERIC COATED TAB.</t>
-  </si>
-  <si>
-    <t>104.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>PK-MERZ 100MG 30 F.C. TAB</t>
-  </si>
-  <si>
-    <t>81.00</t>
-  </si>
-  <si>
-    <t>81.0000</t>
-  </si>
-  <si>
-    <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
-  </si>
-  <si>
-    <t>1:16</t>
-  </si>
-  <si>
-    <t>752.00</t>
-  </si>
-  <si>
-    <t>37.6000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RELAX  CAPS</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>63.0000</t>
-  </si>
-  <si>
-    <t>RICHI PANTHENOL ADVANCE GEL</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t>SALMETOCORT 250/50MCG 60 PD. INH. CAPS.+ INH. DEVICE</t>
-  </si>
-  <si>
-    <t>237.00</t>
-  </si>
-  <si>
-    <t>37.9200</t>
-  </si>
-  <si>
-    <t>SENSODERM SOAP تي اس</t>
-  </si>
-  <si>
-    <t>64.0000</t>
-  </si>
-  <si>
-    <t>SILIPEX 30 CAPSULES</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>STARVILLE WHITENING ANTIPRESPIRANT ROLL-ON 60 ML</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t>TEMPO COOL</t>
-  </si>
-  <si>
-    <t>34.19</t>
-  </si>
-  <si>
-    <t>17.0950</t>
-  </si>
-  <si>
-    <t>TRESIBA 100 I.U./ML FLEXTOUCH PRE-FILLED PEN</t>
-  </si>
-  <si>
-    <t>550.00</t>
-  </si>
-  <si>
-    <t>550.0000</t>
-  </si>
-  <si>
-    <t>TRIBATENS 20/5/12.5MG 30 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>TRIPLIXAM 10/2.5/10MG 15 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>TRITTICO 100MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>21.5000</t>
-  </si>
-  <si>
-    <t>TRIVASTAL RETARD 50MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>47.50</t>
-  </si>
-  <si>
-    <t>47.5000</t>
-  </si>
-  <si>
-    <t>TRUZYM TAB</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>URAID-N EFF. GRANUL. 12 SACHETS</t>
-  </si>
-  <si>
-    <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>0:-1</t>
-  </si>
-  <si>
-    <t>175.00</t>
-  </si>
-  <si>
-    <t>290.5000</t>
-  </si>
-  <si>
-    <t>VENTAMOR BLACK CHARCOAL SOAP 100 GM</t>
-  </si>
-  <si>
-    <t>VIAGRA 50MG 4 F.C. TAB</t>
-  </si>
-  <si>
-    <t>112.00</t>
-  </si>
-  <si>
-    <t>112.0000</t>
-  </si>
-  <si>
-    <t>VOLTAREN 1% EMULGEL 25 GM</t>
-  </si>
-  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -740,13 +764,13 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8328:0</t>
+    <t>8326:0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>4.0000</t>
+    <t>8.0000</t>
   </si>
   <si>
     <t>ZITHROKAN 200MG/5ML PD. FOR ORAL SUSP. 15 ML</t>
@@ -2143,7 +2167,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2153,11 +2177,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -2169,7 +2193,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -2186,11 +2210,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2202,14 +2226,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2226,7 +2250,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2242,7 +2266,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2252,14 +2276,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>18</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2268,14 +2292,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2285,14 +2309,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2301,14 +2325,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2318,14 +2342,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2334,14 +2358,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>36</v>
+        <v>107</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2351,14 +2375,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2367,14 +2391,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2384,11 +2408,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2400,14 +2424,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>36</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2417,14 +2441,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2440,7 +2464,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>114</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2450,14 +2474,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2466,14 +2490,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2490,7 +2514,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2506,7 +2530,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>40</v>
+        <v>121</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2516,14 +2540,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2532,14 +2556,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2549,14 +2573,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2565,14 +2589,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2582,11 +2606,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2598,14 +2622,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2615,14 +2639,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2631,14 +2655,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2648,14 +2672,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2664,7 +2688,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2681,14 +2705,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2697,31 +2721,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2747,11 +2771,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>14</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>15</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2763,14 +2787,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2780,11 +2804,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>38</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2796,14 +2820,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2813,11 +2837,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2829,14 +2853,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2846,14 +2870,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2862,31 +2886,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2895,14 +2919,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2912,11 +2936,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2928,14 +2952,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2945,14 +2969,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>110</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2961,14 +2985,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2978,14 +3002,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>121</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>122</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2994,14 +3018,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3011,11 +3035,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>49</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3027,14 +3051,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3044,14 +3068,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3060,14 +3084,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3077,11 +3101,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>128</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3100,21 +3124,21 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>49</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3126,14 +3150,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3143,11 +3167,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3166,7 +3190,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>169</v>
+        <v>26</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3176,14 +3200,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>172</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3192,28 +3216,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3225,14 +3249,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3242,11 +3266,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3258,14 +3282,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3275,14 +3299,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>179</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3291,14 +3315,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3308,11 +3332,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3324,14 +3348,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3341,11 +3365,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3357,31 +3381,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>111</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3397,7 +3421,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3414,7 +3438,7 @@
         <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3430,7 +3454,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3440,11 +3464,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3456,28 +3480,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>118</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>21</v>
@@ -3489,31 +3513,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3522,28 +3546,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>94</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3555,14 +3579,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>55</v>
+        <v>204</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3572,11 +3596,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>21</v>
@@ -3588,14 +3612,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3605,7 +3629,7 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>61</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
@@ -3634,15 +3658,15 @@
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>98</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>119</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3661,7 +3685,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3678,7 +3702,7 @@
         <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3694,7 +3718,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3704,14 +3728,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>216</v>
+        <v>61</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3720,7 +3744,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3737,11 +3761,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3753,7 +3777,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3770,11 +3794,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>119</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3793,24 +3817,24 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>142</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>38</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3819,14 +3843,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3836,14 +3860,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>70</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3852,14 +3876,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3869,11 +3893,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3885,7 +3909,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3898,18 +3922,18 @@
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>213</v>
+        <v>150</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>229</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3925,7 +3949,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3935,14 +3959,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>127</v>
+        <v>70</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>128</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3951,14 +3975,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>232</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3975,7 +3999,7 @@
         <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3997,18 +4021,18 @@
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>94</v>
+        <v>220</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>204</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4017,14 +4041,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4034,11 +4058,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>237</v>
+        <v>110</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>238</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4050,14 +4074,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>36</v>
+        <v>239</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4067,14 +4091,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>154</v>
+        <v>240</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>155</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4083,14 +4107,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4100,14 +4124,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>241</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4116,14 +4140,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>243</v>
+        <v>40</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4140,7 +4164,7 @@
         <v>245</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4156,7 +4180,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4166,11 +4190,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>247</v>
+        <v>162</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4182,14 +4206,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4199,14 +4223,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>250</v>
+        <v>114</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4215,31 +4239,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>23</v>
+        <v>252</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>97</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4248,31 +4272,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4281,28 +4305,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4314,14 +4338,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>36</v>
+        <v>261</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4335,7 +4359,7 @@
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4347,14 +4371,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>263</v>
+        <v>187</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4371,7 +4395,7 @@
         <v>265</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4387,7 +4411,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4397,14 +4421,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>268</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4420,7 +4444,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4430,14 +4454,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>270</v>
+        <v>23</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>189</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>271</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4446,14 +4470,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>16</v>
+        <v>271</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4463,11 +4487,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4479,14 +4503,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4496,14 +4520,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>276</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4512,14 +4536,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>275</v>
+        <v>40</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4529,14 +4553,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>59</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>279</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4545,14 +4569,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4562,49 +4586,148 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
+        <v>268</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
+        <v>281</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>97</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>34</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>272</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
+        <v>273</v>
+      </c>
+      <c t="s" r="Q101" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
+        <v>282</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>283</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>34</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>264</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
         <v>59</v>
       </c>
-      <c t="s" r="Q100" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="101" ht="25.5" customHeight="1">
-      <c r="P101" s="13">
-        <v>6916.0249999999996</v>
-      </c>
-      <c r="Q101" s="13"/>
-    </row>
-    <row r="102" ht="16.5" customHeight="1">
-      <c t="s" r="A102" s="14">
-        <v>277</v>
-      </c>
-      <c r="B102" s="14"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="14"/>
-      <c r="F102" s="14"/>
-      <c t="s" r="G102" s="15">
-        <v>278</v>
-      </c>
-      <c r="H102" s="15"/>
-      <c r="I102" s="15"/>
-      <c r="J102" s="16"/>
-      <c t="s" r="K102" s="17">
-        <v>279</v>
-      </c>
-      <c r="L102" s="17"/>
-      <c r="M102" s="17"/>
-      <c r="N102" s="17"/>
-      <c r="O102" s="17"/>
-      <c r="P102" s="17"/>
-      <c r="Q102" s="17"/>
+      <c t="s" r="Q102" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
+        <v>284</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>36</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>34</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>264</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>59</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="P104" s="13">
+        <v>7122.0249999999996</v>
+      </c>
+      <c r="Q104" s="13"/>
+    </row>
+    <row r="105" ht="16.5" customHeight="1">
+      <c t="s" r="A105" s="14">
+        <v>285</v>
+      </c>
+      <c r="B105" s="14"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="14"/>
+      <c r="F105" s="14"/>
+      <c t="s" r="G105" s="15">
+        <v>286</v>
+      </c>
+      <c r="H105" s="15"/>
+      <c r="I105" s="15"/>
+      <c r="J105" s="16"/>
+      <c t="s" r="K105" s="17">
+        <v>287</v>
+      </c>
+      <c r="L105" s="17"/>
+      <c r="M105" s="17"/>
+      <c r="N105" s="17"/>
+      <c r="O105" s="17"/>
+      <c r="P105" s="17"/>
+      <c r="Q105" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="482">
+  <mergeCells count="497">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5083,10 +5206,25 @@
     <mergeCell ref="H100:K100"/>
     <mergeCell ref="L100:M100"/>
     <mergeCell ref="N100:O100"/>
-    <mergeCell ref="P101:Q101"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="K102:Q102"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="P104:Q104"/>
+    <mergeCell ref="A105:F105"/>
+    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="K105:Q105"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-03_00-00.xlsx
+++ b/DaySale_2025-09-03_00-00.xlsx
@@ -866,7 +866,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Wednesday, 3 September, 2025 10:25 PM</t>
+    <t>Wednesday, 3 September, 2025 10:26 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-03_00-00.xlsx
+++ b/DaySale_2025-09-03_00-00.xlsx
@@ -773,6 +773,15 @@
     <t>8.0000</t>
   </si>
   <si>
+    <t>WESTAIR 4 MG 14 SACHETS</t>
+  </si>
+  <si>
+    <t>98.00</t>
+  </si>
+  <si>
+    <t>98.0000</t>
+  </si>
+  <si>
     <t>ZITHROKAN 200MG/5ML PD. FOR ORAL SUSP. 15 ML</t>
   </si>
   <si>
@@ -866,7 +875,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Wednesday, 3 September, 2025 10:26 PM</t>
+    <t>Wednesday, 3 September, 2025 10:28 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4312,7 +4321,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4345,17 +4354,17 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>261</v>
+        <v>97</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>23</v>
+        <v>261</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
@@ -4378,7 +4387,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>187</v>
+        <v>264</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4388,14 +4397,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>264</v>
+        <v>23</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
         <v>265</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4411,7 +4420,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>97</v>
+        <v>187</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4428,7 +4437,7 @@
         <v>268</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4444,7 +4453,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4454,11 +4463,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>23</v>
+        <v>270</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4470,14 +4479,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>271</v>
+        <v>36</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4487,11 +4496,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>272</v>
+        <v>23</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4503,14 +4512,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>40</v>
+        <v>274</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4520,14 +4529,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>276</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4553,11 +4562,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>196</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>279</v>
@@ -4576,7 +4585,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4586,14 +4595,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>268</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>282</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4602,14 +4611,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4619,11 +4628,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4635,14 +4644,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>283</v>
+        <v>97</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4652,11 +4661,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>59</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4668,14 +4677,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>36</v>
+        <v>286</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4685,7 +4694,7 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
@@ -4696,38 +4705,71 @@
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
-      <c r="P104" s="13">
-        <v>7122.0249999999996</v>
-      </c>
-      <c r="Q104" s="13"/>
-    </row>
-    <row r="105" ht="16.5" customHeight="1">
-      <c t="s" r="A105" s="14">
-        <v>285</v>
-      </c>
-      <c r="B105" s="14"/>
-      <c r="C105" s="14"/>
-      <c r="D105" s="14"/>
-      <c r="E105" s="14"/>
-      <c r="F105" s="14"/>
-      <c t="s" r="G105" s="15">
-        <v>286</v>
-      </c>
-      <c r="H105" s="15"/>
-      <c r="I105" s="15"/>
-      <c r="J105" s="16"/>
-      <c t="s" r="K105" s="17">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
         <v>287</v>
       </c>
-      <c r="L105" s="17"/>
-      <c r="M105" s="17"/>
-      <c r="N105" s="17"/>
-      <c r="O105" s="17"/>
-      <c r="P105" s="17"/>
-      <c r="Q105" s="17"/>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>36</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>34</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>267</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
+        <v>59</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="P105" s="13">
+        <v>7220.0249999999996</v>
+      </c>
+      <c r="Q105" s="13"/>
+    </row>
+    <row r="106" ht="16.5" customHeight="1">
+      <c t="s" r="A106" s="14">
+        <v>288</v>
+      </c>
+      <c r="B106" s="14"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="14"/>
+      <c r="F106" s="14"/>
+      <c t="s" r="G106" s="15">
+        <v>289</v>
+      </c>
+      <c r="H106" s="15"/>
+      <c r="I106" s="15"/>
+      <c r="J106" s="16"/>
+      <c t="s" r="K106" s="17">
+        <v>290</v>
+      </c>
+      <c r="L106" s="17"/>
+      <c r="M106" s="17"/>
+      <c r="N106" s="17"/>
+      <c r="O106" s="17"/>
+      <c r="P106" s="17"/>
+      <c r="Q106" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="497">
+  <mergeCells count="502">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5221,10 +5263,15 @@
     <mergeCell ref="H103:K103"/>
     <mergeCell ref="L103:M103"/>
     <mergeCell ref="N103:O103"/>
-    <mergeCell ref="P104:Q104"/>
-    <mergeCell ref="A105:F105"/>
-    <mergeCell ref="G105:I105"/>
-    <mergeCell ref="K105:Q105"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="P105:Q105"/>
+    <mergeCell ref="A106:F106"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="K106:Q106"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-03_00-00.xlsx
+++ b/DaySale_2025-09-03_00-00.xlsx
@@ -875,7 +875,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Wednesday, 3 September, 2025 10:28 PM</t>
+    <t>Wednesday, 3 September, 2025 10:30 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-03_00-00.xlsx
+++ b/DaySale_2025-09-03_00-00.xlsx
@@ -62,6 +62,21 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>ALPHINTERN 30 F.C.TABS</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>AMARYL 2 MG 30 TABS</t>
   </si>
   <si>
@@ -74,9 +89,6 @@
     <t>25.7400</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>AMRIZOLE 500 MG 20 TABS.</t>
   </si>
   <si>
@@ -389,283 +401,283 @@
     <t>180.00</t>
   </si>
   <si>
+    <t>270.0000</t>
+  </si>
+  <si>
+    <t>FOOT SMART CREAM 60 GM</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>88.0000</t>
+  </si>
+  <si>
+    <t>FUSI 2% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>GAST-REG 200 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>27.7200</t>
+  </si>
+  <si>
+    <t>GINKGO BILOBA 30 CAPS.</t>
+  </si>
+  <si>
+    <t>186.00</t>
+  </si>
+  <si>
+    <t>186.0000</t>
+  </si>
+  <si>
+    <t>HAIRVOGINE 30TAB</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>92.0000</t>
+  </si>
+  <si>
+    <t>HISTAZINE-1 0.1% SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>IVABRAGIN 5MG 30TAB</t>
+  </si>
+  <si>
+    <t>234.00</t>
+  </si>
+  <si>
+    <t>KENACOMB TOPICAL CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>LACRITEARS EYE DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
+    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>LICID LOTION 30 ML</t>
+  </si>
+  <si>
+    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>MAXOPHAGE XR 1000MG 30 EXT. REL. TABS.</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>MILGA ADVANCE 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>150.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIRFENACIN MR5/25  TAB</t>
+  </si>
+  <si>
+    <t>339.00</t>
+  </si>
+  <si>
+    <t>339.0000</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG 10 TAB.</t>
+  </si>
+  <si>
+    <t>NEUROVIT 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>-33.0000</t>
+  </si>
+  <si>
+    <t>0:-3</t>
+  </si>
+  <si>
+    <t>NEVILOB 5 MG 21 TAB</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>99.0000</t>
+  </si>
+  <si>
+    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>OLOHISTINE 1MG/ML OPHTHALMIC SOL. 5 ML</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>29.00</t>
+  </si>
+  <si>
+    <t>29.0000</t>
+  </si>
+  <si>
+    <t>OPLEX-N SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>OTRIVIN BABY SALINE NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>PANTAZOL 40MG 14 ENTERIC COATED TAB.</t>
+  </si>
+  <si>
+    <t>104.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>PK-MERZ 100MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>81.0000</t>
+  </si>
+  <si>
+    <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
+  </si>
+  <si>
+    <t>1:16</t>
+  </si>
+  <si>
+    <t>752.00</t>
+  </si>
+  <si>
+    <t>37.6000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RELAX  CAPS</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>63.0000</t>
+  </si>
+  <si>
+    <t>RICHI PANTHENOL ADVANCE GEL</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>SALMETOCORT 250/50MCG 60 PD. INH. CAPS.+ INH. DEVICE</t>
+  </si>
+  <si>
+    <t>237.00</t>
+  </si>
+  <si>
+    <t>37.9200</t>
+  </si>
+  <si>
+    <t>SENSODERM SOAP تي اس</t>
+  </si>
+  <si>
+    <t>64.0000</t>
+  </si>
+  <si>
+    <t>SILIPEX 30 CAPSULES</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
     <t>90.0000</t>
-  </si>
-  <si>
-    <t>FOOT SMART CREAM 60 GM</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>FUSI 2% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>88.0000</t>
-  </si>
-  <si>
-    <t>FUSI 2% OINT. 15 GM</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>GAST-REG 200 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>84.00</t>
-  </si>
-  <si>
-    <t>27.7200</t>
-  </si>
-  <si>
-    <t>GINKGO BILOBA 30 CAPS.</t>
-  </si>
-  <si>
-    <t>186.00</t>
-  </si>
-  <si>
-    <t>186.0000</t>
-  </si>
-  <si>
-    <t>HAIRVOGINE 30TAB</t>
-  </si>
-  <si>
-    <t>180.0000</t>
-  </si>
-  <si>
-    <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>92.0000</t>
-  </si>
-  <si>
-    <t>HISTAZINE-1 0.1% SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>IVABRAGIN 5MG 30TAB</t>
-  </si>
-  <si>
-    <t>234.00</t>
-  </si>
-  <si>
-    <t>KENACOMB TOPICAL CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 10MG 20 TAB</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>LACRITEARS EYE DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>49.00</t>
-  </si>
-  <si>
-    <t>49.0000</t>
-  </si>
-  <si>
-    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>LICID LOTION 30 ML</t>
-  </si>
-  <si>
-    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>MAXOPHAGE XR 1000MG 30 EXT. REL. TABS.</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>MILGA ADVANCE 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>150.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIRFENACIN MR5/25  TAB</t>
-  </si>
-  <si>
-    <t>339.00</t>
-  </si>
-  <si>
-    <t>339.0000</t>
-  </si>
-  <si>
-    <t>MOBITIL 15MG 10 TAB.</t>
-  </si>
-  <si>
-    <t>NEUROVIT 6 I.M. AMPS</t>
-  </si>
-  <si>
-    <t>2:3</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>-33.0000</t>
-  </si>
-  <si>
-    <t>0:-3</t>
-  </si>
-  <si>
-    <t>NEVILOB 5 MG 21 TAB</t>
-  </si>
-  <si>
-    <t>99.00</t>
-  </si>
-  <si>
-    <t>99.0000</t>
-  </si>
-  <si>
-    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>OLOHISTINE 1MG/ML OPHTHALMIC SOL. 5 ML</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>29.00</t>
-  </si>
-  <si>
-    <t>29.0000</t>
-  </si>
-  <si>
-    <t>OPLEX-N SYRUP 125ML</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>OTRIVIN BABY SALINE NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>PANADOL EXTRA 48 TAB</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>PANTAZOL 40MG 14 ENTERIC COATED TAB.</t>
-  </si>
-  <si>
-    <t>104.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>PK-MERZ 100MG 30 F.C. TAB</t>
-  </si>
-  <si>
-    <t>81.00</t>
-  </si>
-  <si>
-    <t>81.0000</t>
-  </si>
-  <si>
-    <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
-  </si>
-  <si>
-    <t>1:16</t>
-  </si>
-  <si>
-    <t>752.00</t>
-  </si>
-  <si>
-    <t>37.6000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RELAX  CAPS</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>63.0000</t>
-  </si>
-  <si>
-    <t>RICHI PANTHENOL ADVANCE GEL</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t>SALMETOCORT 250/50MCG 60 PD. INH. CAPS.+ INH. DEVICE</t>
-  </si>
-  <si>
-    <t>237.00</t>
-  </si>
-  <si>
-    <t>37.9200</t>
-  </si>
-  <si>
-    <t>SENSODERM SOAP تي اس</t>
-  </si>
-  <si>
-    <t>64.0000</t>
-  </si>
-  <si>
-    <t>SILIPEX 30 CAPSULES</t>
-  </si>
-  <si>
-    <t>90.00</t>
   </si>
   <si>
     <t>STARVILLE WHITENING ANTIPRESPIRANT ROLL-ON 60 ML</t>
@@ -1582,7 +1594,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1592,11 +1604,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>21</v>
@@ -1608,14 +1620,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1632,7 +1644,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1648,7 +1660,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1658,14 +1670,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1674,31 +1686,31 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1707,31 +1719,31 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1764,7 +1776,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1797,7 +1809,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1830,7 +1842,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1863,7 +1875,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1872,14 +1884,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1889,14 +1901,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
+        <v>58</v>
+      </c>
+      <c t="s" r="Q18" s="12">
         <v>59</v>
-      </c>
-      <c t="s" r="Q18" s="12">
-        <v>55</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1912,7 +1924,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1922,14 +1934,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1938,14 +1950,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1955,14 +1967,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1971,14 +1983,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1988,14 +2000,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2004,14 +2016,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2021,14 +2033,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
         <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2077,7 +2089,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2087,11 +2099,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -2103,14 +2115,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2127,7 +2139,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2143,7 +2155,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2153,14 +2165,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2169,14 +2181,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2209,7 +2221,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2219,11 +2231,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2235,14 +2247,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2252,11 +2264,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2268,14 +2280,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2292,7 +2304,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2308,7 +2320,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2318,14 +2330,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>18</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2334,14 +2346,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>104</v>
+        <v>56</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2351,14 +2363,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2367,14 +2379,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2384,14 +2396,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2400,14 +2412,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2417,14 +2429,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>110</v>
+        <v>57</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2433,14 +2445,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>36</v>
+        <v>101</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2450,11 +2462,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>19</v>
+        <v>114</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2466,14 +2478,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2483,11 +2495,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>24</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2499,14 +2511,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2523,7 +2535,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2556,7 +2568,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2572,7 +2584,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>125</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2582,11 +2594,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2598,14 +2610,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2615,14 +2627,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2631,14 +2643,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2648,14 +2660,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2664,14 +2676,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2681,14 +2693,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2697,14 +2709,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2714,14 +2726,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2730,14 +2742,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2747,14 +2759,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2763,14 +2775,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2780,14 +2792,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2796,28 +2808,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2829,28 +2841,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2862,14 +2874,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2879,11 +2891,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>15</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2895,28 +2907,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>14</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2928,28 +2940,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2961,14 +2973,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2978,14 +2990,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>110</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>82</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2994,14 +3006,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3011,11 +3023,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>114</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -3027,14 +3039,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3044,14 +3056,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3060,14 +3072,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3077,14 +3089,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>102</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3093,14 +3105,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3110,14 +3122,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3126,14 +3138,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3143,11 +3155,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>49</v>
+        <v>132</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>50</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3159,14 +3171,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3176,11 +3188,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>166</v>
+        <v>53</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>167</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3192,14 +3204,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3209,11 +3221,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3225,28 +3237,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3258,28 +3270,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3291,14 +3303,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>176</v>
+        <v>44</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3308,14 +3320,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>179</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3324,14 +3336,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>21</v>
+        <v>180</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3348,7 +3360,7 @@
         <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>183</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3357,14 +3369,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3374,11 +3386,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3390,14 +3402,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>187</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3430,7 +3442,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>191</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3440,11 +3452,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3456,14 +3468,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3473,11 +3485,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3489,31 +3501,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>195</v>
+        <v>101</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>118</v>
+        <v>188</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3522,24 +3534,24 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>198</v>
+        <v>122</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
@@ -3562,7 +3574,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3579,7 +3591,7 @@
         <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3595,7 +3607,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>204</v>
+        <v>30</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3605,14 +3617,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3621,20 +3633,20 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>26</v>
+        <v>207</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
@@ -3645,7 +3657,7 @@
         <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3661,21 +3673,21 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>98</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3687,31 +3699,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>213</v>
+        <v>102</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
         <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3727,24 +3739,24 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>61</v>
+        <v>216</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3753,28 +3765,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>218</v>
+        <v>65</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>126</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3786,14 +3798,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3803,11 +3815,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3819,31 +3831,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3852,7 +3864,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3865,18 +3877,18 @@
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3885,14 +3897,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3902,11 +3914,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>126</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3918,14 +3930,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3935,11 +3947,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>150</v>
+        <v>221</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>38</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3951,14 +3963,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3968,14 +3980,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>70</v>
+        <v>154</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>231</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3984,7 +3996,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4001,14 +4013,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>233</v>
+        <v>74</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4017,31 +4029,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4050,31 +4062,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>110</v>
+        <v>224</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>111</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4083,14 +4095,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>239</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4100,14 +4112,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>240</v>
+        <v>114</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>241</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4123,7 +4135,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>40</v>
+        <v>243</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4133,14 +4145,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>98</v>
+        <v>244</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>211</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>84</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4149,14 +4161,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4166,11 +4178,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>244</v>
+        <v>102</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>245</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4182,14 +4194,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4199,11 +4211,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>162</v>
+        <v>248</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4215,14 +4227,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4232,14 +4244,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4248,14 +4260,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>251</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4265,14 +4277,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>252</v>
+        <v>118</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
         <v>253</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>97</v>
+        <v>59</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4288,7 +4300,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>40</v>
+        <v>255</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4298,14 +4310,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>101</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4314,14 +4326,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4331,11 +4343,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4347,14 +4359,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4364,11 +4376,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4380,28 +4392,28 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>264</v>
+        <v>101</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>23</v>
+        <v>265</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4413,31 +4425,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>187</v>
+        <v>268</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>267</v>
+        <v>27</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4446,31 +4458,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>97</v>
+        <v>191</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4479,28 +4491,28 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>36</v>
+        <v>101</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>23</v>
+        <v>274</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4512,28 +4524,28 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>274</v>
+        <v>40</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>275</v>
+        <v>27</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4552,24 +4564,24 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>40</v>
+        <v>278</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>279</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4578,31 +4590,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>281</v>
+        <v>256</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>196</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4611,31 +4623,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>271</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>286</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4644,28 +4656,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4677,28 +4689,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>286</v>
+        <v>101</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>59</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4710,66 +4722,99 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>36</v>
+        <v>290</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
-      <c r="P105" s="13">
-        <v>7220.0249999999996</v>
-      </c>
-      <c r="Q105" s="13"/>
-    </row>
-    <row r="106" ht="16.5" customHeight="1">
-      <c t="s" r="A106" s="14">
-        <v>288</v>
-      </c>
-      <c r="B106" s="14"/>
-      <c r="C106" s="14"/>
-      <c r="D106" s="14"/>
-      <c r="E106" s="14"/>
-      <c r="F106" s="14"/>
-      <c t="s" r="G106" s="15">
-        <v>289</v>
-      </c>
-      <c r="H106" s="15"/>
-      <c r="I106" s="15"/>
-      <c r="J106" s="16"/>
-      <c t="s" r="K106" s="17">
-        <v>290</v>
-      </c>
-      <c r="L106" s="17"/>
-      <c r="M106" s="17"/>
-      <c r="N106" s="17"/>
-      <c r="O106" s="17"/>
-      <c r="P106" s="17"/>
-      <c r="Q106" s="17"/>
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
+        <v>291</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>40</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>38</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>271</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
+        <v>63</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="P106" s="13">
+        <v>7428.7349999999997</v>
+      </c>
+      <c r="Q106" s="13"/>
+    </row>
+    <row r="107" ht="16.5" customHeight="1">
+      <c t="s" r="A107" s="14">
+        <v>292</v>
+      </c>
+      <c r="B107" s="14"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="14"/>
+      <c r="F107" s="14"/>
+      <c t="s" r="G107" s="15">
+        <v>293</v>
+      </c>
+      <c r="H107" s="15"/>
+      <c r="I107" s="15"/>
+      <c r="J107" s="16"/>
+      <c t="s" r="K107" s="17">
+        <v>294</v>
+      </c>
+      <c r="L107" s="17"/>
+      <c r="M107" s="17"/>
+      <c r="N107" s="17"/>
+      <c r="O107" s="17"/>
+      <c r="P107" s="17"/>
+      <c r="Q107" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="502">
+  <mergeCells count="507">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5268,10 +5313,15 @@
     <mergeCell ref="H104:K104"/>
     <mergeCell ref="L104:M104"/>
     <mergeCell ref="N104:O104"/>
-    <mergeCell ref="P105:Q105"/>
-    <mergeCell ref="A106:F106"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="K106:Q106"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="P106:Q106"/>
+    <mergeCell ref="A107:F107"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="K107:Q107"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-03_00-00.xlsx
+++ b/DaySale_2025-09-03_00-00.xlsx
@@ -887,7 +887,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Wednesday, 3 September, 2025 10:30 PM</t>
+    <t>Wednesday, 3 September, 2025 10:32 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-03_00-00.xlsx
+++ b/DaySale_2025-09-03_00-00.xlsx
@@ -386,13 +386,10 @@
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
-    <t>8:3</t>
-  </si>
-  <si>
     <t>24.00</t>
   </si>
   <si>
-    <t>3.8400</t>
+    <t>7.6800</t>
   </si>
   <si>
     <t>FEROGLOBIN 30 CAPS</t>
@@ -887,7 +884,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Wednesday, 3 September, 2025 10:32 PM</t>
+    <t>Wednesday, 3 September, 2025 10:40 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2584,7 +2581,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2594,14 +2591,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2610,7 +2607,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2627,11 +2624,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>23</v>
@@ -2643,7 +2640,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2660,11 +2657,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2676,7 +2673,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2693,11 +2690,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>40</v>
@@ -2709,7 +2706,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2742,7 +2739,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2759,11 +2756,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2775,7 +2772,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2792,11 +2789,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2808,7 +2805,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2825,11 +2822,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2841,7 +2838,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2858,11 +2855,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2874,7 +2871,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2891,11 +2888,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2907,7 +2904,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2940,7 +2937,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2957,7 +2954,7 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
@@ -2973,7 +2970,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2990,11 +2987,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -3006,7 +3003,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3039,7 +3036,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3056,11 +3053,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -3072,7 +3069,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3089,11 +3086,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3105,7 +3102,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3122,7 +3119,7 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
@@ -3138,7 +3135,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3155,11 +3152,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3171,7 +3168,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3204,7 +3201,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3221,11 +3218,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3237,7 +3234,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3254,11 +3251,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3270,7 +3267,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3287,11 +3284,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3303,7 +3300,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3320,11 +3317,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3336,14 +3333,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3353,14 +3350,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
+        <v>181</v>
+      </c>
+      <c t="s" r="Q62" s="12">
         <v>182</v>
-      </c>
-      <c t="s" r="Q62" s="12">
-        <v>183</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3369,7 +3366,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3386,11 +3383,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3402,7 +3399,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3419,11 +3416,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3435,14 +3432,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3452,11 +3449,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3468,7 +3465,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3485,11 +3482,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3501,7 +3498,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3518,11 +3515,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3534,7 +3531,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3555,7 +3552,7 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>21</v>
@@ -3567,7 +3564,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3584,11 +3581,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>21</v>
@@ -3600,7 +3597,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3617,11 +3614,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3633,14 +3630,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3650,11 +3647,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>21</v>
@@ -3666,7 +3663,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3683,11 +3680,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3699,7 +3696,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3720,7 +3717,7 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3732,7 +3729,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3749,11 +3746,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>21</v>
@@ -3765,7 +3762,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3786,7 +3783,7 @@
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3798,7 +3795,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3815,11 +3812,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3831,7 +3828,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3848,11 +3845,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3864,7 +3861,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3881,11 +3878,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>21</v>
@@ -3897,7 +3894,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3914,11 +3911,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3930,7 +3927,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3947,11 +3944,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3963,7 +3960,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3980,7 +3977,7 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
@@ -3996,7 +3993,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4017,7 +4014,7 @@
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>21</v>
@@ -4029,7 +4026,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4046,11 +4043,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4062,7 +4059,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4079,11 +4076,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>21</v>
@@ -4095,7 +4092,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4128,14 +4125,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4145,11 +4142,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>84</v>
@@ -4161,7 +4158,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4182,7 +4179,7 @@
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4194,7 +4191,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4211,11 +4208,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4227,7 +4224,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4244,11 +4241,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4260,7 +4257,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4281,7 +4278,7 @@
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>59</v>
@@ -4293,14 +4290,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4310,11 +4307,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>101</v>
@@ -4326,7 +4323,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4343,11 +4340,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4359,7 +4356,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4376,11 +4373,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4392,7 +4389,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4409,11 +4406,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4425,14 +4422,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4446,7 +4443,7 @@
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4458,14 +4455,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4475,11 +4472,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>40</v>
@@ -4491,7 +4488,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4508,11 +4505,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4524,7 +4521,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4545,7 +4542,7 @@
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4557,14 +4554,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4574,11 +4571,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4590,7 +4587,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4607,14 +4604,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
+        <v>281</v>
+      </c>
+      <c t="s" r="Q100" s="12">
         <v>282</v>
-      </c>
-      <c t="s" r="Q100" s="12">
-        <v>283</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4623,7 +4620,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4640,14 +4637,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4656,7 +4653,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4673,11 +4670,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4689,7 +4686,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4706,11 +4703,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4722,14 +4719,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4739,7 +4736,7 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
@@ -4755,7 +4752,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4772,7 +4769,7 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
@@ -4784,13 +4781,13 @@
     </row>
     <row r="106" ht="25.5" customHeight="1">
       <c r="P106" s="13">
-        <v>7428.7349999999997</v>
+        <v>7432.5749999999998</v>
       </c>
       <c r="Q106" s="13"/>
     </row>
     <row r="107" ht="16.5" customHeight="1">
       <c t="s" r="A107" s="14">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B107" s="14"/>
       <c r="C107" s="14"/>
@@ -4798,13 +4795,13 @@
       <c r="E107" s="14"/>
       <c r="F107" s="14"/>
       <c t="s" r="G107" s="15">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H107" s="15"/>
       <c r="I107" s="15"/>
       <c r="J107" s="16"/>
       <c t="s" r="K107" s="17">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L107" s="17"/>
       <c r="M107" s="17"/>

--- a/DaySale_2025-09-03_00-00.xlsx
+++ b/DaySale_2025-09-03_00-00.xlsx
@@ -293,6 +293,15 @@
     <t>33.0000</t>
   </si>
   <si>
+    <t>COSMOFER 50MG/ML FOR INF. 5 AMPS.</t>
+  </si>
+  <si>
+    <t>470.00</t>
+  </si>
+  <si>
+    <t>188.0000</t>
+  </si>
+  <si>
     <t>COVERSYL 5MG 15 F.C. TAB.</t>
   </si>
   <si>
@@ -323,6 +332,15 @@
     <t>68.0000</t>
   </si>
   <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
   </si>
   <si>
@@ -476,9 +494,6 @@
     <t>KENACOMB TOPICAL CREAM 15 GM</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
     <t>36.0000</t>
   </si>
   <si>
@@ -839,6 +854,12 @@
     <t>جل صبار برطمان</t>
   </si>
   <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>65:0</t>
+  </si>
+  <si>
     <t>رول اون ريكسونا25</t>
   </si>
   <si>
@@ -866,25 +887,34 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>9:0</t>
-  </si>
-  <si>
     <t>قطن 50جم</t>
   </si>
   <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t>كريم فيبكس الازرق</t>
   </si>
   <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>31:0</t>
+  </si>
+  <si>
     <t>مناديل FINE</t>
   </si>
   <si>
-    <t>31:0</t>
-  </si>
-  <si>
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Wednesday, 3 September, 2025 10:40 PM</t>
+    <t>Wednesday, 3 September, 2025 10:42 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2251,7 +2281,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2268,7 +2298,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2317,7 +2347,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2327,14 +2357,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2343,14 +2373,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2367,7 +2397,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>23</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2383,7 +2413,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>108</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2393,14 +2423,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>109</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2416,7 +2446,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2426,7 +2456,7 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>57</v>
+        <v>111</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
@@ -2449,7 +2479,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2459,7 +2489,7 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>114</v>
+        <v>41</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
@@ -2482,7 +2512,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2492,14 +2522,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2508,14 +2538,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>23</v>
+        <v>104</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2525,11 +2555,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2541,14 +2571,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>121</v>
+        <v>40</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2558,14 +2588,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>122</v>
+        <v>24</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2574,14 +2604,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2591,14 +2621,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2607,14 +2637,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>21</v>
+        <v>127</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2631,7 +2661,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>23</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2647,7 +2677,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2664,7 +2694,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2680,7 +2710,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2697,7 +2727,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2713,7 +2743,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2723,11 +2753,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2739,14 +2769,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2756,14 +2786,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2772,14 +2802,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2789,14 +2819,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2829,7 +2859,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2845,24 +2875,24 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2871,14 +2901,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2888,11 +2918,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2904,28 +2934,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>14</v>
+        <v>134</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>15</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2937,28 +2967,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>42</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2970,14 +3000,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2987,11 +3017,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>14</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -3003,31 +3033,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>114</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3036,14 +3066,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>37</v>
+        <v>104</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3053,14 +3083,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>108</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3069,7 +3099,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3086,14 +3116,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>120</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3102,14 +3132,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3119,14 +3149,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>106</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3142,7 +3172,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3152,11 +3182,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3168,14 +3198,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3185,14 +3215,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>53</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3201,14 +3231,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3218,11 +3248,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3234,14 +3264,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3251,11 +3281,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>172</v>
+        <v>53</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>173</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3267,28 +3297,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3300,14 +3330,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3317,11 +3347,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3333,20 +3363,20 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>179</v>
+        <v>84</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
@@ -3357,7 +3387,7 @@
         <v>181</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>182</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3366,14 +3396,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3383,11 +3413,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>184</v>
+        <v>108</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3399,14 +3429,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>184</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3416,14 +3446,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>187</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3432,14 +3462,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>190</v>
+        <v>21</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3449,11 +3479,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3465,14 +3495,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3482,11 +3512,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3498,14 +3528,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>101</v>
+        <v>195</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3515,11 +3545,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3531,31 +3561,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>122</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3564,14 +3594,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3581,14 +3611,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3604,24 +3634,24 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>128</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3630,14 +3660,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>206</v>
+        <v>21</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3647,11 +3677,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>21</v>
@@ -3663,7 +3693,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3676,15 +3706,15 @@
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3696,31 +3726,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>44</v>
+        <v>211</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>102</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
         <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3736,13 +3766,13 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
@@ -3753,7 +3783,7 @@
         <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3779,7 +3809,7 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
@@ -3802,7 +3832,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3819,7 +3849,7 @@
         <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3841,15 +3871,15 @@
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>65</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3861,31 +3891,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3894,7 +3924,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3911,11 +3941,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3927,31 +3957,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3960,7 +3990,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3977,11 +4007,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>153</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>42</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3993,14 +4023,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4010,14 +4040,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>74</v>
+        <v>225</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4026,14 +4056,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4043,11 +4073,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>236</v>
+        <v>159</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>237</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4066,17 +4096,17 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>223</v>
+        <v>74</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
@@ -4099,7 +4129,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4109,11 +4139,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>114</v>
+        <v>241</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>115</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4125,31 +4155,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>242</v>
+        <v>44</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
         <v>244</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>84</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4165,7 +4195,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4175,11 +4205,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>213</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4198,7 +4228,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>44</v>
+        <v>247</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4208,14 +4238,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>84</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4224,14 +4254,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4241,11 +4271,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>165</v>
+        <v>105</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>250</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4264,7 +4294,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4274,14 +4304,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>118</v>
+        <v>252</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4290,14 +4320,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>254</v>
+        <v>40</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4307,14 +4337,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>255</v>
+        <v>170</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>101</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4323,14 +4353,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4340,14 +4370,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>258</v>
+        <v>124</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4356,14 +4386,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>44</v>
+        <v>259</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4373,14 +4403,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>104</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4389,14 +4419,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4406,11 +4436,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4422,28 +4452,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>267</v>
+        <v>44</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>27</v>
+        <v>266</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4455,31 +4485,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>190</v>
+        <v>104</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4488,14 +4518,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>101</v>
+        <v>272</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4505,11 +4535,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>273</v>
+        <v>27</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4521,14 +4551,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>40</v>
+        <v>195</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4538,14 +4568,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>27</v>
+        <v>275</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4554,14 +4584,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>277</v>
+        <v>104</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4594,7 +4624,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4604,14 +4634,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>255</v>
+        <v>27</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>282</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4620,14 +4650,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>44</v>
+        <v>282</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4637,14 +4667,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>284</v>
+        <v>192</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>285</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4653,14 +4683,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>16</v>
+        <v>284</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4670,11 +4700,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4693,7 +4723,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4703,14 +4733,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>289</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4719,14 +4749,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>289</v>
+        <v>44</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4736,14 +4766,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
         <v>63</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>73</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4752,14 +4782,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4769,49 +4799,214 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
+        <v>279</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
+        <v>293</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>44</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>38</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>294</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
+        <v>295</v>
+      </c>
+      <c t="s" r="Q106" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
+        <v>296</v>
+      </c>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>104</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>38</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
+        <v>285</v>
+      </c>
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
+        <v>286</v>
+      </c>
+      <c t="s" r="Q107" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
+        <v>297</v>
+      </c>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>298</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>38</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>131</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>58</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
+        <v>299</v>
+      </c>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>298</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>38</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
+        <v>275</v>
+      </c>
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
         <v>63</v>
       </c>
-      <c t="s" r="Q105" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="106" ht="25.5" customHeight="1">
-      <c r="P106" s="13">
-        <v>7432.5749999999998</v>
-      </c>
-      <c r="Q106" s="13"/>
-    </row>
-    <row r="107" ht="16.5" customHeight="1">
-      <c t="s" r="A107" s="14">
-        <v>291</v>
-      </c>
-      <c r="B107" s="14"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="14"/>
-      <c r="E107" s="14"/>
-      <c r="F107" s="14"/>
-      <c t="s" r="G107" s="15">
-        <v>292</v>
-      </c>
-      <c r="H107" s="15"/>
-      <c r="I107" s="15"/>
-      <c r="J107" s="16"/>
-      <c t="s" r="K107" s="17">
-        <v>293</v>
-      </c>
-      <c r="L107" s="17"/>
-      <c r="M107" s="17"/>
-      <c r="N107" s="17"/>
-      <c r="O107" s="17"/>
-      <c r="P107" s="17"/>
-      <c r="Q107" s="17"/>
+      <c t="s" r="Q109" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
+        <v>300</v>
+      </c>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>40</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>38</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
+        <v>275</v>
+      </c>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
+        <v>63</v>
+      </c>
+      <c t="s" r="Q110" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="P111" s="13">
+        <v>7694.4549999999999</v>
+      </c>
+      <c r="Q111" s="13"/>
+    </row>
+    <row r="112" ht="16.5" customHeight="1">
+      <c t="s" r="A112" s="14">
+        <v>301</v>
+      </c>
+      <c r="B112" s="14"/>
+      <c r="C112" s="14"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="14"/>
+      <c r="F112" s="14"/>
+      <c t="s" r="G112" s="15">
+        <v>302</v>
+      </c>
+      <c r="H112" s="15"/>
+      <c r="I112" s="15"/>
+      <c r="J112" s="16"/>
+      <c t="s" r="K112" s="17">
+        <v>303</v>
+      </c>
+      <c r="L112" s="17"/>
+      <c r="M112" s="17"/>
+      <c r="N112" s="17"/>
+      <c r="O112" s="17"/>
+      <c r="P112" s="17"/>
+      <c r="Q112" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="507">
+  <mergeCells count="532">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5315,10 +5510,35 @@
     <mergeCell ref="H105:K105"/>
     <mergeCell ref="L105:M105"/>
     <mergeCell ref="N105:O105"/>
-    <mergeCell ref="P106:Q106"/>
-    <mergeCell ref="A107:F107"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="K107:Q107"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="P111:Q111"/>
+    <mergeCell ref="A112:F112"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="K112:Q112"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-03_00-00.xlsx
+++ b/DaySale_2025-09-03_00-00.xlsx
@@ -914,7 +914,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Wednesday, 3 September, 2025 10:42 PM</t>
+    <t>Wednesday, 3 September, 2025 10:43 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-03_00-00.xlsx
+++ b/DaySale_2025-09-03_00-00.xlsx
@@ -491,6 +491,15 @@
     <t>234.00</t>
   </si>
   <si>
+    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>KENACOMB TOPICAL CREAM 15 GM</t>
   </si>
   <si>
@@ -914,7 +923,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Wednesday, 3 September, 2025 10:43 PM</t>
+    <t>Wednesday, 3 September, 2025 10:44 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3073,7 +3082,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3083,11 +3092,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>108</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3099,14 +3108,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3116,14 +3125,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>86</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3132,14 +3141,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3149,11 +3158,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>120</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>21</v>
@@ -3172,7 +3181,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3189,7 +3198,7 @@
         <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3205,7 +3214,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3219,10 +3228,10 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>112</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3231,14 +3240,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3248,14 +3257,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3264,14 +3273,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3281,11 +3290,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>53</v>
+        <v>137</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>54</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3297,14 +3306,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3314,11 +3323,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>174</v>
+        <v>53</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>175</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3337,7 +3346,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3370,13 +3379,13 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
@@ -3403,21 +3412,21 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>108</v>
+        <v>183</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>161</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3429,14 +3438,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>184</v>
+        <v>44</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3446,14 +3455,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>185</v>
+        <v>108</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>187</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3462,14 +3471,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>21</v>
+        <v>187</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3479,14 +3488,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
+        <v>189</v>
+      </c>
+      <c t="s" r="Q65" s="12">
         <v>190</v>
-      </c>
-      <c t="s" r="Q65" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3502,7 +3511,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3535,7 +3544,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>195</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3545,11 +3554,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3561,14 +3570,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>198</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3601,7 +3610,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3611,11 +3620,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3627,31 +3636,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>128</v>
+        <v>195</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3660,24 +3669,24 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>205</v>
+        <v>128</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
@@ -3700,7 +3709,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3717,7 +3726,7 @@
         <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3733,7 +3742,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>211</v>
+        <v>30</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3743,14 +3752,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3759,20 +3768,20 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>30</v>
+        <v>214</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
@@ -3783,7 +3792,7 @@
         <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3799,7 +3808,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3809,11 +3818,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>105</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3825,31 +3834,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>105</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
         <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3865,24 +3874,24 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>65</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3891,7 +3900,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3904,11 +3913,11 @@
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>65</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
@@ -3964,13 +3973,13 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
@@ -3981,7 +3990,7 @@
         <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3997,13 +4006,13 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
@@ -4014,7 +4023,7 @@
         <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4040,11 +4049,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4056,7 +4065,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4073,11 +4082,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>159</v>
+        <v>228</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>42</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4089,14 +4098,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4106,14 +4115,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>239</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4122,7 +4131,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4139,14 +4148,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>241</v>
+        <v>74</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
         <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4162,24 +4171,24 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4188,31 +4197,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>121</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4221,14 +4230,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>247</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4238,14 +4247,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>248</v>
+        <v>120</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>249</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>84</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4254,14 +4263,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>44</v>
+        <v>250</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4271,14 +4280,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>105</v>
+        <v>251</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>218</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>84</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4287,7 +4296,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4304,11 +4313,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>252</v>
+        <v>105</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4327,7 +4336,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4337,11 +4346,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>170</v>
+        <v>255</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4353,14 +4362,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4370,14 +4379,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>124</v>
+        <v>173</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4386,14 +4395,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>259</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4403,14 +4412,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>260</v>
+        <v>124</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>104</v>
+        <v>59</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4419,14 +4428,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>44</v>
+        <v>262</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4443,7 +4452,7 @@
         <v>264</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>104</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4492,7 +4501,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4525,17 +4534,17 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>272</v>
+        <v>104</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>27</v>
+        <v>272</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
@@ -4558,7 +4567,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>195</v>
+        <v>275</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4568,14 +4577,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>275</v>
+        <v>27</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
         <v>276</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4591,7 +4600,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>104</v>
+        <v>198</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4608,7 +4617,7 @@
         <v>279</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4624,7 +4633,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>40</v>
+        <v>104</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4634,11 +4643,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>27</v>
+        <v>281</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4650,14 +4659,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>282</v>
+        <v>40</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4667,11 +4676,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>192</v>
+        <v>27</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>193</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4683,14 +4692,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4700,11 +4709,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>285</v>
+        <v>195</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>286</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4716,14 +4725,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>44</v>
+        <v>287</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4733,14 +4742,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>289</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4766,14 +4775,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>291</v>
+        <v>263</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>63</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>73</v>
+        <v>292</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4782,14 +4791,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4799,14 +4808,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>279</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>73</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4815,14 +4824,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4832,11 +4841,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4855,7 +4864,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4865,11 +4874,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4881,14 +4890,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>298</v>
+        <v>104</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4898,11 +4907,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>131</v>
+        <v>288</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>58</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4914,14 +4923,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4931,11 +4940,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>275</v>
+        <v>131</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -4947,14 +4956,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>40</v>
+        <v>301</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4964,7 +4973,7 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
@@ -4975,38 +4984,71 @@
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
-      <c r="P111" s="13">
-        <v>7694.4549999999999</v>
-      </c>
-      <c r="Q111" s="13"/>
-    </row>
-    <row r="112" ht="16.5" customHeight="1">
-      <c t="s" r="A112" s="14">
-        <v>301</v>
-      </c>
-      <c r="B112" s="14"/>
-      <c r="C112" s="14"/>
-      <c r="D112" s="14"/>
-      <c r="E112" s="14"/>
-      <c r="F112" s="14"/>
-      <c t="s" r="G112" s="15">
-        <v>302</v>
-      </c>
-      <c r="H112" s="15"/>
-      <c r="I112" s="15"/>
-      <c r="J112" s="16"/>
-      <c t="s" r="K112" s="17">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
         <v>303</v>
       </c>
-      <c r="L112" s="17"/>
-      <c r="M112" s="17"/>
-      <c r="N112" s="17"/>
-      <c r="O112" s="17"/>
-      <c r="P112" s="17"/>
-      <c r="Q112" s="17"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>40</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>38</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>278</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
+        <v>63</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="P112" s="13">
+        <v>7739.4549999999999</v>
+      </c>
+      <c r="Q112" s="13"/>
+    </row>
+    <row r="113" ht="16.5" customHeight="1">
+      <c t="s" r="A113" s="14">
+        <v>304</v>
+      </c>
+      <c r="B113" s="14"/>
+      <c r="C113" s="14"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="14"/>
+      <c r="F113" s="14"/>
+      <c t="s" r="G113" s="15">
+        <v>305</v>
+      </c>
+      <c r="H113" s="15"/>
+      <c r="I113" s="15"/>
+      <c r="J113" s="16"/>
+      <c t="s" r="K113" s="17">
+        <v>306</v>
+      </c>
+      <c r="L113" s="17"/>
+      <c r="M113" s="17"/>
+      <c r="N113" s="17"/>
+      <c r="O113" s="17"/>
+      <c r="P113" s="17"/>
+      <c r="Q113" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="532">
+  <mergeCells count="537">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5535,10 +5577,15 @@
     <mergeCell ref="H110:K110"/>
     <mergeCell ref="L110:M110"/>
     <mergeCell ref="N110:O110"/>
-    <mergeCell ref="P111:Q111"/>
-    <mergeCell ref="A112:F112"/>
-    <mergeCell ref="G112:I112"/>
-    <mergeCell ref="K112:Q112"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="P112:Q112"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="K113:Q113"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-03_00-00.xlsx
+++ b/DaySale_2025-09-03_00-00.xlsx
@@ -548,6 +548,15 @@
     <t>72.0000</t>
   </si>
   <si>
+    <t>METAPSIN 10 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>110.0000</t>
+  </si>
+  <si>
     <t>MILGA ADVANCE 30 F.C. TABS</t>
   </si>
   <si>
@@ -650,6 +659,15 @@
     <t>81.0000</t>
   </si>
   <si>
+    <t>PRIVACOND EYE DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>42.0000</t>
+  </si>
+  <si>
     <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
   </si>
   <si>
@@ -923,7 +941,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Wednesday, 3 September, 2025 10:44 PM</t>
+    <t>Wednesday, 3 September, 2025 10:45 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3379,7 +3397,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3412,13 +3430,13 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3445,21 +3463,21 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>108</v>
+        <v>186</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3471,14 +3489,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>187</v>
+        <v>44</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3488,14 +3506,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>108</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>190</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3504,14 +3522,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>21</v>
+        <v>190</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3521,14 +3539,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
+        <v>192</v>
+      </c>
+      <c t="s" r="Q66" s="12">
         <v>193</v>
-      </c>
-      <c t="s" r="Q66" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3544,7 +3562,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3577,7 +3595,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>198</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3587,11 +3605,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3603,14 +3621,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>201</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3643,7 +3661,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3653,11 +3671,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3669,31 +3687,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>128</v>
+        <v>198</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3702,24 +3720,24 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
@@ -3742,7 +3760,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3759,7 +3777,7 @@
         <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3775,7 +3793,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>214</v>
+        <v>30</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3785,14 +3803,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3801,28 +3819,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3834,31 +3852,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>105</v>
+        <v>221</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3867,31 +3885,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3900,7 +3918,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3917,11 +3935,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3933,14 +3951,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3950,14 +3968,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3966,7 +3984,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3979,11 +3997,11 @@
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>231</v>
+        <v>65</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
@@ -4006,13 +4024,13 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
@@ -4023,7 +4041,7 @@
         <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4072,24 +4090,24 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4098,7 +4116,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4115,11 +4133,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>159</v>
+        <v>243</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>42</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4131,14 +4149,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4148,14 +4166,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>74</v>
+        <v>234</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4164,14 +4182,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4181,11 +4199,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>244</v>
+        <v>159</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>245</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4197,28 +4215,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>231</v>
+        <v>74</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>21</v>
@@ -4230,14 +4248,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4247,11 +4265,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>121</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4263,31 +4281,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>250</v>
+        <v>44</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>84</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4296,14 +4314,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4313,11 +4331,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>221</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4329,14 +4347,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>44</v>
+        <v>256</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4346,14 +4364,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>84</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4362,14 +4380,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4379,11 +4397,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>258</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4395,14 +4413,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4412,14 +4430,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>124</v>
+        <v>261</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4428,14 +4446,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>262</v>
+        <v>40</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4445,14 +4463,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>263</v>
+        <v>173</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
         <v>264</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>104</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4468,7 +4486,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4478,14 +4496,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>266</v>
+        <v>124</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4494,14 +4512,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>44</v>
+        <v>268</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4518,7 +4536,7 @@
         <v>270</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>104</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4534,7 +4552,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4567,17 +4585,17 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>275</v>
+        <v>44</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>27</v>
+        <v>275</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
@@ -4600,13 +4618,13 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>198</v>
+        <v>104</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
@@ -4617,7 +4635,7 @@
         <v>279</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4633,7 +4651,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>104</v>
+        <v>281</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4643,7 +4661,7 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>281</v>
+        <v>27</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
@@ -4666,7 +4684,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>40</v>
+        <v>201</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4676,14 +4694,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>27</v>
+        <v>284</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4692,14 +4710,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>285</v>
+        <v>104</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4709,11 +4727,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>195</v>
+        <v>287</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>196</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4725,14 +4743,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>287</v>
+        <v>40</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4742,11 +4760,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>288</v>
+        <v>27</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4765,7 +4783,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>44</v>
+        <v>291</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4775,14 +4793,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>263</v>
+        <v>198</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>291</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>292</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4791,14 +4809,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>44</v>
+        <v>293</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4812,10 +4830,10 @@
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>63</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>73</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4824,14 +4842,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4841,14 +4859,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>298</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4857,7 +4875,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4874,14 +4892,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>298</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>73</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4890,14 +4908,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4907,11 +4925,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4923,14 +4941,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>301</v>
+        <v>44</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4940,11 +4958,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>131</v>
+        <v>303</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>58</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -4956,14 +4974,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>301</v>
+        <v>104</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4973,11 +4991,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>63</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -4989,14 +5007,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>40</v>
+        <v>307</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5006,49 +5024,115 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>278</v>
+        <v>131</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
+        <v>58</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
+        <v>308</v>
+      </c>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>307</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>38</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
+        <v>284</v>
+      </c>
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
         <v>63</v>
       </c>
-      <c t="s" r="Q111" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="112" ht="25.5" customHeight="1">
-      <c r="P112" s="13">
-        <v>7739.4549999999999</v>
-      </c>
-      <c r="Q112" s="13"/>
-    </row>
-    <row r="113" ht="16.5" customHeight="1">
-      <c t="s" r="A113" s="14">
-        <v>304</v>
-      </c>
-      <c r="B113" s="14"/>
-      <c r="C113" s="14"/>
-      <c r="D113" s="14"/>
-      <c r="E113" s="14"/>
-      <c r="F113" s="14"/>
-      <c t="s" r="G113" s="15">
-        <v>305</v>
-      </c>
-      <c r="H113" s="15"/>
-      <c r="I113" s="15"/>
-      <c r="J113" s="16"/>
-      <c t="s" r="K113" s="17">
-        <v>306</v>
-      </c>
-      <c r="L113" s="17"/>
-      <c r="M113" s="17"/>
-      <c r="N113" s="17"/>
-      <c r="O113" s="17"/>
-      <c r="P113" s="17"/>
-      <c r="Q113" s="17"/>
+      <c t="s" r="Q112" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
+        <v>309</v>
+      </c>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>40</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>38</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>284</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
+        <v>63</v>
+      </c>
+      <c t="s" r="Q113" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="P114" s="13">
+        <v>7891.4549999999999</v>
+      </c>
+      <c r="Q114" s="13"/>
+    </row>
+    <row r="115" ht="16.5" customHeight="1">
+      <c t="s" r="A115" s="14">
+        <v>310</v>
+      </c>
+      <c r="B115" s="14"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="14"/>
+      <c r="F115" s="14"/>
+      <c t="s" r="G115" s="15">
+        <v>311</v>
+      </c>
+      <c r="H115" s="15"/>
+      <c r="I115" s="15"/>
+      <c r="J115" s="16"/>
+      <c t="s" r="K115" s="17">
+        <v>312</v>
+      </c>
+      <c r="L115" s="17"/>
+      <c r="M115" s="17"/>
+      <c r="N115" s="17"/>
+      <c r="O115" s="17"/>
+      <c r="P115" s="17"/>
+      <c r="Q115" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="537">
+  <mergeCells count="547">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5582,10 +5666,20 @@
     <mergeCell ref="H111:K111"/>
     <mergeCell ref="L111:M111"/>
     <mergeCell ref="N111:O111"/>
-    <mergeCell ref="P112:Q112"/>
-    <mergeCell ref="A113:F113"/>
-    <mergeCell ref="G113:I113"/>
-    <mergeCell ref="K113:Q113"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="P114:Q114"/>
+    <mergeCell ref="A115:F115"/>
+    <mergeCell ref="G115:I115"/>
+    <mergeCell ref="K115:Q115"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-03_00-00.xlsx
+++ b/DaySale_2025-09-03_00-00.xlsx
@@ -941,7 +941,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Wednesday, 3 September, 2025 10:45 PM</t>
+    <t>Wednesday, 3 September, 2025 10:53 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-03_00-00.xlsx
+++ b/DaySale_2025-09-03_00-00.xlsx
@@ -471,6 +471,12 @@
   </si>
   <si>
     <t>180.0000</t>
+  </si>
+  <si>
+    <t>HERBANA 30CAPS</t>
+  </si>
+  <si>
+    <t>79.2000</t>
   </si>
   <si>
     <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
@@ -3001,24 +3007,24 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>62</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3027,14 +3033,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3044,11 +3050,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>15</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -3060,7 +3066,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3073,15 +3079,15 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>14</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3100,13 +3106,13 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
@@ -3114,7 +3120,7 @@
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3126,14 +3132,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3143,7 +3149,7 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
@@ -3166,7 +3172,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3176,14 +3182,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>86</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3192,14 +3198,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3209,11 +3215,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>120</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -3225,14 +3231,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3242,14 +3248,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3258,14 +3264,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3275,14 +3281,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>112</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3298,7 +3304,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3308,14 +3314,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>137</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3324,14 +3330,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3341,11 +3347,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>53</v>
+        <v>137</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>54</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3357,14 +3363,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3374,11 +3380,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>177</v>
+        <v>53</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>178</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3390,7 +3396,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3407,11 +3413,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3423,14 +3429,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3440,11 +3446,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3456,28 +3462,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3489,28 +3495,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>108</v>
+        <v>188</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3522,14 +3528,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>190</v>
+        <v>44</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3539,14 +3545,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>191</v>
+        <v>108</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>193</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3555,14 +3561,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>21</v>
+        <v>192</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3572,14 +3578,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>195</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3588,14 +3594,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3605,11 +3611,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3621,14 +3627,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>201</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3638,11 +3644,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3654,14 +3660,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>203</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3671,11 +3677,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3687,14 +3693,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3704,11 +3710,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3720,31 +3726,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>128</v>
+        <v>200</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3760,21 +3766,21 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>128</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>21</v>
@@ -3786,14 +3792,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3803,14 +3809,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3819,14 +3825,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3836,11 +3842,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3852,14 +3858,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3869,14 +3875,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3885,31 +3891,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>30</v>
+        <v>222</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3918,14 +3924,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3935,7 +3941,7 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>105</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
@@ -3958,24 +3964,24 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>229</v>
+        <v>105</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3984,31 +3990,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>65</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
         <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4030,15 +4036,15 @@
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>234</v>
+        <v>65</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4050,7 +4056,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4067,11 +4073,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4083,31 +4089,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4116,31 +4122,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4149,7 +4155,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4166,11 +4172,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4182,7 +4188,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4199,11 +4205,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>159</v>
+        <v>236</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>42</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4215,14 +4221,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4232,14 +4238,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>74</v>
+        <v>161</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>248</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4265,14 +4271,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>250</v>
+        <v>74</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4281,31 +4287,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
         <v>253</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4321,24 +4327,24 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>120</v>
+        <v>239</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>121</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4347,14 +4353,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>256</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4364,14 +4370,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>257</v>
+        <v>120</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>258</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>84</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4380,14 +4386,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>44</v>
+        <v>258</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4397,14 +4403,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>105</v>
+        <v>259</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>227</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>84</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4413,7 +4419,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4430,11 +4436,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>261</v>
+        <v>105</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>262</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4446,14 +4452,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4463,7 +4469,7 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>173</v>
+        <v>263</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
@@ -4486,7 +4492,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4496,14 +4502,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>124</v>
+        <v>175</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
         <v>266</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4519,7 +4525,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>268</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4529,14 +4535,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>269</v>
+        <v>124</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>104</v>
+        <v>59</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4545,14 +4551,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>44</v>
+        <v>270</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4562,14 +4568,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>104</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4578,7 +4584,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4595,11 +4601,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4611,14 +4617,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4628,11 +4634,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4644,28 +4650,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>281</v>
+        <v>104</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>27</v>
+        <v>280</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4677,14 +4683,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>201</v>
+        <v>283</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4694,14 +4700,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>284</v>
+        <v>27</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4710,14 +4716,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>104</v>
+        <v>203</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4727,14 +4733,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4743,14 +4749,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>40</v>
+        <v>104</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4760,11 +4766,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>27</v>
+        <v>289</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4776,14 +4782,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>291</v>
+        <v>40</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4793,11 +4799,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>198</v>
+        <v>27</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>199</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4826,11 +4832,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>294</v>
+        <v>200</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>295</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4842,14 +4848,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>44</v>
+        <v>295</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4859,14 +4865,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
         <v>297</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>298</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4875,7 +4881,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4892,14 +4898,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>300</v>
+        <v>271</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>63</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>73</v>
+        <v>300</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4915,7 +4921,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4925,14 +4931,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>288</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>73</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4941,14 +4947,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4958,11 +4964,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -4974,14 +4980,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4991,11 +4997,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5007,14 +5013,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>307</v>
+        <v>104</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5024,11 +5030,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>131</v>
+        <v>296</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>58</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5047,7 +5053,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5057,11 +5063,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>284</v>
+        <v>131</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5073,14 +5079,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>40</v>
+        <v>309</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5090,7 +5096,7 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
@@ -5101,38 +5107,71 @@
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
-      <c r="P114" s="13">
-        <v>7891.4549999999999</v>
-      </c>
-      <c r="Q114" s="13"/>
-    </row>
-    <row r="115" ht="16.5" customHeight="1">
-      <c t="s" r="A115" s="14">
-        <v>310</v>
-      </c>
-      <c r="B115" s="14"/>
-      <c r="C115" s="14"/>
-      <c r="D115" s="14"/>
-      <c r="E115" s="14"/>
-      <c r="F115" s="14"/>
-      <c t="s" r="G115" s="15">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
         <v>311</v>
       </c>
-      <c r="H115" s="15"/>
-      <c r="I115" s="15"/>
-      <c r="J115" s="16"/>
-      <c t="s" r="K115" s="17">
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
+        <v>40</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>38</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
+        <v>286</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
+        <v>63</v>
+      </c>
+      <c t="s" r="Q114" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="P115" s="13">
+        <v>7970.6549999999997</v>
+      </c>
+      <c r="Q115" s="13"/>
+    </row>
+    <row r="116" ht="16.5" customHeight="1">
+      <c t="s" r="A116" s="14">
         <v>312</v>
       </c>
-      <c r="L115" s="17"/>
-      <c r="M115" s="17"/>
-      <c r="N115" s="17"/>
-      <c r="O115" s="17"/>
-      <c r="P115" s="17"/>
-      <c r="Q115" s="17"/>
+      <c r="B116" s="14"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="14"/>
+      <c r="F116" s="14"/>
+      <c t="s" r="G116" s="15">
+        <v>313</v>
+      </c>
+      <c r="H116" s="15"/>
+      <c r="I116" s="15"/>
+      <c r="J116" s="16"/>
+      <c t="s" r="K116" s="17">
+        <v>314</v>
+      </c>
+      <c r="L116" s="17"/>
+      <c r="M116" s="17"/>
+      <c r="N116" s="17"/>
+      <c r="O116" s="17"/>
+      <c r="P116" s="17"/>
+      <c r="Q116" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="547">
+  <mergeCells count="552">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5676,10 +5715,15 @@
     <mergeCell ref="H113:K113"/>
     <mergeCell ref="L113:M113"/>
     <mergeCell ref="N113:O113"/>
-    <mergeCell ref="P114:Q114"/>
-    <mergeCell ref="A115:F115"/>
-    <mergeCell ref="G115:I115"/>
-    <mergeCell ref="K115:Q115"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="P115:Q115"/>
+    <mergeCell ref="A116:F116"/>
+    <mergeCell ref="G116:I116"/>
+    <mergeCell ref="K116:Q116"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-03_00-00.xlsx
+++ b/DaySale_2025-09-03_00-00.xlsx
@@ -947,7 +947,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Wednesday, 3 September, 2025 10:53 PM</t>
+    <t>Wednesday, 3 September, 2025 10:57 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-03_00-00.xlsx
+++ b/DaySale_2025-09-03_00-00.xlsx
@@ -684,6 +684,12 @@
   </si>
   <si>
     <t>37.6000</t>
+  </si>
+  <si>
+    <t>RECOXIBRIGHT 120 MG 7 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>88.00</t>
   </si>
   <si>
     <t xml:space="preserve">RELAX  CAPS</t>
@@ -3931,13 +3937,13 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
@@ -3945,7 +3951,7 @@
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>227</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3957,14 +3963,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3974,7 +3980,7 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>105</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
@@ -3997,24 +4003,24 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>231</v>
+        <v>105</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4023,31 +4029,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>65</v>
+        <v>233</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
         <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4069,15 +4075,15 @@
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>236</v>
+        <v>65</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4089,7 +4095,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4106,11 +4112,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4122,31 +4128,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4155,31 +4161,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4188,7 +4194,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4205,11 +4211,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4221,7 +4227,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4238,11 +4244,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>161</v>
+        <v>238</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>42</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4254,14 +4260,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4271,14 +4277,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>74</v>
+        <v>161</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>250</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4304,14 +4310,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>252</v>
+        <v>74</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4320,31 +4326,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
         <v>255</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4360,24 +4366,24 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>120</v>
+        <v>241</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>121</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4386,14 +4392,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>258</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4403,14 +4409,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>259</v>
+        <v>120</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>260</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>84</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4419,14 +4425,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>44</v>
+        <v>260</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4436,14 +4442,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>105</v>
+        <v>261</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>229</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>84</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4452,7 +4458,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4469,11 +4475,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>263</v>
+        <v>105</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>264</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4485,14 +4491,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4502,7 +4508,7 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>175</v>
+        <v>265</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
@@ -4525,7 +4531,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4535,14 +4541,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>124</v>
+        <v>175</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
         <v>268</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4558,7 +4564,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>270</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4568,14 +4574,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>271</v>
+        <v>124</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>104</v>
+        <v>59</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4584,14 +4590,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>44</v>
+        <v>272</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4601,14 +4607,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>104</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4617,7 +4623,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4634,11 +4640,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4650,14 +4656,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4667,11 +4673,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4683,28 +4689,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>283</v>
+        <v>104</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>27</v>
+        <v>282</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4716,14 +4722,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4733,14 +4739,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>286</v>
+        <v>27</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4749,14 +4755,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>104</v>
+        <v>203</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4766,14 +4772,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4782,14 +4788,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>40</v>
+        <v>104</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4799,11 +4805,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>27</v>
+        <v>291</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4815,14 +4821,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>293</v>
+        <v>40</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4832,11 +4838,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>200</v>
+        <v>27</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>201</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4865,11 +4871,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>296</v>
+        <v>200</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>297</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4881,14 +4887,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>44</v>
+        <v>297</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4898,14 +4904,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
         <v>299</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>300</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4914,7 +4920,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -4931,14 +4937,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>302</v>
+        <v>273</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>63</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>73</v>
+        <v>302</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4954,7 +4960,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4964,14 +4970,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>290</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>73</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4980,14 +4986,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4997,11 +5003,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5013,14 +5019,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5030,11 +5036,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5046,14 +5052,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>309</v>
+        <v>104</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5063,11 +5069,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>131</v>
+        <v>298</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>58</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5086,7 +5092,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5096,11 +5102,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>286</v>
+        <v>131</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5112,14 +5118,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>40</v>
+        <v>311</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5129,7 +5135,7 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
@@ -5140,38 +5146,71 @@
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
-      <c r="P115" s="13">
-        <v>7970.6549999999997</v>
-      </c>
-      <c r="Q115" s="13"/>
-    </row>
-    <row r="116" ht="16.5" customHeight="1">
-      <c t="s" r="A116" s="14">
-        <v>312</v>
-      </c>
-      <c r="B116" s="14"/>
-      <c r="C116" s="14"/>
-      <c r="D116" s="14"/>
-      <c r="E116" s="14"/>
-      <c r="F116" s="14"/>
-      <c t="s" r="G116" s="15">
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
         <v>313</v>
       </c>
-      <c r="H116" s="15"/>
-      <c r="I116" s="15"/>
-      <c r="J116" s="16"/>
-      <c t="s" r="K116" s="17">
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
+        <v>40</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>38</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
+        <v>288</v>
+      </c>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
+        <v>63</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="P116" s="13">
+        <v>8058.6549999999997</v>
+      </c>
+      <c r="Q116" s="13"/>
+    </row>
+    <row r="117" ht="16.5" customHeight="1">
+      <c t="s" r="A117" s="14">
         <v>314</v>
       </c>
-      <c r="L116" s="17"/>
-      <c r="M116" s="17"/>
-      <c r="N116" s="17"/>
-      <c r="O116" s="17"/>
-      <c r="P116" s="17"/>
-      <c r="Q116" s="17"/>
+      <c r="B117" s="14"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="14"/>
+      <c t="s" r="G117" s="15">
+        <v>315</v>
+      </c>
+      <c r="H117" s="15"/>
+      <c r="I117" s="15"/>
+      <c r="J117" s="16"/>
+      <c t="s" r="K117" s="17">
+        <v>316</v>
+      </c>
+      <c r="L117" s="17"/>
+      <c r="M117" s="17"/>
+      <c r="N117" s="17"/>
+      <c r="O117" s="17"/>
+      <c r="P117" s="17"/>
+      <c r="Q117" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="552">
+  <mergeCells count="557">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5720,10 +5759,15 @@
     <mergeCell ref="H114:K114"/>
     <mergeCell ref="L114:M114"/>
     <mergeCell ref="N114:O114"/>
-    <mergeCell ref="P115:Q115"/>
-    <mergeCell ref="A116:F116"/>
-    <mergeCell ref="G116:I116"/>
-    <mergeCell ref="K116:Q116"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="P116:Q116"/>
+    <mergeCell ref="A117:F117"/>
+    <mergeCell ref="G117:I117"/>
+    <mergeCell ref="K117:Q117"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-03_00-00.xlsx
+++ b/DaySale_2025-09-03_00-00.xlsx
@@ -953,7 +953,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Wednesday, 3 September, 2025 10:57 PM</t>
+    <t>Wednesday, 3 September, 2025 11:00 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-03_00-00.xlsx
+++ b/DaySale_2025-09-03_00-00.xlsx
@@ -302,6 +302,15 @@
     <t>188.0000</t>
   </si>
   <si>
+    <t>COVAPRENDO 10/10MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>201.00</t>
+  </si>
+  <si>
+    <t>201.0000</t>
+  </si>
+  <si>
     <t>COVERSYL 5MG 15 F.C. TAB.</t>
   </si>
   <si>
@@ -584,15 +593,18 @@
     <t>MOBITIL 15MG 10 TAB.</t>
   </si>
   <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
     <t>NEUROVIT 6 I.M. AMPS</t>
   </si>
   <si>
     <t>2:3</t>
   </si>
   <si>
-    <t>66.00</t>
-  </si>
-  <si>
     <t>-33.0000</t>
   </si>
   <si>
@@ -914,10 +926,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>32.0000</t>
-  </si>
-  <si>
-    <t>16:0</t>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>22:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -953,7 +965,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Wednesday, 3 September, 2025 11:00 PM</t>
+    <t>Wednesday, 3 September, 2025 11:02 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2353,7 +2365,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2419,7 +2431,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2429,14 +2441,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2445,14 +2457,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2469,7 +2481,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2485,7 +2497,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2502,7 +2514,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2518,7 +2530,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>114</v>
+        <v>56</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2528,14 +2540,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>41</v>
+        <v>114</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>115</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2561,14 +2573,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>118</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2584,7 +2596,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2594,14 +2606,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>121</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2617,7 +2629,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2627,11 +2639,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>24</v>
+        <v>123</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2643,14 +2655,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2660,11 +2672,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>24</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2683,7 +2695,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>127</v>
+        <v>23</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2693,14 +2705,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2709,14 +2721,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2733,7 +2745,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>30</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2749,7 +2761,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>21</v>
+        <v>120</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2766,7 +2778,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2782,7 +2794,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2799,7 +2811,7 @@
         <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2815,7 +2827,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2832,7 +2844,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2848,7 +2860,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2858,14 +2870,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>121</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2874,14 +2886,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2891,14 +2903,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2914,7 +2926,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2931,7 +2943,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2947,7 +2959,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2964,7 +2976,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2980,21 +2992,21 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -3006,14 +3018,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3023,14 +3035,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>62</v>
+        <v>137</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3039,31 +3051,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>62</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3079,7 +3091,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3089,11 +3101,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>14</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>15</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3105,7 +3117,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3118,15 +3130,15 @@
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>14</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3138,28 +3150,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3178,7 +3190,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3188,11 +3200,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>108</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3204,14 +3216,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3221,14 +3233,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>86</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3237,14 +3249,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3254,11 +3266,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>123</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -3277,7 +3289,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3294,7 +3306,7 @@
         <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3310,7 +3322,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3324,10 +3336,10 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3336,14 +3348,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3353,14 +3365,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>137</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3369,14 +3381,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3386,11 +3398,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>53</v>
+        <v>140</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>54</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3402,14 +3414,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3419,11 +3431,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>179</v>
+        <v>53</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>180</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3475,7 +3487,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3508,13 +3520,13 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
@@ -3541,21 +3553,21 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>108</v>
+        <v>191</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>166</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3567,14 +3579,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>192</v>
+        <v>44</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3584,14 +3596,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>193</v>
+        <v>111</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>195</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3600,14 +3612,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3617,11 +3629,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3633,14 +3645,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>197</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3650,14 +3662,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>199</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3666,14 +3678,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>203</v>
+        <v>21</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3683,11 +3695,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3699,14 +3711,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3716,11 +3728,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3732,14 +3744,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>104</v>
+        <v>207</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3749,11 +3761,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3772,24 +3784,24 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>128</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3798,14 +3810,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3815,14 +3827,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3831,31 +3843,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>216</v>
+        <v>131</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3864,14 +3876,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3881,14 +3893,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3897,14 +3909,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>222</v>
+        <v>30</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3914,14 +3926,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3930,14 +3942,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3947,11 +3959,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>141</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3963,31 +3975,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>30</v>
+        <v>226</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3996,7 +4008,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4009,15 +4021,15 @@
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>105</v>
+        <v>230</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4029,31 +4041,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4062,7 +4074,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4079,11 +4091,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4095,14 +4107,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4112,14 +4124,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4128,7 +4140,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4141,15 +4153,15 @@
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>241</v>
+        <v>65</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4161,31 +4173,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4194,7 +4206,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4211,11 +4223,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4227,31 +4239,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4277,11 +4289,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>161</v>
+        <v>251</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>42</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4293,14 +4305,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4310,14 +4322,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>74</v>
+        <v>242</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4326,14 +4338,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4343,11 +4355,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>254</v>
+        <v>164</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>255</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4359,28 +4371,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>241</v>
+        <v>74</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>21</v>
@@ -4392,14 +4404,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4409,11 +4421,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>120</v>
+        <v>258</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>121</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4425,31 +4437,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>260</v>
+        <v>44</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>84</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4458,14 +4470,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4475,11 +4487,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>231</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4491,14 +4503,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>44</v>
+        <v>264</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4515,7 +4527,7 @@
         <v>266</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>84</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4531,7 +4543,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4541,11 +4553,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>175</v>
+        <v>108</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>268</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4557,14 +4569,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4574,14 +4586,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>124</v>
+        <v>269</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
         <v>270</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4597,7 +4609,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>272</v>
+        <v>40</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4607,14 +4619,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>273</v>
+        <v>178</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>104</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4623,14 +4635,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4640,14 +4652,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>276</v>
+        <v>127</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4656,14 +4668,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>44</v>
+        <v>276</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4673,14 +4685,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>107</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4689,14 +4701,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4706,11 +4718,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4722,28 +4734,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>285</v>
+        <v>44</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>27</v>
+        <v>283</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4755,31 +4767,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>203</v>
+        <v>107</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4788,14 +4800,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>104</v>
+        <v>289</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4805,11 +4817,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>291</v>
+        <v>27</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4821,14 +4833,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>40</v>
+        <v>207</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4838,14 +4850,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>27</v>
+        <v>292</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4861,7 +4873,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>295</v>
+        <v>107</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4871,11 +4883,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>200</v>
+        <v>295</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>201</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4887,14 +4899,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4904,11 +4916,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>298</v>
+        <v>27</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4920,14 +4932,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>44</v>
+        <v>299</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4937,14 +4949,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>273</v>
+        <v>204</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>301</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>302</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4953,14 +4965,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>44</v>
+        <v>301</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4970,14 +4982,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>63</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>73</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4986,14 +4998,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5003,14 +5015,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>306</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5019,7 +5031,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5036,14 +5048,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>308</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>73</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5059,7 +5071,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5069,11 +5081,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5092,7 +5104,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>311</v>
+        <v>44</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5102,11 +5114,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>131</v>
+        <v>311</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>58</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5118,14 +5130,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>311</v>
+        <v>107</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5135,11 +5147,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>63</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5151,14 +5163,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>40</v>
+        <v>315</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5168,49 +5180,115 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>288</v>
+        <v>134</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
+        <v>58</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
+        <v>316</v>
+      </c>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>315</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>38</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>292</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
         <v>63</v>
       </c>
-      <c t="s" r="Q115" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="116" ht="25.5" customHeight="1">
-      <c r="P116" s="13">
-        <v>8058.6549999999997</v>
-      </c>
-      <c r="Q116" s="13"/>
-    </row>
-    <row r="117" ht="16.5" customHeight="1">
-      <c t="s" r="A117" s="14">
-        <v>314</v>
-      </c>
-      <c r="B117" s="14"/>
-      <c r="C117" s="14"/>
-      <c r="D117" s="14"/>
-      <c r="E117" s="14"/>
-      <c r="F117" s="14"/>
-      <c t="s" r="G117" s="15">
-        <v>315</v>
-      </c>
-      <c r="H117" s="15"/>
-      <c r="I117" s="15"/>
-      <c r="J117" s="16"/>
-      <c t="s" r="K117" s="17">
-        <v>316</v>
-      </c>
-      <c r="L117" s="17"/>
-      <c r="M117" s="17"/>
-      <c r="N117" s="17"/>
-      <c r="O117" s="17"/>
-      <c r="P117" s="17"/>
-      <c r="Q117" s="17"/>
+      <c t="s" r="Q116" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
+        <v>317</v>
+      </c>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>40</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>38</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
+        <v>292</v>
+      </c>
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
+        <v>63</v>
+      </c>
+      <c t="s" r="Q117" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="P118" s="13">
+        <v>8337.6550000000007</v>
+      </c>
+      <c r="Q118" s="13"/>
+    </row>
+    <row r="119" ht="16.5" customHeight="1">
+      <c t="s" r="A119" s="14">
+        <v>318</v>
+      </c>
+      <c r="B119" s="14"/>
+      <c r="C119" s="14"/>
+      <c r="D119" s="14"/>
+      <c r="E119" s="14"/>
+      <c r="F119" s="14"/>
+      <c t="s" r="G119" s="15">
+        <v>319</v>
+      </c>
+      <c r="H119" s="15"/>
+      <c r="I119" s="15"/>
+      <c r="J119" s="16"/>
+      <c t="s" r="K119" s="17">
+        <v>320</v>
+      </c>
+      <c r="L119" s="17"/>
+      <c r="M119" s="17"/>
+      <c r="N119" s="17"/>
+      <c r="O119" s="17"/>
+      <c r="P119" s="17"/>
+      <c r="Q119" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="557">
+  <mergeCells count="567">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5764,10 +5842,20 @@
     <mergeCell ref="H115:K115"/>
     <mergeCell ref="L115:M115"/>
     <mergeCell ref="N115:O115"/>
-    <mergeCell ref="P116:Q116"/>
-    <mergeCell ref="A117:F117"/>
-    <mergeCell ref="G117:I117"/>
-    <mergeCell ref="K117:Q117"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="P118:Q118"/>
+    <mergeCell ref="A119:F119"/>
+    <mergeCell ref="G119:I119"/>
+    <mergeCell ref="K119:Q119"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-03_00-00.xlsx
+++ b/DaySale_2025-09-03_00-00.xlsx
@@ -122,411 +122,438 @@
     <t xml:space="preserve">ANTODINE20    6 AMP</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>38.2200</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>ASMAKAST 10 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
+    <t>234.0000</t>
+  </si>
+  <si>
+    <t>ATOMORELAX 20MG/5ML SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>128.00</t>
+  </si>
+  <si>
+    <t>128.0000</t>
+  </si>
+  <si>
+    <t>ATROVENT 500MCG/2ML 20 UNIT DOSE VIALS</t>
+  </si>
+  <si>
+    <t>1:6</t>
+  </si>
+  <si>
+    <t>286.00</t>
+  </si>
+  <si>
+    <t>14.3000</t>
+  </si>
+  <si>
+    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
+    <t>B-COM I.M./I.V. 6 AMP</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>BECOZYME I.M./I.V. 12 AMP</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>BETOLVEX 1MG/ML 2 AMP</t>
+  </si>
+  <si>
+    <t>64.00</t>
+  </si>
+  <si>
+    <t>192.0000</t>
+  </si>
+  <si>
+    <t>BLOKATENS 10/160MG 28 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>160.0000</t>
+  </si>
+  <si>
+    <t>BRUFEN 200MG 30 TAB</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
+    <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>CIPROFAR 500MG 10 F.C.TAB</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>COLCHICINE 500MCG 100 TAB</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
+    <t>COMFORT GEL 50 GM</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>COSMOFER 50MG/ML FOR INF. 5 AMPS.</t>
+  </si>
+  <si>
+    <t>470.00</t>
+  </si>
+  <si>
+    <t>188.0000</t>
+  </si>
+  <si>
+    <t>COVAPRENDO 10/10MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>201.00</t>
+  </si>
+  <si>
+    <t>201.0000</t>
+  </si>
+  <si>
+    <t>COVERSYL 5MG 15 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>79.00</t>
+  </si>
+  <si>
+    <t>79.0000</t>
+  </si>
+  <si>
+    <t>CRESTOLIP 20 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>141.0000</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>8:1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>156.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>79.6800</t>
+  </si>
+  <si>
+    <t>DOLPHIN 25 MG 10 SUPP.</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>DURICEF 500MG/5ML SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>3:4</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>8:2</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>7.6800</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>270.0000</t>
+  </si>
+  <si>
+    <t>FOOT SMART CREAM 60 GM</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>88.0000</t>
+  </si>
+  <si>
+    <t>FUSI 2% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>GAST-REG 200 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>27.7200</t>
+  </si>
+  <si>
+    <t>GINKGO BILOBA 30 CAPS.</t>
+  </si>
+  <si>
+    <t>186.00</t>
+  </si>
+  <si>
+    <t>186.0000</t>
+  </si>
+  <si>
+    <t>HAIRVOGINE 30TAB</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
+    <t>HERBANA 30CAPS</t>
+  </si>
+  <si>
+    <t>79.2000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>92.0000</t>
+  </si>
+  <si>
+    <t>HISTAZINE-1 0.1% SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>67.00</t>
+  </si>
+  <si>
+    <t>67.0000</t>
+  </si>
+  <si>
+    <t>IVABRAGIN 5MG 30TAB</t>
+  </si>
+  <si>
+    <t>234.00</t>
+  </si>
+  <si>
+    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>KENACOMB TOPICAL CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
     <t>3:3</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>ASMAKAST 10 MG 30 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>156.00</t>
-  </si>
-  <si>
-    <t>234.0000</t>
-  </si>
-  <si>
-    <t>ATOMORELAX 20MG/5ML SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>128.00</t>
-  </si>
-  <si>
-    <t>128.0000</t>
-  </si>
-  <si>
-    <t>ATROVENT 500MCG/2ML 20 UNIT DOSE VIALS</t>
-  </si>
-  <si>
-    <t>1:6</t>
-  </si>
-  <si>
-    <t>286.00</t>
-  </si>
-  <si>
-    <t>14.3000</t>
-  </si>
-  <si>
-    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>57.00</t>
-  </si>
-  <si>
-    <t>57.0000</t>
-  </si>
-  <si>
-    <t>B-COM I.M./I.V. 6 AMP</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>BECOZYME I.M./I.V. 12 AMP</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>BETOLVEX 1MG/ML 2 AMP</t>
-  </si>
-  <si>
-    <t>64.00</t>
-  </si>
-  <si>
-    <t>192.0000</t>
-  </si>
-  <si>
-    <t>BLOKATENS 10/160MG 28 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>160.00</t>
-  </si>
-  <si>
-    <t>160.0000</t>
-  </si>
-  <si>
-    <t>BRUFEN 200MG 30 TAB</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
-  </si>
-  <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>43.00</t>
-  </si>
-  <si>
-    <t>43.0000</t>
-  </si>
-  <si>
-    <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>CIPROFAR 500MG 10 F.C.TAB</t>
-  </si>
-  <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>69.0000</t>
-  </si>
-  <si>
-    <t>COLCHICINE 500MCG 100 TAB</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>190.00</t>
-  </si>
-  <si>
-    <t>19.0000</t>
-  </si>
-  <si>
-    <t>COMFORT GEL 50 GM</t>
-  </si>
-  <si>
-    <t>80.00</t>
-  </si>
-  <si>
-    <t>80.0000</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>15:0</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t>COSMOFER 50MG/ML FOR INF. 5 AMPS.</t>
-  </si>
-  <si>
-    <t>470.00</t>
-  </si>
-  <si>
-    <t>188.0000</t>
-  </si>
-  <si>
-    <t>COVAPRENDO 10/10MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>201.00</t>
-  </si>
-  <si>
-    <t>201.0000</t>
-  </si>
-  <si>
-    <t>COVERSYL 5MG 15 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>79.00</t>
-  </si>
-  <si>
-    <t>79.0000</t>
-  </si>
-  <si>
-    <t>CRESTOLIP 20 MG 30 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>141.00</t>
-  </si>
-  <si>
-    <t>141.0000</t>
-  </si>
-  <si>
-    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>68.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>78.0000</t>
-  </si>
-  <si>
-    <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>156.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>8:2</t>
-  </si>
-  <si>
-    <t>63.8400</t>
-  </si>
-  <si>
-    <t>DOLPHIN 25 MG 10 SUPP.</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>DURICEF 500MG/5ML SUSP. 60ML</t>
-  </si>
-  <si>
-    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>51.0000</t>
-  </si>
-  <si>
-    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>3:4</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>35.6400</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>7.6800</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>270.0000</t>
-  </si>
-  <si>
-    <t>FOOT SMART CREAM 60 GM</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>FUSI 2% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>88.0000</t>
-  </si>
-  <si>
-    <t>FUSI 2% OINT. 15 GM</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>GAST-REG 200 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>84.00</t>
-  </si>
-  <si>
-    <t>27.7200</t>
-  </si>
-  <si>
-    <t>GINKGO BILOBA 30 CAPS.</t>
-  </si>
-  <si>
-    <t>186.00</t>
-  </si>
-  <si>
-    <t>186.0000</t>
-  </si>
-  <si>
-    <t>HAIRVOGINE 30TAB</t>
-  </si>
-  <si>
-    <t>180.0000</t>
-  </si>
-  <si>
-    <t>HERBANA 30CAPS</t>
-  </si>
-  <si>
-    <t>79.2000</t>
-  </si>
-  <si>
-    <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>92.0000</t>
-  </si>
-  <si>
-    <t>HISTAZINE-1 0.1% SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>IVABRAGIN 5MG 30TAB</t>
-  </si>
-  <si>
-    <t>234.00</t>
-  </si>
-  <si>
-    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>KENACOMB TOPICAL CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 10MG 20 TAB</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
     <t>60.00</t>
   </si>
   <si>
@@ -632,9 +659,6 @@
     <t>OLOHISTINE 1MG/ML OPHTHALMIC SOL. 5 ML</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>29.00</t>
   </si>
   <si>
@@ -797,6 +821,15 @@
     <t>65.0000</t>
   </si>
   <si>
+    <t>UNICTAM 1.5 GM I.M/I.V. VIAL</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>224.0000</t>
+  </si>
+  <si>
     <t>URAID-N EFF. GRANUL. 12 SACHETS</t>
   </si>
   <si>
@@ -908,7 +941,7 @@
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
-    <t>65:0</t>
+    <t>63:0</t>
   </si>
   <si>
     <t>رول اون ريكسونا25</t>
@@ -923,13 +956,19 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>44.0000</t>
-  </si>
-  <si>
-    <t>22:0</t>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>24:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -947,25 +986,25 @@
     <t>15.00</t>
   </si>
   <si>
-    <t>15.0000</t>
-  </si>
-  <si>
     <t>كريم فيبكس الازرق</t>
   </si>
   <si>
     <t>محلول ملح</t>
   </si>
   <si>
+    <t>30:0</t>
+  </si>
+  <si>
+    <t>مناديل FINE</t>
+  </si>
+  <si>
     <t>31:0</t>
   </si>
   <si>
-    <t>مناديل FINE</t>
-  </si>
-  <si>
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Wednesday, 3 September, 2025 11:02 PM</t>
+    <t>Wednesday, 3 September, 2025 11:07 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1804,13 +1843,13 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -1818,10 +1857,10 @@
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1830,14 +1869,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1847,11 +1886,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>23</v>
@@ -1863,14 +1902,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1880,11 +1919,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1896,14 +1935,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1913,11 +1952,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>21</v>
@@ -1929,14 +1968,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1946,11 +1985,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1962,14 +2001,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1979,14 +2018,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>59</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2019,7 +2058,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>59</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2068,7 +2107,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2111,7 +2150,7 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
@@ -2398,7 +2437,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2431,7 +2470,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2481,7 +2520,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>52</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2497,7 +2536,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2507,14 +2546,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2523,14 +2562,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2540,14 +2579,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2556,14 +2595,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2573,14 +2612,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>41</v>
+        <v>118</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2589,14 +2628,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2606,14 +2645,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2622,7 +2661,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2639,14 +2678,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>123</v>
+        <v>58</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>124</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2662,7 +2701,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>40</v>
+        <v>111</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2672,11 +2711,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2688,14 +2727,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2705,11 +2744,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>24</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2728,7 +2767,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2738,14 +2777,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2754,14 +2793,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2778,7 +2817,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>30</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2794,7 +2833,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>21</v>
+        <v>137</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2804,14 +2843,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2820,14 +2859,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2837,14 +2876,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2853,14 +2892,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2870,14 +2909,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2886,14 +2925,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2903,14 +2942,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2919,14 +2958,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2936,14 +2975,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2952,14 +2991,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2969,14 +3008,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2985,14 +3024,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3002,14 +3041,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3018,28 +3057,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -3051,31 +3090,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>62</v>
+        <v>141</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3084,31 +3123,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>62</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3117,14 +3156,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3134,11 +3173,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>14</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>15</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3150,28 +3189,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>14</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3183,14 +3222,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>168</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3200,11 +3239,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3216,28 +3255,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>107</v>
+        <v>45</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>111</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3249,7 +3288,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3266,14 +3305,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>123</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>86</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3282,14 +3321,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3299,14 +3338,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>108</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3315,7 +3354,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3332,14 +3371,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3348,14 +3387,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>40</v>
+        <v>180</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3365,14 +3404,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>115</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3381,14 +3420,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3398,11 +3437,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>140</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>141</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3414,14 +3453,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3431,14 +3470,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>53</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>54</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3447,14 +3486,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3464,11 +3503,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>182</v>
+        <v>144</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>183</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3480,14 +3519,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3497,11 +3536,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>185</v>
+        <v>54</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>186</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3513,14 +3552,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3530,11 +3569,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3546,28 +3585,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3579,14 +3618,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3596,11 +3635,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>111</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>169</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3612,28 +3651,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>148</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3645,14 +3684,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>197</v>
+        <v>45</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3662,14 +3701,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>195</v>
+        <v>108</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>199</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3678,14 +3717,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3695,11 +3734,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>202</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3711,14 +3750,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>206</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3732,10 +3771,10 @@
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>208</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3744,14 +3783,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>207</v>
+        <v>21</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3761,11 +3800,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3777,14 +3816,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3794,11 +3833,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3810,14 +3849,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>107</v>
+        <v>168</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3827,11 +3866,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3843,31 +3882,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>131</v>
+        <v>219</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3876,14 +3915,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3893,14 +3932,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3909,31 +3948,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>220</v>
+        <v>134</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3942,14 +3981,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3959,14 +3998,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3975,14 +4014,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>226</v>
+        <v>30</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3992,14 +4031,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4008,14 +4047,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4025,11 +4064,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>144</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4041,31 +4080,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>30</v>
+        <v>234</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4074,28 +4113,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>108</v>
+        <v>238</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>235</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4107,31 +4146,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4140,28 +4179,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4173,14 +4212,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4190,14 +4229,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4206,28 +4245,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>245</v>
+        <v>65</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4239,31 +4278,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4272,14 +4311,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4289,11 +4328,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4305,31 +4344,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4338,14 +4377,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4355,11 +4394,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>164</v>
+        <v>259</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>42</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4371,14 +4410,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4388,14 +4427,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>74</v>
+        <v>250</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4404,14 +4443,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4421,11 +4460,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>258</v>
+        <v>172</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>259</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4437,28 +4476,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>245</v>
+        <v>74</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>21</v>
@@ -4470,14 +4509,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4487,11 +4526,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>123</v>
+        <v>266</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>124</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4503,31 +4542,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>264</v>
+        <v>45</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>84</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4536,14 +4575,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4553,14 +4592,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>108</v>
+        <v>271</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>235</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>111</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4569,14 +4608,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4586,11 +4625,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>269</v>
+        <v>126</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>270</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4602,14 +4641,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>40</v>
+        <v>275</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4619,14 +4658,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>178</v>
+        <v>276</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>84</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4635,14 +4674,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4652,14 +4691,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>274</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4668,14 +4707,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>276</v>
+        <v>45</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4685,14 +4724,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>107</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4701,14 +4740,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4718,11 +4757,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>280</v>
+        <v>187</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4734,14 +4773,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4751,14 +4790,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>283</v>
+        <v>130</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4767,14 +4806,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>107</v>
+        <v>287</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4784,14 +4823,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>111</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4800,28 +4839,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>289</v>
+        <v>45</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>27</v>
+        <v>291</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4833,31 +4872,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>207</v>
+        <v>45</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4866,28 +4905,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4899,20 +4938,20 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
@@ -4920,7 +4959,7 @@
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4932,31 +4971,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>299</v>
+        <v>168</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>204</v>
+        <v>303</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>205</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4965,28 +5004,28 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>301</v>
+        <v>111</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -4998,31 +5037,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>277</v>
+        <v>27</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>306</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5031,31 +5070,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>44</v>
+        <v>310</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>308</v>
+        <v>213</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>63</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>73</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5064,28 +5103,28 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>16</v>
+        <v>312</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>296</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5097,31 +5136,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>312</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5130,31 +5169,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>107</v>
+        <v>45</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>16</v>
+        <v>319</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5163,31 +5202,31 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>315</v>
+        <v>45</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>134</v>
+        <v>321</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>16</v>
+        <v>73</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5196,28 +5235,28 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>315</v>
+        <v>16</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>63</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5229,66 +5268,198 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>292</v>
+        <v>324</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
         <v>63</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
-      <c r="P118" s="13">
-        <v>8337.6550000000007</v>
-      </c>
-      <c r="Q118" s="13"/>
-    </row>
-    <row r="119" ht="16.5" customHeight="1">
-      <c t="s" r="A119" s="14">
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
+        <v>325</v>
+      </c>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
+        <v>111</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>37</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
+        <v>313</v>
+      </c>
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
+        <v>314</v>
+      </c>
+      <c t="s" r="Q118" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
+        <v>326</v>
+      </c>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>327</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>37</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
+        <v>138</v>
+      </c>
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
         <v>318</v>
       </c>
-      <c r="B119" s="14"/>
-      <c r="C119" s="14"/>
-      <c r="D119" s="14"/>
-      <c r="E119" s="14"/>
-      <c r="F119" s="14"/>
-      <c t="s" r="G119" s="15">
-        <v>319</v>
-      </c>
-      <c r="H119" s="15"/>
-      <c r="I119" s="15"/>
-      <c r="J119" s="16"/>
-      <c t="s" r="K119" s="17">
-        <v>320</v>
-      </c>
-      <c r="L119" s="17"/>
-      <c r="M119" s="17"/>
-      <c r="N119" s="17"/>
-      <c r="O119" s="17"/>
-      <c r="P119" s="17"/>
-      <c r="Q119" s="17"/>
+      <c t="s" r="Q119" s="12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
+        <v>328</v>
+      </c>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
+        <v>329</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>37</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
+        <v>303</v>
+      </c>
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
+        <v>63</v>
+      </c>
+      <c t="s" r="Q120" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c t="s" r="C121" s="8">
+        <v>330</v>
+      </c>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
+        <v>41</v>
+      </c>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c t="s" r="L121" s="10">
+        <v>37</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c t="s" r="N121" s="8">
+        <v>303</v>
+      </c>
+      <c r="O121" s="8"/>
+      <c t="s" r="P121" s="11">
+        <v>63</v>
+      </c>
+      <c t="s" r="Q121" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="P122" s="13">
+        <v>8775.7350000000006</v>
+      </c>
+      <c r="Q122" s="13"/>
+    </row>
+    <row r="123" ht="16.5" customHeight="1">
+      <c t="s" r="A123" s="14">
+        <v>331</v>
+      </c>
+      <c r="B123" s="14"/>
+      <c r="C123" s="14"/>
+      <c r="D123" s="14"/>
+      <c r="E123" s="14"/>
+      <c r="F123" s="14"/>
+      <c t="s" r="G123" s="15">
+        <v>332</v>
+      </c>
+      <c r="H123" s="15"/>
+      <c r="I123" s="15"/>
+      <c r="J123" s="16"/>
+      <c t="s" r="K123" s="17">
+        <v>333</v>
+      </c>
+      <c r="L123" s="17"/>
+      <c r="M123" s="17"/>
+      <c r="N123" s="17"/>
+      <c r="O123" s="17"/>
+      <c r="P123" s="17"/>
+      <c r="Q123" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="567">
+  <mergeCells count="587">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5852,10 +6023,30 @@
     <mergeCell ref="H117:K117"/>
     <mergeCell ref="L117:M117"/>
     <mergeCell ref="N117:O117"/>
-    <mergeCell ref="P118:Q118"/>
-    <mergeCell ref="A119:F119"/>
-    <mergeCell ref="G119:I119"/>
-    <mergeCell ref="K119:Q119"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="P122:Q122"/>
+    <mergeCell ref="A123:F123"/>
+    <mergeCell ref="G123:I123"/>
+    <mergeCell ref="K123:Q123"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-03_00-00.xlsx
+++ b/DaySale_2025-09-03_00-00.xlsx
@@ -356,645 +356,645 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
+  </si>
+  <si>
+    <t>156.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>79.6800</t>
+  </si>
+  <si>
+    <t>DOLPHIN 25 MG 10 SUPP.</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>DURICEF 500MG/5ML SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>3:4</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>8:2</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>7.6800</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>270.0000</t>
+  </si>
+  <si>
+    <t>FOOT SMART CREAM 60 GM</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>88.0000</t>
+  </si>
+  <si>
+    <t>FUSI 2% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>GAST-REG 200 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>27.7200</t>
+  </si>
+  <si>
+    <t>GINKGO BILOBA 30 CAPS.</t>
+  </si>
+  <si>
+    <t>186.00</t>
+  </si>
+  <si>
+    <t>186.0000</t>
+  </si>
+  <si>
+    <t>HAIRVOGINE 30TAB</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
+    <t>HERBANA 30CAPS</t>
+  </si>
+  <si>
+    <t>79.2000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>92.0000</t>
+  </si>
+  <si>
+    <t>HISTAZINE-1 0.1% SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>67.00</t>
+  </si>
+  <si>
+    <t>67.0000</t>
+  </si>
+  <si>
+    <t>IVABRAGIN 5MG 30TAB</t>
+  </si>
+  <si>
+    <t>234.00</t>
+  </si>
+  <si>
+    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>KENACOMB TOPICAL CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
     <t>3:1</t>
   </si>
   <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>78.0000</t>
-  </si>
-  <si>
-    <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>156.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>79.6800</t>
-  </si>
-  <si>
-    <t>DOLPHIN 25 MG 10 SUPP.</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>DURICEF 500MG/5ML SUSP. 60ML</t>
-  </si>
-  <si>
-    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>51.0000</t>
-  </si>
-  <si>
-    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>3:4</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>35.6400</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>8:2</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>7.6800</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>270.0000</t>
-  </si>
-  <si>
-    <t>FOOT SMART CREAM 60 GM</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>FUSI 2% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>88.0000</t>
-  </si>
-  <si>
-    <t>FUSI 2% OINT. 15 GM</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>GAST-REG 200 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>84.00</t>
-  </si>
-  <si>
-    <t>27.7200</t>
-  </si>
-  <si>
-    <t>GINKGO BILOBA 30 CAPS.</t>
-  </si>
-  <si>
-    <t>186.00</t>
-  </si>
-  <si>
-    <t>186.0000</t>
-  </si>
-  <si>
-    <t>HAIRVOGINE 30TAB</t>
-  </si>
-  <si>
-    <t>180.0000</t>
-  </si>
-  <si>
-    <t>HERBANA 30CAPS</t>
-  </si>
-  <si>
-    <t>79.2000</t>
-  </si>
-  <si>
-    <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>92.0000</t>
-  </si>
-  <si>
-    <t>HISTAZINE-1 0.1% SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>67.00</t>
-  </si>
-  <si>
-    <t>67.0000</t>
-  </si>
-  <si>
-    <t>IVABRAGIN 5MG 30TAB</t>
-  </si>
-  <si>
-    <t>234.00</t>
-  </si>
-  <si>
-    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>KENACOMB TOPICAL CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 10MG 20 TAB</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>3:3</t>
-  </si>
-  <si>
     <t>60.00</t>
   </si>
   <si>
+    <t>LACRITEARS EYE DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
+    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>LICID LOTION 30 ML</t>
+  </si>
+  <si>
+    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>MAXOPHAGE XR 1000MG 30 EXT. REL. TABS.</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>METAPSIN 10 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>110.0000</t>
+  </si>
+  <si>
+    <t>MILGA ADVANCE 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>150.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIRFENACIN MR5/25  TAB</t>
+  </si>
+  <si>
+    <t>339.00</t>
+  </si>
+  <si>
+    <t>339.0000</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG 10 TAB.</t>
+  </si>
+  <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>NEUROVIT 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>-33.0000</t>
+  </si>
+  <si>
+    <t>0:-3</t>
+  </si>
+  <si>
+    <t>NEVILOB 5 MG 21 TAB</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>99.0000</t>
+  </si>
+  <si>
+    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>OLOHISTINE 1MG/ML OPHTHALMIC SOL. 5 ML</t>
+  </si>
+  <si>
+    <t>29.00</t>
+  </si>
+  <si>
+    <t>29.0000</t>
+  </si>
+  <si>
+    <t>OPLEX-N SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>OTRIVIN BABY SALINE NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>PANTAZOL 40MG 14 ENTERIC COATED TAB.</t>
+  </si>
+  <si>
+    <t>104.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>PK-MERZ 100MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>81.0000</t>
+  </si>
+  <si>
+    <t>PRIVACOND EYE DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>42.0000</t>
+  </si>
+  <si>
+    <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
+  </si>
+  <si>
+    <t>1:16</t>
+  </si>
+  <si>
+    <t>752.00</t>
+  </si>
+  <si>
+    <t>37.6000</t>
+  </si>
+  <si>
+    <t>RECOXIBRIGHT 120 MG 7 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>88.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RELAX  CAPS</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>63.0000</t>
+  </si>
+  <si>
+    <t>RICHI PANTHENOL ADVANCE GEL</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>SALMETOCORT 250/50MCG 60 PD. INH. CAPS.+ INH. DEVICE</t>
+  </si>
+  <si>
+    <t>237.00</t>
+  </si>
+  <si>
+    <t>37.9200</t>
+  </si>
+  <si>
+    <t>SENSODERM SOAP تي اس</t>
+  </si>
+  <si>
+    <t>64.0000</t>
+  </si>
+  <si>
+    <t>SILIPEX 30 CAPSULES</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>STARVILLE WHITENING ANTIPRESPIRANT ROLL-ON 60 ML</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>TEMPO COOL</t>
+  </si>
+  <si>
+    <t>34.19</t>
+  </si>
+  <si>
+    <t>17.0950</t>
+  </si>
+  <si>
+    <t>TRESIBA 100 I.U./ML FLEXTOUCH PRE-FILLED PEN</t>
+  </si>
+  <si>
+    <t>550.00</t>
+  </si>
+  <si>
+    <t>550.0000</t>
+  </si>
+  <si>
+    <t>TRIBATENS 20/5/12.5MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>TRIPLIXAM 10/2.5/10MG 15 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>TRITTICO 100MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>21.5000</t>
+  </si>
+  <si>
+    <t>TRIVASTAL RETARD 50MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>47.50</t>
+  </si>
+  <si>
+    <t>47.5000</t>
+  </si>
+  <si>
+    <t>TRUZYM TAB</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>UNICTAM 1.5 GM I.M/I.V. VIAL</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>224.0000</t>
+  </si>
+  <si>
+    <t>URAID-N EFF. GRANUL. 12 SACHETS</t>
+  </si>
+  <si>
+    <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>175.00</t>
+  </si>
+  <si>
+    <t>290.5000</t>
+  </si>
+  <si>
+    <t>VENTAMOR BLACK CHARCOAL SOAP 100 GM</t>
+  </si>
+  <si>
+    <t>VIAGRA 50MG 4 F.C. TAB</t>
+  </si>
+  <si>
+    <t>112.00</t>
+  </si>
+  <si>
+    <t>112.0000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 1% EMULGEL 25 GM</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>50.4900</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8326:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t>WESTAIR 4 MG 14 SACHETS</t>
+  </si>
+  <si>
+    <t>98.00</t>
+  </si>
+  <si>
+    <t>98.0000</t>
+  </si>
+  <si>
+    <t>ZITHROKAN 200MG/5ML PD. FOR ORAL SUSP. 15 ML</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
+  </si>
+  <si>
+    <t>14:0</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">برفان القصاص </t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>برمنجنات بوتاسيوم</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>جل صبار برطمان</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>63:0</t>
+  </si>
+  <si>
+    <t>رول اون ريكسونا25</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
     <t>12.0000</t>
   </si>
   <si>
-    <t>LACRITEARS EYE DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>49.00</t>
-  </si>
-  <si>
-    <t>49.0000</t>
-  </si>
-  <si>
-    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>LICID LOTION 30 ML</t>
-  </si>
-  <si>
-    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>MAXOPHAGE XR 1000MG 30 EXT. REL. TABS.</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>METAPSIN 10 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>110.00</t>
-  </si>
-  <si>
-    <t>110.0000</t>
-  </si>
-  <si>
-    <t>MILGA ADVANCE 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>150.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIRFENACIN MR5/25  TAB</t>
-  </si>
-  <si>
-    <t>339.00</t>
-  </si>
-  <si>
-    <t>339.0000</t>
-  </si>
-  <si>
-    <t>MOBITIL 15MG 10 TAB.</t>
-  </si>
-  <si>
-    <t>NEUROTON 6 AMP</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>NEUROVIT 6 I.M. AMPS</t>
-  </si>
-  <si>
-    <t>2:3</t>
-  </si>
-  <si>
-    <t>-33.0000</t>
-  </si>
-  <si>
-    <t>0:-3</t>
-  </si>
-  <si>
-    <t>NEVILOB 5 MG 21 TAB</t>
-  </si>
-  <si>
-    <t>99.00</t>
-  </si>
-  <si>
-    <t>99.0000</t>
-  </si>
-  <si>
-    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>OLOHISTINE 1MG/ML OPHTHALMIC SOL. 5 ML</t>
-  </si>
-  <si>
-    <t>29.00</t>
-  </si>
-  <si>
-    <t>29.0000</t>
-  </si>
-  <si>
-    <t>OPLEX-N SYRUP 125ML</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>OTRIVIN BABY SALINE NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>PANADOL EXTRA 48 TAB</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>PANTAZOL 40MG 14 ENTERIC COATED TAB.</t>
-  </si>
-  <si>
-    <t>104.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>PK-MERZ 100MG 30 F.C. TAB</t>
-  </si>
-  <si>
-    <t>81.00</t>
-  </si>
-  <si>
-    <t>81.0000</t>
-  </si>
-  <si>
-    <t>PRIVACOND EYE DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>42.0000</t>
-  </si>
-  <si>
-    <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
-  </si>
-  <si>
-    <t>1:16</t>
-  </si>
-  <si>
-    <t>752.00</t>
-  </si>
-  <si>
-    <t>37.6000</t>
-  </si>
-  <si>
-    <t>RECOXIBRIGHT 120 MG 7 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>88.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RELAX  CAPS</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>63.0000</t>
-  </si>
-  <si>
-    <t>RICHI PANTHENOL ADVANCE GEL</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t>SALMETOCORT 250/50MCG 60 PD. INH. CAPS.+ INH. DEVICE</t>
-  </si>
-  <si>
-    <t>237.00</t>
-  </si>
-  <si>
-    <t>37.9200</t>
-  </si>
-  <si>
-    <t>SENSODERM SOAP تي اس</t>
-  </si>
-  <si>
-    <t>64.0000</t>
-  </si>
-  <si>
-    <t>SILIPEX 30 CAPSULES</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>STARVILLE WHITENING ANTIPRESPIRANT ROLL-ON 60 ML</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t>TEMPO COOL</t>
-  </si>
-  <si>
-    <t>34.19</t>
-  </si>
-  <si>
-    <t>17.0950</t>
-  </si>
-  <si>
-    <t>TRESIBA 100 I.U./ML FLEXTOUCH PRE-FILLED PEN</t>
-  </si>
-  <si>
-    <t>550.00</t>
-  </si>
-  <si>
-    <t>550.0000</t>
-  </si>
-  <si>
-    <t>TRIBATENS 20/5/12.5MG 30 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>TRIPLIXAM 10/2.5/10MG 15 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>TRITTICO 100MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>21.5000</t>
-  </si>
-  <si>
-    <t>TRIVASTAL RETARD 50MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>47.50</t>
-  </si>
-  <si>
-    <t>47.5000</t>
-  </si>
-  <si>
-    <t>TRUZYM TAB</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>UNICTAM 1.5 GM I.M/I.V. VIAL</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>224.0000</t>
-  </si>
-  <si>
-    <t>URAID-N EFF. GRANUL. 12 SACHETS</t>
-  </si>
-  <si>
-    <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>0:-1</t>
-  </si>
-  <si>
-    <t>175.00</t>
-  </si>
-  <si>
-    <t>290.5000</t>
-  </si>
-  <si>
-    <t>VENTAMOR BLACK CHARCOAL SOAP 100 GM</t>
-  </si>
-  <si>
-    <t>VIAGRA 50MG 4 F.C. TAB</t>
-  </si>
-  <si>
-    <t>112.00</t>
-  </si>
-  <si>
-    <t>112.0000</t>
-  </si>
-  <si>
-    <t>VOLTAREN 1% EMULGEL 25 GM</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>50.4900</t>
-  </si>
-  <si>
-    <t>WATER FOR INJECTION AMP. 5 ML</t>
-  </si>
-  <si>
-    <t>8326:0</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>8.0000</t>
-  </si>
-  <si>
-    <t>WESTAIR 4 MG 14 SACHETS</t>
-  </si>
-  <si>
-    <t>98.00</t>
-  </si>
-  <si>
-    <t>98.0000</t>
-  </si>
-  <si>
-    <t>ZITHROKAN 200MG/5ML PD. FOR ORAL SUSP. 15 ML</t>
-  </si>
-  <si>
-    <t>62.00</t>
-  </si>
-  <si>
-    <t>62.0000</t>
-  </si>
-  <si>
-    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>96.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
-  </si>
-  <si>
-    <t>14:0</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">برفان القصاص </t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>برمنجنات بوتاسيوم</t>
-  </si>
-  <si>
-    <t>10.00</t>
-  </si>
-  <si>
-    <t>10.0000</t>
-  </si>
-  <si>
-    <t>جل صبار برطمان</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>63:0</t>
-  </si>
-  <si>
-    <t>رول اون ريكسونا25</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 10 سم</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>25:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>قطن 50جم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>كريم فيبكس الازرق</t>
+  </si>
+  <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>30:0</t>
+  </si>
+  <si>
     <t>48.0000</t>
   </si>
   <si>
-    <t>24:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>قطن 50جم</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كالونا </t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>كريم فيبكس الازرق</t>
-  </si>
-  <si>
-    <t>محلول ملح</t>
-  </si>
-  <si>
-    <t>30:0</t>
-  </si>
-  <si>
     <t>مناديل FINE</t>
   </si>
   <si>
@@ -1004,7 +1004,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Wednesday, 3 September, 2025 11:07 PM</t>
+    <t>Wednesday, 3 September, 2025 11:08 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2586,7 +2586,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2635,7 +2635,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2649,7 +2649,7 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2661,7 +2661,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2682,7 +2682,7 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>84</v>
@@ -2694,7 +2694,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2711,11 +2711,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2727,7 +2727,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2760,7 +2760,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2777,11 +2777,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2793,14 +2793,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2810,11 +2810,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>53</v>
@@ -2826,14 +2826,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2843,11 +2843,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>30</v>
@@ -2859,7 +2859,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2876,11 +2876,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>23</v>
@@ -2892,7 +2892,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2909,11 +2909,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2925,7 +2925,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2942,11 +2942,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>41</v>
@@ -2958,7 +2958,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2975,11 +2975,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2991,7 +2991,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -3008,11 +3008,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -3024,7 +3024,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -3041,11 +3041,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -3074,11 +3074,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -3090,7 +3090,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -3107,11 +3107,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -3123,7 +3123,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3144,7 +3144,7 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>30</v>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3173,11 +3173,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3189,7 +3189,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3222,14 +3222,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3239,11 +3239,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3255,7 +3255,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3272,7 +3272,7 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
@@ -3288,7 +3288,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3305,11 +3305,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3321,7 +3321,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3342,7 +3342,7 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3354,7 +3354,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3371,7 +3371,7 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
@@ -3387,14 +3387,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3404,14 +3404,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3420,7 +3420,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3437,11 +3437,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3453,7 +3453,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3470,7 +3470,7 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
@@ -3486,7 +3486,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3503,11 +3503,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3519,7 +3519,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3552,7 +3552,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3569,11 +3569,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3585,7 +3585,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3602,11 +3602,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3618,7 +3618,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3635,11 +3635,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3651,7 +3651,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3668,11 +3668,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3684,7 +3684,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3705,7 +3705,7 @@
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3717,7 +3717,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3734,11 +3734,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3750,14 +3750,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3767,14 +3767,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3783,7 +3783,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3800,11 +3800,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3816,7 +3816,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3833,11 +3833,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3849,14 +3849,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3866,11 +3866,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3882,7 +3882,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3899,11 +3899,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3915,7 +3915,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3932,11 +3932,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3948,7 +3948,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3965,11 +3965,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>21</v>
@@ -3981,7 +3981,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3998,11 +3998,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>21</v>
@@ -4014,7 +4014,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -4031,11 +4031,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -4047,7 +4047,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4064,11 +4064,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4080,14 +4080,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4097,11 +4097,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>21</v>
@@ -4113,7 +4113,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4130,11 +4130,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4146,7 +4146,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4163,11 +4163,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4179,7 +4179,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4200,7 +4200,7 @@
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4212,7 +4212,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4229,11 +4229,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>21</v>
@@ -4245,7 +4245,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4266,7 +4266,7 @@
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4278,7 +4278,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4295,11 +4295,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4311,7 +4311,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4328,11 +4328,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4344,7 +4344,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4361,11 +4361,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>21</v>
@@ -4377,7 +4377,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4394,11 +4394,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4410,7 +4410,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4427,11 +4427,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4443,7 +4443,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4460,7 +4460,7 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
@@ -4476,7 +4476,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4497,7 +4497,7 @@
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>21</v>
@@ -4509,7 +4509,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4526,11 +4526,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4542,7 +4542,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4559,11 +4559,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>21</v>
@@ -4575,7 +4575,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4592,11 +4592,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>111</v>
@@ -4608,7 +4608,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4625,11 +4625,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4641,14 +4641,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4658,11 +4658,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>84</v>
@@ -4674,7 +4674,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4695,7 +4695,7 @@
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4707,7 +4707,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4724,11 +4724,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4740,7 +4740,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4757,11 +4757,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4773,7 +4773,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4790,11 +4790,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>39</v>
@@ -4806,14 +4806,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4823,11 +4823,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>111</v>
@@ -4839,7 +4839,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4856,11 +4856,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4872,7 +4872,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4889,11 +4889,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4905,7 +4905,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4922,11 +4922,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4938,14 +4938,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4959,7 +4959,7 @@
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4971,14 +4971,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4988,11 +4988,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>41</v>
@@ -5004,7 +5004,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -5021,11 +5021,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5037,7 +5037,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5058,7 +5058,7 @@
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5070,14 +5070,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5087,11 +5087,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>12</v>
@@ -5103,14 +5103,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5120,11 +5120,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5136,7 +5136,7 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5153,11 +5153,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>182</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>12</v>
@@ -5169,7 +5169,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5186,14 +5186,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
+        <v>317</v>
+      </c>
+      <c t="s" r="Q114" s="12">
         <v>318</v>
-      </c>
-      <c t="s" r="Q114" s="12">
-        <v>319</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5202,7 +5202,7 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -5219,7 +5219,7 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
@@ -5235,7 +5235,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5252,11 +5252,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5268,7 +5268,7 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
@@ -5285,7 +5285,7 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
@@ -5301,7 +5301,7 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
@@ -5318,11 +5318,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5334,14 +5334,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5351,11 +5351,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>41</v>
@@ -5384,7 +5384,7 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
@@ -5417,7 +5417,7 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
@@ -5429,7 +5429,7 @@
     </row>
     <row r="122" ht="25.5" customHeight="1">
       <c r="P122" s="13">
-        <v>8775.7350000000006</v>
+        <v>8825.4950000000008</v>
       </c>
       <c r="Q122" s="13"/>
     </row>

--- a/DaySale_2025-09-03_00-00.xlsx
+++ b/DaySale_2025-09-03_00-00.xlsx
@@ -1004,7 +1004,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Wednesday, 3 September, 2025 11:08 PM</t>
+    <t>Wednesday, 3 September, 2025 11:16 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-03_00-00.xlsx
+++ b/DaySale_2025-09-03_00-00.xlsx
@@ -227,6 +227,15 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>CAL-PREG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>21.4500</t>
+  </si>
+  <si>
     <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
   </si>
   <si>
@@ -329,6 +338,15 @@
     <t>141.0000</t>
   </si>
   <si>
+    <t>D.DEP 10.000 I.U. 30 CAPS</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>150.0000</t>
+  </si>
+  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
@@ -365,9 +383,6 @@
     <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
   </si>
   <si>
-    <t>65.00</t>
-  </si>
-  <si>
     <t>78.0000</t>
   </si>
   <si>
@@ -395,6 +410,18 @@
     <t>DURICEF 500MG/5ML SUSP. 60ML</t>
   </si>
   <si>
+    <t>EPIMAG EFFERVESCENT 12 SACHETS</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
   </si>
   <si>
@@ -599,9 +626,6 @@
     <t>150.00</t>
   </si>
   <si>
-    <t>150.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">MIRFENACIN MR5/25  TAB</t>
   </si>
   <si>
@@ -686,6 +710,12 @@
     <t>52.0000</t>
   </si>
   <si>
+    <t>PANTOPRAZOLE 40MG 14 TAB.</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
     <t>PK-MERZ 100MG 30 F.C. TAB</t>
   </si>
   <si>
@@ -755,9 +785,6 @@
     <t>SILIPEX 30 CAPSULES</t>
   </si>
   <si>
-    <t>90.00</t>
-  </si>
-  <si>
     <t>90.0000</t>
   </si>
   <si>
@@ -1004,7 +1031,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Wednesday, 3 September, 2025 11:16 PM</t>
+    <t>Wednesday, 3 September, 2025 11:17 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2173,7 +2200,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2183,14 +2210,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2199,14 +2226,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2216,11 +2243,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -2232,14 +2259,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2272,7 +2299,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2282,14 +2309,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2298,14 +2325,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2322,7 +2349,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2338,7 +2365,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2348,11 +2375,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2364,14 +2391,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2388,7 +2415,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2404,7 +2431,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2421,7 +2448,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2437,7 +2464,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2503,7 +2530,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>107</v>
+        <v>45</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2513,14 +2540,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2529,14 +2556,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2546,14 +2573,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>53</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2562,14 +2589,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2579,14 +2606,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2595,14 +2622,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2619,7 +2646,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>23</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2635,7 +2662,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2645,14 +2672,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>42</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2661,14 +2688,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2678,14 +2705,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2694,14 +2721,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2711,7 +2738,7 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>42</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
@@ -2734,7 +2761,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2744,14 +2771,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2760,14 +2787,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>23</v>
+        <v>117</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2777,11 +2804,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2793,14 +2820,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>132</v>
+        <v>41</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2810,14 +2837,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2826,14 +2853,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2843,14 +2870,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2859,14 +2886,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2876,14 +2903,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2892,14 +2919,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>45</v>
+        <v>141</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2909,14 +2936,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2925,14 +2952,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>145</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2949,7 +2976,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2965,7 +2992,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2975,14 +3002,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2991,7 +3018,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -3008,14 +3035,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3024,14 +3051,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3041,14 +3068,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3057,14 +3084,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3074,11 +3101,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -3097,24 +3124,24 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3123,31 +3150,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>62</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3156,14 +3183,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3173,11 +3200,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3189,28 +3216,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>14</v>
+        <v>149</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>15</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3222,31 +3249,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>167</v>
+        <v>30</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>62</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3255,28 +3282,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>43</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3288,14 +3315,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3305,11 +3332,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>14</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3328,7 +3355,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>111</v>
+        <v>176</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3338,11 +3365,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>108</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3354,31 +3381,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>125</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3387,14 +3414,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>179</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3404,14 +3431,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3420,14 +3447,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>117</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3437,11 +3464,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>114</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3453,14 +3480,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3470,14 +3497,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>130</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3486,14 +3513,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>77</v>
+        <v>188</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3503,14 +3530,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>143</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>144</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3519,14 +3546,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3536,11 +3563,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>54</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>55</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3552,14 +3579,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3569,14 +3596,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>190</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3585,14 +3612,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3602,11 +3629,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>192</v>
+        <v>152</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3618,14 +3645,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3635,11 +3662,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>195</v>
+        <v>54</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3658,13 +3685,13 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
@@ -3691,7 +3718,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3701,11 +3728,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>108</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>176</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3717,14 +3744,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3734,11 +3761,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3750,31 +3777,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>204</v>
+        <v>87</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>206</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3783,14 +3810,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3800,11 +3827,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>208</v>
+        <v>114</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3816,7 +3843,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3833,11 +3860,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3849,14 +3876,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>167</v>
+        <v>212</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3866,14 +3893,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>214</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3882,14 +3909,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3899,11 +3926,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3915,14 +3942,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3932,11 +3959,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3948,31 +3975,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>18</v>
+        <v>176</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>133</v>
+        <v>222</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3981,14 +4008,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3998,14 +4025,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4014,14 +4041,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>30</v>
+        <v>117</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4031,11 +4058,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -4054,24 +4081,24 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>229</v>
+        <v>142</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4080,14 +4107,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>232</v>
+        <v>21</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4097,11 +4124,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>21</v>
@@ -4113,14 +4140,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4130,14 +4157,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4146,7 +4173,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4159,15 +4186,15 @@
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4179,28 +4206,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>112</v>
+        <v>239</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4212,14 +4239,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>39</v>
+        <v>242</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4258,15 +4285,15 @@
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>65</v>
+        <v>246</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>246</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4285,13 +4312,13 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
@@ -4324,15 +4351,15 @@
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>251</v>
+        <v>118</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4344,28 +4371,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>21</v>
@@ -4377,7 +4404,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4390,15 +4417,15 @@
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>257</v>
+        <v>65</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4410,7 +4437,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4427,11 +4454,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4443,7 +4470,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4460,11 +4487,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>171</v>
+        <v>260</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>43</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4476,28 +4503,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>74</v>
+        <v>263</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>21</v>
@@ -4509,14 +4536,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4526,11 +4553,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4542,7 +4569,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4555,18 +4582,18 @@
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4575,14 +4602,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4592,14 +4619,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>269</v>
+        <v>180</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>270</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>111</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4608,14 +4635,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4625,14 +4652,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>126</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4648,7 +4675,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>273</v>
+        <v>16</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4658,14 +4685,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>84</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4674,7 +4701,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4687,18 +4714,18 @@
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>112</v>
+        <v>260</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>241</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4714,7 +4741,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4731,7 +4758,7 @@
         <v>279</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>117</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4747,7 +4774,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4757,11 +4784,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>185</v>
+        <v>130</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>281</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4773,14 +4800,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>12</v>
+        <v>282</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4790,14 +4817,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>129</v>
+        <v>283</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>39</v>
+        <v>87</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4806,14 +4833,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>285</v>
+        <v>45</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4823,14 +4850,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>286</v>
+        <v>118</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>287</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>111</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4839,7 +4866,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4856,11 +4883,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4872,14 +4899,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4889,11 +4916,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>292</v>
+        <v>194</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4905,14 +4932,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4922,14 +4949,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>295</v>
+        <v>138</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4938,31 +4965,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>27</v>
+        <v>295</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>117</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4971,31 +4998,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>167</v>
+        <v>45</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5004,28 +5031,28 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5037,28 +5064,28 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>27</v>
+        <v>304</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5070,14 +5097,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5087,14 +5114,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>211</v>
+        <v>27</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5110,7 +5137,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>310</v>
+        <v>176</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5120,14 +5147,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5136,14 +5163,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>45</v>
+        <v>117</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5153,14 +5180,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5169,14 +5196,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5186,14 +5213,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>286</v>
+        <v>27</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>318</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5202,14 +5229,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>45</v>
+        <v>317</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5219,14 +5246,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>320</v>
+        <v>219</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>63</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>73</v>
+        <v>12</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5235,14 +5262,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>16</v>
+        <v>319</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5252,11 +5279,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>304</v>
+        <v>320</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5289,10 +5316,10 @@
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>63</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5301,14 +5328,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5318,14 +5345,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>16</v>
+        <v>327</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5334,14 +5361,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>326</v>
+        <v>45</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5351,14 +5378,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>137</v>
+        <v>329</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>327</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>41</v>
+        <v>76</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5367,14 +5394,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>329</v>
+        <v>16</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5384,11 +5411,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>63</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5400,14 +5427,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5417,49 +5444,181 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>301</v>
+        <v>332</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
         <v>63</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
-      <c r="P122" s="13">
-        <v>8825.4950000000008</v>
-      </c>
-      <c r="Q122" s="13"/>
-    </row>
-    <row r="123" ht="16.5" customHeight="1">
-      <c t="s" r="A123" s="14">
-        <v>331</v>
-      </c>
-      <c r="B123" s="14"/>
-      <c r="C123" s="14"/>
-      <c r="D123" s="14"/>
-      <c r="E123" s="14"/>
-      <c r="F123" s="14"/>
-      <c t="s" r="G123" s="15">
-        <v>332</v>
-      </c>
-      <c r="H123" s="15"/>
-      <c r="I123" s="15"/>
-      <c r="J123" s="16"/>
-      <c t="s" r="K123" s="17">
+      <c r="A122" s="7">
+        <v>116</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c t="s" r="C122" s="8">
         <v>333</v>
       </c>
-      <c r="L123" s="17"/>
-      <c r="M123" s="17"/>
-      <c r="N123" s="17"/>
-      <c r="O123" s="17"/>
-      <c r="P123" s="17"/>
-      <c r="Q123" s="17"/>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c t="s" r="H122" s="9">
+        <v>117</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c t="s" r="L122" s="10">
+        <v>37</v>
+      </c>
+      <c r="M122" s="10"/>
+      <c t="s" r="N122" s="8">
+        <v>320</v>
+      </c>
+      <c r="O122" s="8"/>
+      <c t="s" r="P122" s="11">
+        <v>321</v>
+      </c>
+      <c t="s" r="Q122" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="A123" s="7">
+        <v>117</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c t="s" r="C123" s="8">
+        <v>334</v>
+      </c>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c t="s" r="H123" s="9">
+        <v>335</v>
+      </c>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c t="s" r="L123" s="10">
+        <v>37</v>
+      </c>
+      <c r="M123" s="10"/>
+      <c t="s" r="N123" s="8">
+        <v>146</v>
+      </c>
+      <c r="O123" s="8"/>
+      <c t="s" r="P123" s="11">
+        <v>336</v>
+      </c>
+      <c t="s" r="Q123" s="12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="A124" s="7">
+        <v>118</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c t="s" r="C124" s="8">
+        <v>337</v>
+      </c>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c t="s" r="H124" s="9">
+        <v>338</v>
+      </c>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c t="s" r="L124" s="10">
+        <v>37</v>
+      </c>
+      <c r="M124" s="10"/>
+      <c t="s" r="N124" s="8">
+        <v>310</v>
+      </c>
+      <c r="O124" s="8"/>
+      <c t="s" r="P124" s="11">
+        <v>63</v>
+      </c>
+      <c t="s" r="Q124" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="A125" s="7">
+        <v>119</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c t="s" r="C125" s="8">
+        <v>339</v>
+      </c>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c t="s" r="H125" s="9">
+        <v>41</v>
+      </c>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c t="s" r="L125" s="10">
+        <v>37</v>
+      </c>
+      <c r="M125" s="10"/>
+      <c t="s" r="N125" s="8">
+        <v>310</v>
+      </c>
+      <c r="O125" s="8"/>
+      <c t="s" r="P125" s="11">
+        <v>63</v>
+      </c>
+      <c t="s" r="Q125" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="P126" s="13">
+        <v>9067.9449999999997</v>
+      </c>
+      <c r="Q126" s="13"/>
+    </row>
+    <row r="127" ht="16.5" customHeight="1">
+      <c t="s" r="A127" s="14">
+        <v>340</v>
+      </c>
+      <c r="B127" s="14"/>
+      <c r="C127" s="14"/>
+      <c r="D127" s="14"/>
+      <c r="E127" s="14"/>
+      <c r="F127" s="14"/>
+      <c t="s" r="G127" s="15">
+        <v>341</v>
+      </c>
+      <c r="H127" s="15"/>
+      <c r="I127" s="15"/>
+      <c r="J127" s="16"/>
+      <c t="s" r="K127" s="17">
+        <v>342</v>
+      </c>
+      <c r="L127" s="17"/>
+      <c r="M127" s="17"/>
+      <c r="N127" s="17"/>
+      <c r="O127" s="17"/>
+      <c r="P127" s="17"/>
+      <c r="Q127" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="587">
+  <mergeCells count="607">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6043,10 +6202,30 @@
     <mergeCell ref="H121:K121"/>
     <mergeCell ref="L121:M121"/>
     <mergeCell ref="N121:O121"/>
-    <mergeCell ref="P122:Q122"/>
-    <mergeCell ref="A123:F123"/>
-    <mergeCell ref="G123:I123"/>
-    <mergeCell ref="K123:Q123"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="P126:Q126"/>
+    <mergeCell ref="A127:F127"/>
+    <mergeCell ref="G127:I127"/>
+    <mergeCell ref="K127:Q127"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-03_00-00.xlsx
+++ b/DaySale_2025-09-03_00-00.xlsx
@@ -1031,7 +1031,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Wednesday, 3 September, 2025 11:17 PM</t>
+    <t>Wednesday, 3 September, 2025 11:23 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-03_00-00.xlsx
+++ b/DaySale_2025-09-03_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ADOLOR 30 MG 3 AMPS.</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>ALL-VENT SYRUP 125ML</t>
   </si>
   <si>
     <t>3:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>34.00</t>
   </si>
   <si>
@@ -101,9 +116,6 @@
     <t>ANGIOFOX (EFFOX) 25MG LONG 30 CAPS.</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>114.00</t>
   </si>
   <si>
@@ -353,9 +365,6 @@
     <t>8:1</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
     <t>11.8800</t>
   </si>
   <si>
@@ -989,10 +998,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>25:0</t>
+    <t>54.0000</t>
+  </si>
+  <si>
+    <t>27:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -1755,7 +1764,7 @@
         <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1764,14 +1773,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1781,14 +1790,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1797,14 +1806,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1814,14 +1823,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1830,14 +1839,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1847,14 +1856,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1863,31 +1872,31 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1903,24 +1912,24 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
+        <v>42</v>
+      </c>
+      <c t="s" r="Q14" s="12">
         <v>43</v>
-      </c>
-      <c t="s" r="Q14" s="12">
-        <v>23</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1953,7 +1962,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -2019,7 +2028,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -2052,7 +2061,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2085,7 +2094,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2101,7 +2110,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2111,14 +2120,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2127,14 +2136,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2144,14 +2153,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2160,14 +2169,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2177,11 +2186,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -2193,14 +2202,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2210,14 +2219,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2226,14 +2235,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2250,7 +2259,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2283,7 +2292,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2299,7 +2308,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2309,14 +2318,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2325,14 +2334,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2365,7 +2374,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2375,14 +2384,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2391,14 +2400,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2415,7 +2424,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2431,7 +2440,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2441,14 +2450,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2457,14 +2466,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2474,11 +2483,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2490,14 +2499,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2507,14 +2516,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2523,14 +2532,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2540,14 +2549,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2556,14 +2565,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2573,11 +2582,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -2589,14 +2598,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>113</v>
+        <v>49</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2613,7 +2622,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2639,14 +2648,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>118</v>
+        <v>14</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>53</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2655,14 +2664,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2672,14 +2681,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>122</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>23</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2695,7 +2704,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>57</v>
+        <v>124</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2705,14 +2714,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2721,14 +2730,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>121</v>
+        <v>61</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2738,14 +2747,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2754,14 +2763,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2771,14 +2780,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>87</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2787,7 +2796,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2804,14 +2813,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2827,7 +2836,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2837,14 +2846,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>24</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2853,14 +2862,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>134</v>
+        <v>45</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2870,14 +2879,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>29</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2886,14 +2895,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>23</v>
+        <v>137</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2910,7 +2919,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2926,7 +2935,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>141</v>
+        <v>28</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2936,14 +2945,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>53</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2952,14 +2961,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2969,14 +2978,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>30</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2985,14 +2994,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>21</v>
+        <v>148</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3009,7 +3018,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3025,7 +3034,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3042,7 +3051,7 @@
         <v>153</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3058,7 +3067,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3075,7 +3084,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3091,7 +3100,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3101,14 +3110,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3117,14 +3126,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3134,14 +3143,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3157,7 +3166,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3174,7 +3183,7 @@
         <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3190,7 +3199,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3207,7 +3216,7 @@
         <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3223,24 +3232,24 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3249,31 +3258,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>62</v>
+        <v>152</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3282,7 +3291,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3295,11 +3304,11 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>66</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
@@ -3322,7 +3331,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3332,14 +3341,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>14</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>15</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3348,14 +3357,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>176</v>
+        <v>49</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3365,14 +3374,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>19</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3381,20 +3390,20 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>45</v>
+        <v>179</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
@@ -3402,10 +3411,10 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>43</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3414,31 +3423,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3454,7 +3463,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>117</v>
+        <v>21</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3464,14 +3473,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>114</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3480,14 +3489,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3497,11 +3506,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>130</v>
+        <v>14</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>89</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
@@ -3513,14 +3522,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>188</v>
+        <v>21</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3530,14 +3539,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>133</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3553,7 +3562,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>191</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3563,14 +3572,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3586,7 +3595,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3600,10 +3609,10 @@
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>124</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3612,14 +3621,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3629,14 +3638,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>152</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3645,14 +3654,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3662,14 +3671,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>54</v>
+        <v>155</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>55</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3678,14 +3687,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3695,14 +3704,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>198</v>
+        <v>58</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3718,7 +3727,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3735,7 +3744,7 @@
         <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3751,7 +3760,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3765,10 +3774,10 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>111</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3777,31 +3786,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3817,24 +3826,24 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>114</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3843,14 +3852,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3860,14 +3869,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>210</v>
+        <v>14</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>160</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3876,14 +3885,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>212</v>
+        <v>21</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3893,14 +3902,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>213</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>214</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3909,14 +3918,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>21</v>
+        <v>215</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3926,14 +3935,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
+        <v>216</v>
+      </c>
+      <c t="s" r="Q75" s="12">
         <v>217</v>
-      </c>
-      <c t="s" r="Q75" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3949,7 +3958,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3966,7 +3975,7 @@
         <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3982,7 +3991,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>176</v>
+        <v>21</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3999,7 +4008,7 @@
         <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4015,7 +4024,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>179</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4032,7 +4041,7 @@
         <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4048,7 +4057,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>117</v>
+        <v>18</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4058,14 +4067,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4074,28 +4083,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>142</v>
+        <v>222</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>21</v>
@@ -4107,31 +4116,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>231</v>
+        <v>145</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
         <v>232</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4147,7 +4156,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4161,10 +4170,10 @@
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>183</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4173,14 +4182,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4190,14 +4199,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>237</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4213,7 +4222,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4230,7 +4239,7 @@
         <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4246,7 +4255,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>242</v>
+        <v>45</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4256,11 +4265,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>21</v>
@@ -4272,14 +4281,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>45</v>
+        <v>245</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4293,10 +4302,10 @@
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>156</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4305,31 +4314,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>249</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4345,24 +4354,24 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>118</v>
+        <v>251</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4371,24 +4380,24 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>253</v>
+        <v>121</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
@@ -4411,24 +4420,24 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>65</v>
+        <v>256</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4437,31 +4446,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>234</v>
+        <v>69</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4470,14 +4479,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4487,14 +4496,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>260</v>
+        <v>237</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
         <v>261</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4510,13 +4519,13 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
@@ -4549,7 +4558,7 @@
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
@@ -4560,7 +4569,7 @@
         <v>267</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4576,7 +4585,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4586,14 +4595,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>234</v>
+        <v>269</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4602,14 +4611,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4619,14 +4628,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>180</v>
+        <v>237</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>43</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4635,14 +4644,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4652,11 +4661,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>77</v>
+        <v>183</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>271</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>21</v>
@@ -4668,14 +4677,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4685,14 +4694,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>273</v>
+        <v>81</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
         <v>274</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4708,21 +4717,21 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>21</v>
@@ -4734,31 +4743,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
         <v>279</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>117</v>
+        <v>26</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4774,7 +4783,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4784,14 +4793,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>130</v>
+        <v>281</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>131</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>120</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4800,14 +4809,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>282</v>
+        <v>18</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4817,14 +4826,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>283</v>
+        <v>133</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>284</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>87</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4833,14 +4842,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>45</v>
+        <v>285</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4850,14 +4859,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>118</v>
+        <v>286</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>251</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>91</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4866,14 +4875,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4883,14 +4892,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>287</v>
+        <v>121</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>288</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4906,7 +4915,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4916,14 +4925,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>194</v>
+        <v>290</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4932,14 +4941,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4949,14 +4958,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>138</v>
+        <v>197</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4965,14 +4974,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>294</v>
+        <v>18</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4982,14 +4991,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>295</v>
+        <v>141</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>117</v>
+        <v>43</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4998,14 +5007,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>45</v>
+        <v>297</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5022,7 +5031,7 @@
         <v>299</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>120</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5038,7 +5047,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5055,7 +5064,7 @@
         <v>302</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5071,7 +5080,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5088,7 +5097,7 @@
         <v>305</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5104,24 +5113,24 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>307</v>
+        <v>120</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>27</v>
+        <v>307</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
         <v>308</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5137,24 +5146,24 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>176</v>
+        <v>310</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>310</v>
+        <v>32</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
         <v>311</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5170,13 +5179,13 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>117</v>
+        <v>179</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
@@ -5187,7 +5196,7 @@
         <v>314</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5203,24 +5212,24 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>27</v>
+        <v>316</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5229,31 +5238,31 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>317</v>
+        <v>45</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>219</v>
+        <v>32</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
         <v>311</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5262,31 +5271,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>320</v>
+        <v>222</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5295,20 +5304,20 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>45</v>
+        <v>322</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
@@ -5319,7 +5328,7 @@
         <v>324</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5335,24 +5344,24 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>327</v>
+        <v>18</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5368,24 +5377,24 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>329</v>
+        <v>298</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>63</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>76</v>
+        <v>330</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5394,31 +5403,31 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>313</v>
+        <v>332</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>314</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5427,31 +5436,31 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>63</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5460,31 +5469,31 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>321</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5493,31 +5502,31 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>335</v>
+        <v>120</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>146</v>
+        <v>323</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5539,18 +5548,18 @@
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>310</v>
+        <v>149</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>63</v>
+        <v>339</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5559,66 +5568,99 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>41</v>
+        <v>341</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
-      <c r="P126" s="13">
-        <v>9067.9449999999997</v>
-      </c>
-      <c r="Q126" s="13"/>
-    </row>
-    <row r="127" ht="16.5" customHeight="1">
-      <c t="s" r="A127" s="14">
-        <v>340</v>
-      </c>
-      <c r="B127" s="14"/>
-      <c r="C127" s="14"/>
-      <c r="D127" s="14"/>
-      <c r="E127" s="14"/>
-      <c r="F127" s="14"/>
-      <c t="s" r="G127" s="15">
-        <v>341</v>
-      </c>
-      <c r="H127" s="15"/>
-      <c r="I127" s="15"/>
-      <c r="J127" s="16"/>
-      <c t="s" r="K127" s="17">
+      <c r="A126" s="7">
+        <v>120</v>
+      </c>
+      <c r="B126" s="7"/>
+      <c t="s" r="C126" s="8">
         <v>342</v>
       </c>
-      <c r="L127" s="17"/>
-      <c r="M127" s="17"/>
-      <c r="N127" s="17"/>
-      <c r="O127" s="17"/>
-      <c r="P127" s="17"/>
-      <c r="Q127" s="17"/>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c t="s" r="H126" s="9">
+        <v>45</v>
+      </c>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c t="s" r="L126" s="10">
+        <v>41</v>
+      </c>
+      <c r="M126" s="10"/>
+      <c t="s" r="N126" s="8">
+        <v>313</v>
+      </c>
+      <c r="O126" s="8"/>
+      <c t="s" r="P126" s="11">
+        <v>67</v>
+      </c>
+      <c t="s" r="Q126" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="P127" s="13">
+        <v>9095.7049999999999</v>
+      </c>
+      <c r="Q127" s="13"/>
+    </row>
+    <row r="128" ht="16.5" customHeight="1">
+      <c t="s" r="A128" s="14">
+        <v>343</v>
+      </c>
+      <c r="B128" s="14"/>
+      <c r="C128" s="14"/>
+      <c r="D128" s="14"/>
+      <c r="E128" s="14"/>
+      <c r="F128" s="14"/>
+      <c t="s" r="G128" s="15">
+        <v>344</v>
+      </c>
+      <c r="H128" s="15"/>
+      <c r="I128" s="15"/>
+      <c r="J128" s="16"/>
+      <c t="s" r="K128" s="17">
+        <v>345</v>
+      </c>
+      <c r="L128" s="17"/>
+      <c r="M128" s="17"/>
+      <c r="N128" s="17"/>
+      <c r="O128" s="17"/>
+      <c r="P128" s="17"/>
+      <c r="Q128" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="607">
+  <mergeCells count="612">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6222,10 +6264,15 @@
     <mergeCell ref="H125:K125"/>
     <mergeCell ref="L125:M125"/>
     <mergeCell ref="N125:O125"/>
-    <mergeCell ref="P126:Q126"/>
-    <mergeCell ref="A127:F127"/>
-    <mergeCell ref="G127:I127"/>
-    <mergeCell ref="K127:Q127"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="P127:Q127"/>
+    <mergeCell ref="A128:F128"/>
+    <mergeCell ref="G128:I128"/>
+    <mergeCell ref="K128:Q128"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-03_00-00.xlsx
+++ b/DaySale_2025-09-03_00-00.xlsx
@@ -1040,7 +1040,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Wednesday, 3 September, 2025 11:23 PM</t>
+    <t>Wednesday, 3 September, 2025 11:24 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-03_00-00.xlsx
+++ b/DaySale_2025-09-03_00-00.xlsx
@@ -455,13 +455,16 @@
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
-    <t>8:2</t>
+    <t>7:5</t>
   </si>
   <si>
     <t>24.00</t>
   </si>
   <si>
-    <t>7.6800</t>
+    <t>19.6800</t>
+  </si>
+  <si>
+    <t>0:5</t>
   </si>
   <si>
     <t>FEROGLOBIN 30 CAPS</t>
@@ -3018,7 +3021,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>151</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3027,7 +3030,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -3044,11 +3047,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>28</v>
@@ -3060,7 +3063,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -3077,11 +3080,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -3093,7 +3096,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -3110,11 +3113,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>45</v>
@@ -3126,7 +3129,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -3159,7 +3162,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3176,11 +3179,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>18</v>
@@ -3192,7 +3195,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3209,11 +3212,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>26</v>
@@ -3225,7 +3228,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3242,11 +3245,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -3258,7 +3261,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3275,11 +3278,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>21</v>
@@ -3291,7 +3294,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3312,7 +3315,7 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3324,7 +3327,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3341,11 +3344,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -3357,7 +3360,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3390,14 +3393,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3407,11 +3410,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>21</v>
@@ -3423,7 +3426,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3440,7 +3443,7 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
@@ -3456,7 +3459,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3473,11 +3476,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>21</v>
@@ -3489,7 +3492,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3510,7 +3513,7 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
@@ -3522,7 +3525,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3555,14 +3558,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3572,11 +3575,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>43</v>
@@ -3588,7 +3591,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3605,11 +3608,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>21</v>
@@ -3621,7 +3624,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3638,7 +3641,7 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
@@ -3654,7 +3657,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3671,11 +3674,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>21</v>
@@ -3687,7 +3690,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3720,7 +3723,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3737,11 +3740,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>21</v>
@@ -3753,7 +3756,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3770,11 +3773,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>21</v>
@@ -3786,7 +3789,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3803,7 +3806,7 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
@@ -3819,7 +3822,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3836,11 +3839,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>21</v>
@@ -3852,7 +3855,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3873,7 +3876,7 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>21</v>
@@ -3885,7 +3888,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3902,11 +3905,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>21</v>
@@ -3918,14 +3921,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3935,14 +3938,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3951,7 +3954,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3968,11 +3971,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>21</v>
@@ -3984,7 +3987,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -4001,11 +4004,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>21</v>
@@ -4017,14 +4020,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4034,11 +4037,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>21</v>
@@ -4050,7 +4053,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -4067,11 +4070,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>21</v>
@@ -4083,7 +4086,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4100,11 +4103,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>21</v>
@@ -4116,7 +4119,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4137,7 +4140,7 @@
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>26</v>
@@ -4149,7 +4152,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4166,11 +4169,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>26</v>
@@ -4182,7 +4185,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4199,11 +4202,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>26</v>
@@ -4215,7 +4218,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4232,11 +4235,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>21</v>
@@ -4248,7 +4251,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4265,11 +4268,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>21</v>
@@ -4281,14 +4284,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4298,11 +4301,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>26</v>
@@ -4314,7 +4317,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4331,11 +4334,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>21</v>
@@ -4347,7 +4350,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4364,11 +4367,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>21</v>
@@ -4380,7 +4383,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4401,7 +4404,7 @@
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>21</v>
@@ -4413,7 +4416,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4430,11 +4433,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>26</v>
@@ -4446,7 +4449,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4467,7 +4470,7 @@
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>21</v>
@@ -4479,7 +4482,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4496,11 +4499,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>21</v>
@@ -4512,7 +4515,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4529,11 +4532,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>21</v>
@@ -4545,7 +4548,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4562,11 +4565,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>26</v>
@@ -4578,7 +4581,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4595,11 +4598,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>21</v>
@@ -4611,7 +4614,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4628,11 +4631,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>21</v>
@@ -4644,7 +4647,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4661,7 +4664,7 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
@@ -4677,7 +4680,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4698,7 +4701,7 @@
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>26</v>
@@ -4710,7 +4713,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4727,11 +4730,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>21</v>
@@ -4743,7 +4746,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4760,11 +4763,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>26</v>
@@ -4776,7 +4779,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4793,11 +4796,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>120</v>
@@ -4809,7 +4812,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4842,14 +4845,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4859,11 +4862,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>91</v>
@@ -4875,7 +4878,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4896,7 +4899,7 @@
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>21</v>
@@ -4908,7 +4911,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4925,11 +4928,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>21</v>
@@ -4941,7 +4944,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4958,11 +4961,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>21</v>
@@ -4974,7 +4977,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4995,7 +4998,7 @@
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>43</v>
@@ -5007,14 +5010,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5024,11 +5027,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>120</v>
@@ -5040,7 +5043,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -5057,11 +5060,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>21</v>
@@ -5073,7 +5076,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5090,11 +5093,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>21</v>
@@ -5106,7 +5109,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5123,11 +5126,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>21</v>
@@ -5139,14 +5142,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5160,7 +5163,7 @@
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>21</v>
@@ -5172,14 +5175,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5189,11 +5192,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>45</v>
@@ -5205,7 +5208,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5222,11 +5225,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>21</v>
@@ -5238,7 +5241,7 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -5259,7 +5262,7 @@
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>21</v>
@@ -5271,14 +5274,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5288,11 +5291,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>18</v>
@@ -5304,14 +5307,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5321,11 +5324,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>21</v>
@@ -5337,7 +5340,7 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
@@ -5354,11 +5357,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>18</v>
@@ -5370,7 +5373,7 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -5387,14 +5390,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5403,7 +5406,7 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
@@ -5420,7 +5423,7 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
@@ -5436,7 +5439,7 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
@@ -5453,11 +5456,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>21</v>
@@ -5469,7 +5472,7 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
@@ -5486,7 +5489,7 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
@@ -5502,7 +5505,7 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
@@ -5519,11 +5522,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>21</v>
@@ -5535,14 +5538,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5556,7 +5559,7 @@
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>45</v>
@@ -5568,14 +5571,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5585,7 +5588,7 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
@@ -5601,7 +5604,7 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
@@ -5618,7 +5621,7 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
@@ -5630,13 +5633,13 @@
     </row>
     <row r="127" ht="25.5" customHeight="1">
       <c r="P127" s="13">
-        <v>9095.7049999999999</v>
+        <v>9107.7049999999999</v>
       </c>
       <c r="Q127" s="13"/>
     </row>
     <row r="128" ht="16.5" customHeight="1">
       <c t="s" r="A128" s="14">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B128" s="14"/>
       <c r="C128" s="14"/>
@@ -5644,13 +5647,13 @@
       <c r="E128" s="14"/>
       <c r="F128" s="14"/>
       <c t="s" r="G128" s="15">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H128" s="15"/>
       <c r="I128" s="15"/>
       <c r="J128" s="16"/>
       <c t="s" r="K128" s="17">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L128" s="17"/>
       <c r="M128" s="17"/>

--- a/DaySale_2025-09-03_00-00.xlsx
+++ b/DaySale_2025-09-03_00-00.xlsx
@@ -1043,7 +1043,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Wednesday, 3 September, 2025 11:24 PM</t>
+    <t>Wednesday, 3 September, 2025 11:28 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-03_00-00.xlsx
+++ b/DaySale_2025-09-03_00-00.xlsx
@@ -248,6 +248,18 @@
     <t>21.4500</t>
   </si>
   <si>
+    <t>CEFIDIME 1 GM VIAL I.M./I.V.</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>53.00</t>
+  </si>
+  <si>
+    <t>106.0000</t>
+  </si>
+  <si>
     <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
   </si>
   <si>
@@ -407,6 +419,12 @@
     <t>79.6800</t>
   </si>
   <si>
+    <t>DOLPHIN 12.5MG 10 SUPP</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
     <t>DOLPHIN 25 MG 10 SUPP.</t>
   </si>
   <si>
@@ -551,9 +569,6 @@
     <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>67.00</t>
   </si>
   <si>
@@ -578,9 +593,6 @@
     <t>KENACOMB TOPICAL CREAM 15 GM</t>
   </si>
   <si>
-    <t>36.0000</t>
-  </si>
-  <si>
     <t>KETOLAC 10MG 20 TAB</t>
   </si>
   <si>
@@ -677,6 +689,18 @@
     <t>99.0000</t>
   </si>
   <si>
+    <t>NEXICURE 10 MG SACHET</t>
+  </si>
+  <si>
+    <t>0:7</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>39.2000</t>
+  </si>
+  <si>
     <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
   </si>
   <si>
@@ -758,6 +782,12 @@
     <t>37.6000</t>
   </si>
   <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
+    <t>13.8600</t>
+  </si>
+  <si>
     <t>RECOXIBRIGHT 120 MG 7 F.C. TABS.</t>
   </si>
   <si>
@@ -1013,6 +1043,12 @@
     <t>3.00</t>
   </si>
   <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>16:0</t>
+  </si>
+  <si>
     <t>قطن 50جم</t>
   </si>
   <si>
@@ -1031,9 +1067,6 @@
     <t>30:0</t>
   </si>
   <si>
-    <t>48.0000</t>
-  </si>
-  <si>
     <t>مناديل FINE</t>
   </si>
   <si>
@@ -1043,7 +1076,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Wednesday, 3 September, 2025 11:28 PM</t>
+    <t>Wednesday, 3 September, 2025 11:29 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2295,7 +2328,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2344,7 +2377,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2354,11 +2387,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -2370,14 +2403,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2394,7 +2427,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2410,7 +2443,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2420,14 +2453,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2436,14 +2469,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2476,7 +2509,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2486,14 +2519,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2502,14 +2535,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2519,14 +2552,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2535,14 +2568,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2552,11 +2585,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -2568,7 +2601,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2585,11 +2618,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -2601,7 +2634,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2618,14 +2651,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2634,14 +2667,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2651,11 +2684,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>26</v>
@@ -2667,14 +2700,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2684,14 +2717,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>121</v>
+        <v>14</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>122</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>57</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2717,14 +2750,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>28</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2733,14 +2766,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>61</v>
+        <v>128</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2750,11 +2783,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>28</v>
@@ -2766,14 +2799,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>124</v>
+        <v>61</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2783,14 +2816,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2799,14 +2832,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2816,14 +2849,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>91</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2832,14 +2865,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2849,14 +2882,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>62</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2865,14 +2898,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2882,11 +2915,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2898,14 +2931,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2915,11 +2948,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2931,14 +2964,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2948,11 +2981,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>29</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2964,14 +2997,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2981,14 +3014,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>57</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2997,14 +3030,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>148</v>
+        <v>28</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3014,14 +3047,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>151</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3030,14 +3063,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>26</v>
+        <v>150</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3047,14 +3080,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>28</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3063,14 +3096,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>49</v>
+        <v>154</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3080,14 +3113,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
+        <v>156</v>
+      </c>
+      <c t="s" r="Q49" s="12">
         <v>157</v>
-      </c>
-      <c t="s" r="Q49" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3103,7 +3136,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3120,7 +3153,7 @@
         <v>160</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>45</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3136,7 +3169,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3146,11 +3179,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -3162,14 +3195,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3179,14 +3212,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3195,14 +3228,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3212,14 +3245,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3252,7 +3285,7 @@
         <v>170</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3268,24 +3301,24 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3294,31 +3327,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>66</v>
+        <v>175</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3327,28 +3360,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -3360,31 +3393,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>20</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3393,14 +3426,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>180</v>
+        <v>21</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3410,11 +3443,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>21</v>
@@ -3426,7 +3459,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3439,15 +3472,15 @@
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>184</v>
+        <v>19</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>21</v>
@@ -3466,7 +3499,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3499,21 +3532,21 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>120</v>
+        <v>49</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>14</v>
+        <v>189</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>189</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
@@ -3542,14 +3575,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>133</v>
+        <v>191</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>93</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3558,14 +3591,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>192</v>
+        <v>124</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3575,14 +3608,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>14</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>43</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3608,14 +3641,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>195</v>
+        <v>139</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>196</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3624,14 +3657,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>45</v>
+        <v>196</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3641,14 +3674,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3657,14 +3690,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3674,11 +3707,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>156</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>157</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>21</v>
@@ -3690,14 +3723,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3707,14 +3740,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>58</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>59</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3723,14 +3756,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3740,11 +3773,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>162</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>21</v>
@@ -3763,7 +3796,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3773,11 +3806,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>58</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>21</v>
@@ -3789,14 +3822,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3806,11 +3839,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>115</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>21</v>
@@ -3822,28 +3855,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>21</v>
@@ -3855,14 +3888,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3872,11 +3905,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>14</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>189</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>21</v>
@@ -3895,13 +3928,13 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
@@ -3909,7 +3942,7 @@
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>164</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>21</v>
@@ -3921,14 +3954,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>216</v>
+        <v>49</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3938,14 +3971,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>214</v>
+        <v>14</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>218</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3954,14 +3987,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3971,11 +4004,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>21</v>
@@ -3987,14 +4020,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>21</v>
+        <v>220</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4004,14 +4037,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>222</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4020,14 +4053,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>180</v>
+        <v>26</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4037,11 +4070,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>21</v>
@@ -4053,31 +4086,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>18</v>
+        <v>227</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>21</v>
+        <v>57</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4086,14 +4119,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4103,11 +4136,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>21</v>
@@ -4119,31 +4152,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>145</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4152,14 +4185,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4169,14 +4202,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4185,14 +4218,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4202,14 +4235,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>187</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4218,31 +4251,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>240</v>
+        <v>151</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
         <v>241</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4258,7 +4291,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4275,7 +4308,7 @@
         <v>244</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4291,7 +4324,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>246</v>
+        <v>26</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4301,11 +4334,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>248</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>26</v>
@@ -4317,14 +4350,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4334,11 +4367,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>160</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>21</v>
@@ -4350,28 +4383,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>21</v>
@@ -4383,31 +4416,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>49</v>
+        <v>254</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>121</v>
+        <v>255</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4416,14 +4449,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>43</v>
+        <v>124</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4433,14 +4466,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
         <v>258</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4462,15 +4495,15 @@
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>69</v>
+        <v>260</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>260</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>21</v>
@@ -4489,21 +4522,21 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>21</v>
@@ -4515,7 +4548,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4528,11 +4561,11 @@
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>264</v>
+        <v>125</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
@@ -4555,13 +4588,13 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
@@ -4594,15 +4627,15 @@
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>270</v>
+        <v>69</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>21</v>
@@ -4614,7 +4647,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4631,11 +4664,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>21</v>
@@ -4664,11 +4697,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>184</v>
+        <v>274</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>47</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>21</v>
@@ -4680,28 +4713,28 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>81</v>
+        <v>277</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>26</v>
@@ -4713,14 +4746,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4730,11 +4763,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>21</v>
@@ -4746,7 +4779,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4759,18 +4792,18 @@
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4779,14 +4812,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4796,14 +4829,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>282</v>
+        <v>189</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>283</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>120</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4819,7 +4852,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4829,14 +4862,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>133</v>
+        <v>85</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>134</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4845,14 +4878,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>286</v>
+        <v>21</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4869,7 +4902,7 @@
         <v>288</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>91</v>
+        <v>21</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4891,18 +4924,18 @@
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>121</v>
+        <v>274</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>255</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4911,14 +4944,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4928,14 +4961,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>21</v>
+        <v>124</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4944,14 +4977,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4961,11 +4994,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>198</v>
+        <v>139</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>294</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>21</v>
@@ -4984,7 +5017,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>18</v>
+        <v>296</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4994,14 +5027,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>141</v>
+        <v>297</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>43</v>
+        <v>95</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5010,14 +5043,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>298</v>
+        <v>49</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5027,14 +5060,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>299</v>
+        <v>125</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>300</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>120</v>
+        <v>21</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5043,7 +5076,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -5060,11 +5093,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>21</v>
@@ -5076,14 +5109,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5093,11 +5126,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>305</v>
+        <v>202</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>21</v>
@@ -5109,14 +5142,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5126,14 +5159,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>308</v>
+        <v>147</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>21</v>
+        <v>43</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5142,31 +5175,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>32</v>
+        <v>309</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>21</v>
+        <v>124</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5175,31 +5208,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>180</v>
+        <v>49</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5208,28 +5241,28 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>120</v>
+        <v>49</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>21</v>
@@ -5241,28 +5274,28 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>45</v>
+        <v>124</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>32</v>
+        <v>318</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>21</v>
@@ -5291,14 +5324,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>223</v>
+        <v>32</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5307,14 +5340,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>323</v>
+        <v>80</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5331,7 +5364,7 @@
         <v>325</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5347,7 +5380,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5364,7 +5397,7 @@
         <v>328</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5380,7 +5413,7 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5390,14 +5423,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>299</v>
+        <v>32</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>331</v>
+        <v>21</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5406,14 +5439,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>49</v>
+        <v>331</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5423,14 +5456,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>333</v>
+        <v>231</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>67</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>80</v>
+        <v>18</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5439,14 +5472,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>21</v>
+        <v>333</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5456,11 +5489,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>21</v>
@@ -5472,7 +5505,7 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
@@ -5489,14 +5522,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>67</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5505,14 +5538,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>120</v>
+        <v>49</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5522,14 +5555,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>21</v>
+        <v>341</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5538,14 +5571,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>339</v>
+        <v>49</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5555,14 +5588,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>149</v>
+        <v>343</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>45</v>
+        <v>345</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5571,14 +5604,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>342</v>
+        <v>21</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5588,11 +5621,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>67</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>21</v>
@@ -5604,14 +5637,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5621,49 +5654,181 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>314</v>
+        <v>348</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
+        <v>192</v>
+      </c>
+      <c t="s" r="Q126" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="A127" s="7">
+        <v>121</v>
+      </c>
+      <c r="B127" s="7"/>
+      <c t="s" r="C127" s="8">
+        <v>349</v>
+      </c>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c t="s" r="H127" s="9">
+        <v>124</v>
+      </c>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c t="s" r="L127" s="10">
+        <v>41</v>
+      </c>
+      <c r="M127" s="10"/>
+      <c t="s" r="N127" s="8">
+        <v>334</v>
+      </c>
+      <c r="O127" s="8"/>
+      <c t="s" r="P127" s="11">
+        <v>335</v>
+      </c>
+      <c t="s" r="Q127" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="A128" s="7">
+        <v>122</v>
+      </c>
+      <c r="B128" s="7"/>
+      <c t="s" r="C128" s="8">
+        <v>350</v>
+      </c>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c t="s" r="H128" s="9">
+        <v>351</v>
+      </c>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c t="s" r="L128" s="10">
+        <v>41</v>
+      </c>
+      <c r="M128" s="10"/>
+      <c t="s" r="N128" s="8">
+        <v>155</v>
+      </c>
+      <c r="O128" s="8"/>
+      <c t="s" r="P128" s="11">
+        <v>344</v>
+      </c>
+      <c t="s" r="Q128" s="12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="A129" s="7">
+        <v>123</v>
+      </c>
+      <c r="B129" s="7"/>
+      <c t="s" r="C129" s="8">
+        <v>352</v>
+      </c>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c t="s" r="H129" s="9">
+        <v>353</v>
+      </c>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c t="s" r="L129" s="10">
+        <v>41</v>
+      </c>
+      <c r="M129" s="10"/>
+      <c t="s" r="N129" s="8">
+        <v>324</v>
+      </c>
+      <c r="O129" s="8"/>
+      <c t="s" r="P129" s="11">
         <v>67</v>
       </c>
-      <c t="s" r="Q126" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="127" ht="25.5" customHeight="1">
-      <c r="P127" s="13">
-        <v>9107.7049999999999</v>
-      </c>
-      <c r="Q127" s="13"/>
-    </row>
-    <row r="128" ht="16.5" customHeight="1">
-      <c t="s" r="A128" s="14">
-        <v>344</v>
-      </c>
-      <c r="B128" s="14"/>
-      <c r="C128" s="14"/>
-      <c r="D128" s="14"/>
-      <c r="E128" s="14"/>
-      <c r="F128" s="14"/>
-      <c t="s" r="G128" s="15">
-        <v>345</v>
-      </c>
-      <c r="H128" s="15"/>
-      <c r="I128" s="15"/>
-      <c r="J128" s="16"/>
-      <c t="s" r="K128" s="17">
-        <v>346</v>
-      </c>
-      <c r="L128" s="17"/>
-      <c r="M128" s="17"/>
-      <c r="N128" s="17"/>
-      <c r="O128" s="17"/>
-      <c r="P128" s="17"/>
-      <c r="Q128" s="17"/>
+      <c t="s" r="Q129" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="130" ht="24.75" customHeight="1">
+      <c r="A130" s="7">
+        <v>124</v>
+      </c>
+      <c r="B130" s="7"/>
+      <c t="s" r="C130" s="8">
+        <v>354</v>
+      </c>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c t="s" r="H130" s="9">
+        <v>45</v>
+      </c>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c t="s" r="L130" s="10">
+        <v>41</v>
+      </c>
+      <c r="M130" s="10"/>
+      <c t="s" r="N130" s="8">
+        <v>324</v>
+      </c>
+      <c r="O130" s="8"/>
+      <c t="s" r="P130" s="11">
+        <v>67</v>
+      </c>
+      <c t="s" r="Q130" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="P131" s="13">
+        <v>9335.7649999999994</v>
+      </c>
+      <c r="Q131" s="13"/>
+    </row>
+    <row r="132" ht="16.5" customHeight="1">
+      <c t="s" r="A132" s="14">
+        <v>355</v>
+      </c>
+      <c r="B132" s="14"/>
+      <c r="C132" s="14"/>
+      <c r="D132" s="14"/>
+      <c r="E132" s="14"/>
+      <c r="F132" s="14"/>
+      <c t="s" r="G132" s="15">
+        <v>356</v>
+      </c>
+      <c r="H132" s="15"/>
+      <c r="I132" s="15"/>
+      <c r="J132" s="16"/>
+      <c t="s" r="K132" s="17">
+        <v>357</v>
+      </c>
+      <c r="L132" s="17"/>
+      <c r="M132" s="17"/>
+      <c r="N132" s="17"/>
+      <c r="O132" s="17"/>
+      <c r="P132" s="17"/>
+      <c r="Q132" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="612">
+  <mergeCells count="632">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6272,10 +6437,30 @@
     <mergeCell ref="H126:K126"/>
     <mergeCell ref="L126:M126"/>
     <mergeCell ref="N126:O126"/>
-    <mergeCell ref="P127:Q127"/>
-    <mergeCell ref="A128:F128"/>
-    <mergeCell ref="G128:I128"/>
-    <mergeCell ref="K128:Q128"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:G127"/>
+    <mergeCell ref="H127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="H128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:G129"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="L129:M129"/>
+    <mergeCell ref="N129:O129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:G130"/>
+    <mergeCell ref="H130:K130"/>
+    <mergeCell ref="L130:M130"/>
+    <mergeCell ref="N130:O130"/>
+    <mergeCell ref="P131:Q131"/>
+    <mergeCell ref="A132:F132"/>
+    <mergeCell ref="G132:I132"/>
+    <mergeCell ref="K132:Q132"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-03_00-00.xlsx
+++ b/DaySale_2025-09-03_00-00.xlsx
@@ -1076,7 +1076,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Wednesday, 3 September, 2025 11:29 PM</t>
+    <t>Wednesday, 3 September, 2025 11:41 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-03_00-00.xlsx
+++ b/DaySale_2025-09-03_00-00.xlsx
@@ -587,171 +587,174 @@
     <t>45.00</t>
   </si>
   <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>KENACOMB TOPICAL CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>KETOLAC 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>LACRITEARS EYE DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
+    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>LICID LOTION 30 ML</t>
+  </si>
+  <si>
+    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>MAXOPHAGE XR 1000MG 30 EXT. REL. TABS.</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>METAPSIN 10 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>110.0000</t>
+  </si>
+  <si>
+    <t>MILGA ADVANCE 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIRFENACIN MR5/25  TAB</t>
+  </si>
+  <si>
+    <t>339.00</t>
+  </si>
+  <si>
+    <t>339.0000</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG 10 TAB.</t>
+  </si>
+  <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>NEUROVIT 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>-33.0000</t>
+  </si>
+  <si>
+    <t>0:-3</t>
+  </si>
+  <si>
+    <t>NEVILOB 5 MG 21 TAB</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>99.0000</t>
+  </si>
+  <si>
+    <t>NEXICURE 10 MG SACHET</t>
+  </si>
+  <si>
+    <t>0:7</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>39.2000</t>
+  </si>
+  <si>
+    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>OLOHISTINE 1MG/ML OPHTHALMIC SOL. 5 ML</t>
+  </si>
+  <si>
+    <t>29.00</t>
+  </si>
+  <si>
+    <t>29.0000</t>
+  </si>
+  <si>
+    <t>OPLEX-N SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>OTRIVIN BABY SALINE NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>PANTAZOL 40MG 14 ENTERIC COATED TAB.</t>
+  </si>
+  <si>
+    <t>104.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>PANTOPRAZOLE 40MG 14 TAB.</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
     <t>45.0000</t>
   </si>
   <si>
-    <t>KENACOMB TOPICAL CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>KETOLAC 10MG 20 TAB</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>LACRITEARS EYE DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>49.00</t>
-  </si>
-  <si>
-    <t>49.0000</t>
-  </si>
-  <si>
-    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>LICID LOTION 30 ML</t>
-  </si>
-  <si>
-    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>MAXOPHAGE XR 1000MG 30 EXT. REL. TABS.</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>METAPSIN 10 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>110.00</t>
-  </si>
-  <si>
-    <t>110.0000</t>
-  </si>
-  <si>
-    <t>MILGA ADVANCE 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIRFENACIN MR5/25  TAB</t>
-  </si>
-  <si>
-    <t>339.00</t>
-  </si>
-  <si>
-    <t>339.0000</t>
-  </si>
-  <si>
-    <t>MOBITIL 15MG 10 TAB.</t>
-  </si>
-  <si>
-    <t>NEUROTON 6 AMP</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>NEUROVIT 6 I.M. AMPS</t>
-  </si>
-  <si>
-    <t>2:3</t>
-  </si>
-  <si>
-    <t>-33.0000</t>
-  </si>
-  <si>
-    <t>0:-3</t>
-  </si>
-  <si>
-    <t>NEVILOB 5 MG 21 TAB</t>
-  </si>
-  <si>
-    <t>99.00</t>
-  </si>
-  <si>
-    <t>99.0000</t>
-  </si>
-  <si>
-    <t>NEXICURE 10 MG SACHET</t>
-  </si>
-  <si>
-    <t>0:7</t>
-  </si>
-  <si>
-    <t>140.00</t>
-  </si>
-  <si>
-    <t>39.2000</t>
-  </si>
-  <si>
-    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>OLOHISTINE 1MG/ML OPHTHALMIC SOL. 5 ML</t>
-  </si>
-  <si>
-    <t>29.00</t>
-  </si>
-  <si>
-    <t>29.0000</t>
-  </si>
-  <si>
-    <t>OPLEX-N SYRUP 125ML</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>OTRIVIN BABY SALINE NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>PANADOL EXTRA 48 TAB</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>PANTAZOL 40MG 14 ENTERIC COATED TAB.</t>
-  </si>
-  <si>
-    <t>104.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>PANTOPRAZOLE 40MG 14 TAB.</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
     <t>PK-MERZ 100MG 30 F.C. TAB</t>
   </si>
   <si>
@@ -809,6 +812,15 @@
     <t>85.0000</t>
   </si>
   <si>
+    <t>RIVAROSPIRE 10 MG 20 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>254.00</t>
+  </si>
+  <si>
+    <t>127.0000</t>
+  </si>
+  <si>
     <t>SALMETOCORT 250/50MCG 60 PD. INH. CAPS.+ INH. DEVICE</t>
   </si>
   <si>
@@ -827,9 +839,6 @@
     <t>SILIPEX 30 CAPSULES</t>
   </si>
   <si>
-    <t>90.0000</t>
-  </si>
-  <si>
     <t>STARVILLE WHITENING ANTIPRESPIRANT ROLL-ON 60 ML</t>
   </si>
   <si>
@@ -1076,7 +1085,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Wednesday, 3 September, 2025 11:41 PM</t>
+    <t>Wednesday, 3 September, 2025 11:44 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3565,7 +3574,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3582,7 +3591,7 @@
         <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -4338,7 +4347,7 @@
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>192</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>26</v>
@@ -4350,7 +4359,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4367,11 +4376,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>21</v>
@@ -4383,7 +4392,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4400,11 +4409,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>21</v>
@@ -4416,14 +4425,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4433,11 +4442,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>26</v>
@@ -4449,7 +4458,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4466,11 +4475,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4482,7 +4491,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4499,7 +4508,7 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
@@ -4515,7 +4524,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4532,11 +4541,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>21</v>
@@ -4548,7 +4557,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4569,7 +4578,7 @@
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>21</v>
@@ -4581,14 +4590,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4598,11 +4607,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>26</v>
@@ -4614,31 +4623,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
 